--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -52,6 +52,18 @@
     <t>2017-02-21 02:43:22</t>
   </si>
   <si>
+    <t>1f742fa6-c4b5-49d4-98f1-613f34983f18.md</t>
+  </si>
+  <si>
+    <t>e2e\1f742fa6-c4b5-49d4-98f1-613f34983f18.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-21 02:50:44</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,10 +142,25 @@
     <t>True</t>
   </si>
   <si>
+    <t>1f742fa6-c4b5-49d4-98f1-613f34983f18.ffa78af09799d04b797a665ee86c031e4baa213e.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 02:50:29</t>
+  </si>
+  <si>
+    <t>2017-02-21 02:51:23</t>
+  </si>
+  <si>
     <t>76c684fe-fae5-4582-bbe6-b7188850f6f9.f42cdad4abbdd7b81b68f71f93b29284f3e58e70.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-21 02:45:16</t>
+  </si>
+  <si>
+    <t>1f742fa6-c4b5-49d4-98f1-613f34983f18.ffa78af09799d04b797a665ee86c031e4baa213e.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 02:51:45</t>
   </si>
 </sst>
 </file>
@@ -190,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +271,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -261,7 +288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +346,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\76c684fe-fae5-4582-bbe6-b7188850f6f9.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\1f742fa6-c4b5-49d4-98f1-613f34983f18.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +408,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -425,55 +473,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="R2" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="F3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="76c684fe-fae5-4582-bbe6-b7188850f6f9.md" r:id="rId2"/>
     <hyperlink ref="J2" display="76c684fe-fae5-4582-bbe6-b7188850f6f9.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="1f742fa6-c4b5-49d4-98f1-613f34983f18.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="1f742fa6-c4b5-49d4-98f1-613f34983f18.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +590,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +618,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -577,55 +683,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="F3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="76c684fe-fae5-4582-bbe6-b7188850f6f9.md" r:id="rId2"/>
     <hyperlink ref="J2" display="76c684fe-fae5-4582-bbe6-b7188850f6f9.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="1f742fa6-c4b5-49d4-98f1-613f34983f18.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="1f742fa6-c4b5-49d4-98f1-613f34983f18.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -64,6 +64,15 @@
     <t>2017-02-21 02:50:44</t>
   </si>
   <si>
+    <t>ca24be9b-d1c9-47e3-a217-30907f7ae952.md</t>
+  </si>
+  <si>
+    <t>e2e\ca24be9b-d1c9-47e3-a217-30907f7ae952.md</t>
+  </si>
+  <si>
+    <t>2017-02-21 02:54:44</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -151,6 +160,15 @@
     <t>2017-02-21 02:51:23</t>
   </si>
   <si>
+    <t>ca24be9b-d1c9-47e3-a217-30907f7ae952.eaa4df49cd63898d43d61144a2467e600adcaa49.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 02:54:27</t>
+  </si>
+  <si>
+    <t>2017-02-21 02:55:24</t>
+  </si>
+  <si>
     <t>76c684fe-fae5-4582-bbe6-b7188850f6f9.f42cdad4abbdd7b81b68f71f93b29284f3e58e70.de-de.xlf</t>
   </si>
   <si>
@@ -161,6 +179,12 @@
   </si>
   <si>
     <t>2017-02-21 02:51:45</t>
+  </si>
+  <si>
+    <t>ca24be9b-d1c9-47e3-a217-30907f7ae952.eaa4df49cd63898d43d61144a2467e600adcaa49.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 02:55:46</t>
   </si>
 </sst>
 </file>
@@ -217,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -271,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -288,7 +312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,10 +390,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\76c684fe-fae5-4582-bbe6-b7188850f6f9.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\1f742fa6-c4b5-49d4-98f1-613f34983f18.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\ca24be9b-d1c9-47e3-a217-30907f7ae952.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -380,7 +425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,58 +453,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -473,49 +518,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -529,49 +574,105 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -580,6 +681,8 @@
     <hyperlink ref="J2" display="76c684fe-fae5-4582-bbe6-b7188850f6f9.md" r:id="rId3"/>
     <hyperlink ref="A3" display="1f742fa6-c4b5-49d4-98f1-613f34983f18.md" r:id="rId4"/>
     <hyperlink ref="J3" display="1f742fa6-c4b5-49d4-98f1-613f34983f18.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="ca24be9b-d1c9-47e3-a217-30907f7ae952.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="ca24be9b-d1c9-47e3-a217-30907f7ae952.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -590,7 +693,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,58 +721,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -683,49 +786,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -739,49 +842,105 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -790,6 +949,8 @@
     <hyperlink ref="J2" display="76c684fe-fae5-4582-bbe6-b7188850f6f9.md" r:id="rId3"/>
     <hyperlink ref="A3" display="1f742fa6-c4b5-49d4-98f1-613f34983f18.md" r:id="rId4"/>
     <hyperlink ref="J3" display="1f742fa6-c4b5-49d4-98f1-613f34983f18.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="ca24be9b-d1c9-47e3-a217-30907f7ae952.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="ca24be9b-d1c9-47e3-a217-30907f7ae952.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -70,7 +70,7 @@
     <t>e2e\ca24be9b-d1c9-47e3-a217-30907f7ae952.md</t>
   </si>
   <si>
-    <t>2017-02-21 02:54:44</t>
+    <t>2017-02-21 02:56:59</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -163,10 +163,10 @@
     <t>ca24be9b-d1c9-47e3-a217-30907f7ae952.eaa4df49cd63898d43d61144a2467e600adcaa49.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 02:54:27</t>
-  </si>
-  <si>
-    <t>2017-02-21 02:55:24</t>
+    <t>2017-02-21 02:56:43</t>
+  </si>
+  <si>
+    <t>2017-02-21 02:57:40</t>
   </si>
   <si>
     <t>76c684fe-fae5-4582-bbe6-b7188850f6f9.f42cdad4abbdd7b81b68f71f93b29284f3e58e70.de-de.xlf</t>
@@ -184,7 +184,7 @@
     <t>ca24be9b-d1c9-47e3-a217-30907f7ae952.eaa4df49cd63898d43d61144a2467e600adcaa49.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 02:55:46</t>
+    <t>2017-02-21 02:58:02</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -37,25 +37,31 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>b.md</t>
+  </si>
+  <si>
+    <t>e2e\b.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:01:21</t>
+  </si>
+  <si>
     <t>a.md</t>
   </si>
   <si>
     <t>e2e\a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-21 03:01:21</t>
-  </si>
-  <si>
-    <t>b.md</t>
-  </si>
-  <si>
-    <t>e2e\b.md</t>
+    <t>2017-02-21 03:05:14</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -136,10 +142,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>2017-02-21 03:04:57</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:06:28</t>
+  </si>
+  <si>
+    <t>TestHandback_201702211106</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-21 03:02:19</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:06:52</t>
   </si>
 </sst>
 </file>
@@ -277,8 +295,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -336,19 +354,19 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\b.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\b.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -367,7 +385,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -387,58 +405,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -452,49 +470,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -505,60 +523,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -577,7 +595,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -597,58 +615,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -662,49 +680,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -715,60 +733,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>File Name</t>
   </si>
@@ -67,6 +67,9 @@
     <t>.md</t>
   </si>
   <si>
+    <t>2017-02-21 03:15:25</t>
+  </si>
+  <si>
     <t>963181bc-6958-4ff6-8c33-2b88c8d2e373.md</t>
   </si>
   <si>
@@ -166,6 +169,12 @@
     <t>93463dfa-68cf-422f-b64f-7fbecba66435.e091aeb68b9cc4e11c6fd867a34e6865efe05053.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-21 03:15:09</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:16:02</t>
+  </si>
+  <si>
     <t>963181bc-6958-4ff6-8c33-2b88c8d2e373.d87e01e60e085c0193f3beaf6591cc8c1e2de774.zh-cn.xlf</t>
   </si>
   <si>
@@ -176,6 +185,9 @@
   </si>
   <si>
     <t>93463dfa-68cf-422f-b64f-7fbecba66435.e091aeb68b9cc4e11c6fd867a34e6865efe05053.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:16:24</t>
   </si>
   <si>
     <t>963181bc-6958-4ff6-8c33-2b88c8d2e373.d87e01e60e085c0193f3beaf6591cc8c1e2de774.de-de.xlf</t>
@@ -404,15 +416,15 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>16</v>
@@ -429,10 +441,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>16</v>
@@ -492,58 +504,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -557,49 +569,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -613,49 +625,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -669,54 +681,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>16</v>
@@ -725,54 +737,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>16</v>
@@ -781,49 +793,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -876,58 +888,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -941,49 +953,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -997,49 +1009,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -1053,54 +1065,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>16</v>
@@ -1109,54 +1121,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>16</v>
@@ -1165,49 +1177,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>File Name</t>
   </si>
@@ -37,31 +37,28 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>14eebf22-a8fe-4f0a-a490-b5a48f53f23e.md</t>
+  </si>
+  <si>
+    <t>e2e\14eebf22-a8fe-4f0a-a490-b5a48f53f23e.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:19:56</t>
+  </si>
+  <si>
     <t>85de678e-0242-46c6-970f-3f5cc10cb668.md</t>
   </si>
   <si>
     <t>e2e\85de678e-0242-46c6-970f-3f5cc10cb668.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-21 03:22:18</t>
-  </si>
-  <si>
-    <t>14eebf22-a8fe-4f0a-a490-b5a48f53f23e.md</t>
-  </si>
-  <si>
-    <t>e2e\14eebf22-a8fe-4f0a-a490-b5a48f53f23e.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-21 03:19:56</t>
+    <t>2017-02-21 03:23:08</t>
   </si>
   <si>
     <t>963181bc-6958-4ff6-8c33-2b88c8d2e373.md</t>
@@ -151,28 +148,28 @@
     <t>False</t>
   </si>
   <si>
+    <t>14eebf22-a8fe-4f0a-a490-b5a48f53f23e.3467cc04cc0f4b00d1cc7cca8e16812cbc50b54a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:19:40</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-21 03:20:35</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>85de678e-0242-46c6-970f-3f5cc10cb668.b9c857e57ebfa5360dfb94bc4b8d6b90a239f9fa.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 03:22:01</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-02-21 03:23:47</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>14eebf22-a8fe-4f0a-a490-b5a48f53f23e.3467cc04cc0f4b00d1cc7cca8e16812cbc50b54a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 03:19:40</t>
-  </si>
-  <si>
-    <t>2017-02-21 03:20:35</t>
+    <t>2017-02-21 03:22:52</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:25:14</t>
   </si>
   <si>
     <t>963181bc-6958-4ff6-8c33-2b88c8d2e373.d87e01e60e085c0193f3beaf6591cc8c1e2de774.zh-cn.xlf</t>
@@ -193,16 +190,16 @@
     <t>2017-02-21 03:18:16</t>
   </si>
   <si>
+    <t>14eebf22-a8fe-4f0a-a490-b5a48f53f23e.3467cc04cc0f4b00d1cc7cca8e16812cbc50b54a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:20:59</t>
+  </si>
+  <si>
     <t>85de678e-0242-46c6-970f-3f5cc10cb668.b9c857e57ebfa5360dfb94bc4b8d6b90a239f9fa.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 03:24:10</t>
-  </si>
-  <si>
-    <t>14eebf22-a8fe-4f0a-a490-b5a48f53f23e.3467cc04cc0f4b00d1cc7cca8e16812cbc50b54a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 03:20:59</t>
+    <t>2017-02-21 03:25:37</t>
   </si>
   <si>
     <t>963181bc-6958-4ff6-8c33-2b88c8d2e373.d87e01e60e085c0193f3beaf6591cc8c1e2de774.de-de.xlf</t>
@@ -352,8 +349,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
-    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -411,79 +408,79 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\85de678e-0242-46c6-970f-3f5cc10cb668.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\14eebf22-a8fe-4f0a-a490-b5a48f53f23e.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\14eebf22-a8fe-4f0a-a490-b5a48f53f23e.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\85de678e-0242-46c6-970f-3f5cc10cb668.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\963181bc-6958-4ff6-8c33-2b88c8d2e373.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\abf76a13-d0ac-4ced-9749-2a9b9179f54b.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\e7511b24-5515-401f-ba3f-c50b79e8a90f.md" r:id="rId6"/>
@@ -505,7 +502,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -525,58 +522,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -590,49 +587,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -643,228 +640,228 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="85de678e-0242-46c6-970f-3f5cc10cb668.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="85de678e-0242-46c6-970f-3f5cc10cb668.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="14eebf22-a8fe-4f0a-a490-b5a48f53f23e.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="14eebf22-a8fe-4f0a-a490-b5a48f53f23e.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="14eebf22-a8fe-4f0a-a490-b5a48f53f23e.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="14eebf22-a8fe-4f0a-a490-b5a48f53f23e.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="85de678e-0242-46c6-970f-3f5cc10cb668.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="85de678e-0242-46c6-970f-3f5cc10cb668.md" r:id="rId5"/>
     <hyperlink ref="A4" display="963181bc-6958-4ff6-8c33-2b88c8d2e373.md" r:id="rId6"/>
     <hyperlink ref="J4" display="963181bc-6958-4ff6-8c33-2b88c8d2e373.md" r:id="rId7"/>
     <hyperlink ref="A5" display="abf76a13-d0ac-4ced-9749-2a9b9179f54b.md" r:id="rId8"/>
@@ -889,7 +886,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -909,58 +906,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -974,49 +971,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -1027,228 +1024,228 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="85de678e-0242-46c6-970f-3f5cc10cb668.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="85de678e-0242-46c6-970f-3f5cc10cb668.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="14eebf22-a8fe-4f0a-a490-b5a48f53f23e.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="14eebf22-a8fe-4f0a-a490-b5a48f53f23e.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="14eebf22-a8fe-4f0a-a490-b5a48f53f23e.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="14eebf22-a8fe-4f0a-a490-b5a48f53f23e.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="85de678e-0242-46c6-970f-3f5cc10cb668.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="85de678e-0242-46c6-970f-3f5cc10cb668.md" r:id="rId5"/>
     <hyperlink ref="A4" display="963181bc-6958-4ff6-8c33-2b88c8d2e373.md" r:id="rId6"/>
     <hyperlink ref="J4" display="963181bc-6958-4ff6-8c33-2b88c8d2e373.md" r:id="rId7"/>
     <hyperlink ref="A5" display="abf76a13-d0ac-4ced-9749-2a9b9179f54b.md" r:id="rId8"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -52,6 +52,18 @@
     <t>2017-02-21 03:43:24</t>
   </si>
   <si>
+    <t>6920636f-3f4a-43ea-93de-50b787ffc917.md</t>
+  </si>
+  <si>
+    <t>e2e\6920636f-3f4a-43ea-93de-50b787ffc917.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:50:39</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,10 +142,25 @@
     <t>True</t>
   </si>
   <si>
+    <t>6920636f-3f4a-43ea-93de-50b787ffc917.1b10f6bddb18522f912d09ef8f508f4ad125f188.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:50:24</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:51:18</t>
+  </si>
+  <si>
     <t>bbdea7cb-8918-44b7-918e-fb00e6c81f68.6ad35c227a43d1831b05370aa5a076793e028f1d.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-21 03:45:14</t>
+  </si>
+  <si>
+    <t>6920636f-3f4a-43ea-93de-50b787ffc917.1b10f6bddb18522f912d09ef8f508f4ad125f188.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:51:41</t>
   </si>
 </sst>
 </file>
@@ -190,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +271,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -261,7 +288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +346,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\bbdea7cb-8918-44b7-918e-fb00e6c81f68.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\6920636f-3f4a-43ea-93de-50b787ffc917.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +408,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -425,55 +473,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="R2" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="F3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="bbdea7cb-8918-44b7-918e-fb00e6c81f68.md" r:id="rId2"/>
     <hyperlink ref="J2" display="bbdea7cb-8918-44b7-918e-fb00e6c81f68.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="6920636f-3f4a-43ea-93de-50b787ffc917.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="6920636f-3f4a-43ea-93de-50b787ffc917.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +590,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +618,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -577,55 +683,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="F3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="bbdea7cb-8918-44b7-918e-fb00e6c81f68.md" r:id="rId2"/>
     <hyperlink ref="J2" display="bbdea7cb-8918-44b7-918e-fb00e6c81f68.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="6920636f-3f4a-43ea-93de-50b787ffc917.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="6920636f-3f4a-43ea-93de-50b787ffc917.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -64,6 +64,15 @@
     <t>2017-02-21 03:50:39</t>
   </si>
   <si>
+    <t>afddc8bf-b5fd-4493-8abe-fb20b78e3889.md</t>
+  </si>
+  <si>
+    <t>e2e\afddc8bf-b5fd-4493-8abe-fb20b78e3889.md</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:54:38</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -151,6 +160,15 @@
     <t>2017-02-21 03:51:18</t>
   </si>
   <si>
+    <t>afddc8bf-b5fd-4493-8abe-fb20b78e3889.73d64dd4387cc943d66a2a59819b25be6d818c02.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:54:22</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:55:18</t>
+  </si>
+  <si>
     <t>bbdea7cb-8918-44b7-918e-fb00e6c81f68.6ad35c227a43d1831b05370aa5a076793e028f1d.de-de.xlf</t>
   </si>
   <si>
@@ -161,6 +179,12 @@
   </si>
   <si>
     <t>2017-02-21 03:51:41</t>
+  </si>
+  <si>
+    <t>afddc8bf-b5fd-4493-8abe-fb20b78e3889.73d64dd4387cc943d66a2a59819b25be6d818c02.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:55:41</t>
   </si>
 </sst>
 </file>
@@ -217,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -271,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -288,7 +312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,10 +390,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\bbdea7cb-8918-44b7-918e-fb00e6c81f68.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\6920636f-3f4a-43ea-93de-50b787ffc917.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\afddc8bf-b5fd-4493-8abe-fb20b78e3889.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -380,7 +425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,58 +453,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -473,49 +518,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -529,49 +574,105 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -580,6 +681,8 @@
     <hyperlink ref="J2" display="bbdea7cb-8918-44b7-918e-fb00e6c81f68.md" r:id="rId3"/>
     <hyperlink ref="A3" display="6920636f-3f4a-43ea-93de-50b787ffc917.md" r:id="rId4"/>
     <hyperlink ref="J3" display="6920636f-3f4a-43ea-93de-50b787ffc917.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="afddc8bf-b5fd-4493-8abe-fb20b78e3889.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="afddc8bf-b5fd-4493-8abe-fb20b78e3889.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -590,7 +693,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,58 +721,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -683,49 +786,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -739,49 +842,105 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -790,6 +949,8 @@
     <hyperlink ref="J2" display="bbdea7cb-8918-44b7-918e-fb00e6c81f68.md" r:id="rId3"/>
     <hyperlink ref="A3" display="6920636f-3f4a-43ea-93de-50b787ffc917.md" r:id="rId4"/>
     <hyperlink ref="J3" display="6920636f-3f4a-43ea-93de-50b787ffc917.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="afddc8bf-b5fd-4493-8abe-fb20b78e3889.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="afddc8bf-b5fd-4493-8abe-fb20b78e3889.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -70,7 +70,7 @@
     <t>e2e\afddc8bf-b5fd-4493-8abe-fb20b78e3889.md</t>
   </si>
   <si>
-    <t>2017-02-21 03:54:38</t>
+    <t>2017-02-21 03:56:54</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -163,10 +163,10 @@
     <t>afddc8bf-b5fd-4493-8abe-fb20b78e3889.73d64dd4387cc943d66a2a59819b25be6d818c02.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 03:54:22</t>
-  </si>
-  <si>
-    <t>2017-02-21 03:55:18</t>
+    <t>2017-02-21 03:56:37</t>
+  </si>
+  <si>
+    <t>2017-02-21 03:57:33</t>
   </si>
   <si>
     <t>bbdea7cb-8918-44b7-918e-fb00e6c81f68.6ad35c227a43d1831b05370aa5a076793e028f1d.de-de.xlf</t>
@@ -184,7 +184,7 @@
     <t>afddc8bf-b5fd-4493-8abe-fb20b78e3889.73d64dd4387cc943d66a2a59819b25be6d818c02.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 03:55:41</t>
+    <t>2017-02-21 03:57:55</t>
   </si>
 </sst>
 </file>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -37,25 +37,31 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>b.md</t>
+  </si>
+  <si>
+    <t>e2e\b.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:01:14</t>
+  </si>
+  <si>
     <t>a.md</t>
   </si>
   <si>
     <t>e2e\a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-21 04:01:14</t>
-  </si>
-  <si>
-    <t>b.md</t>
-  </si>
-  <si>
-    <t>e2e\b.md</t>
+    <t>2017-02-21 04:05:08</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -136,10 +142,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>2017-02-21 04:04:52</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:06:36</t>
+  </si>
+  <si>
+    <t>TestHandback_201702211206</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-21 04:02:14</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:06:59</t>
   </si>
 </sst>
 </file>
@@ -277,8 +295,8 @@
     <col min="2" max="2" width="17.3850727081299" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
-    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -336,19 +354,19 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\b.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\b.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -367,7 +385,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -387,58 +405,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -452,49 +470,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -505,60 +523,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -577,7 +595,7 @@
   <cols>
     <col min="1" max="1" width="18.9206943511963" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -597,58 +615,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -662,49 +680,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -715,60 +733,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>File Name</t>
   </si>
@@ -67,6 +67,9 @@
     <t>e2e\a6be5ba1-4d7a-457f-9afe-923b2a13a896.md</t>
   </si>
   <si>
+    <t>2017-02-21 04:15:31</t>
+  </si>
+  <si>
     <t>b76753d8-f444-4b11-814d-6c833bfb1a88.md</t>
   </si>
   <si>
@@ -166,6 +169,12 @@
     <t>a6be5ba1-4d7a-457f-9afe-923b2a13a896.a1dc7dfef67f5eff1da988d07b03aceffb18d12c.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-21 04:15:15</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:16:10</t>
+  </si>
+  <si>
     <t>b76753d8-f444-4b11-814d-6c833bfb1a88.67d822a3ad5cd09c26a4b6db1fd23edf7271d5bc.zh-cn.xlf</t>
   </si>
   <si>
@@ -179,6 +188,9 @@
   </si>
   <si>
     <t>a6be5ba1-4d7a-457f-9afe-923b2a13a896.a1dc7dfef67f5eff1da988d07b03aceffb18d12c.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:16:33</t>
   </si>
   <si>
     <t>b76753d8-f444-4b11-814d-6c833bfb1a88.67d822a3ad5cd09c26a4b6db1fd23edf7271d5bc.de-de.xlf</t>
@@ -404,15 +416,15 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -429,10 +441,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>14</v>
@@ -492,58 +504,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -557,49 +569,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -613,49 +625,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -669,54 +681,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -725,54 +737,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>14</v>
@@ -781,49 +793,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -876,58 +888,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -941,49 +953,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -997,49 +1009,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>8</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -1053,54 +1065,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1109,54 +1121,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>14</v>
@@ -1165,49 +1177,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>16</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -52,34 +52,13 @@
     <t>2017-02-21 04:13:11</t>
   </si>
   <si>
-    <t>3141e0f4-782e-4c99-b82e-f1d9b7c422c4.png</t>
-  </si>
-  <si>
-    <t>e2e\3141e0f4-782e-4c99-b82e-f1d9b7c422c4.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>a6be5ba1-4d7a-457f-9afe-923b2a13a896.md</t>
-  </si>
-  <si>
-    <t>e2e\a6be5ba1-4d7a-457f-9afe-923b2a13a896.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:15:31</t>
-  </si>
-  <si>
     <t>b76753d8-f444-4b11-814d-6c833bfb1a88.md</t>
   </si>
   <si>
     <t>e2e\b76753d8-f444-4b11-814d-6c833bfb1a88.md</t>
   </si>
   <si>
-    <t>f25ebbce-f8c1-4623-b73a-d319c8c2ac40.png</t>
-  </si>
-  <si>
-    <t>e2e\f25ebbce-f8c1-4623-b73a-d319c8c2ac40.png</t>
+    <t>2017-02-21 04:17:43</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -160,25 +139,13 @@
     <t>True</t>
   </si>
   <si>
-    <t>c4304b17b5916f9cac0c90495ccd2e1d03113451.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>a6be5ba1-4d7a-457f-9afe-923b2a13a896.a1dc7dfef67f5eff1da988d07b03aceffb18d12c.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:15:15</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:16:10</t>
-  </si>
-  <si>
     <t>b76753d8-f444-4b11-814d-6c833bfb1a88.67d822a3ad5cd09c26a4b6db1fd23edf7271d5bc.zh-cn.xlf</t>
   </si>
   <si>
-    <t>542b34d38c96e93d3c6c5844bd57e070ece0ebfd.png</t>
+    <t>2017-02-21 04:17:27</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:18:21</t>
   </si>
   <si>
     <t>1362c9f3-8b12-4a84-b90d-eb769bd76bdc.1d58d2c5fc70a938babf0826d2724338f1f20728.de-de.xlf</t>
@@ -187,13 +154,10 @@
     <t>2017-02-21 04:14:11</t>
   </si>
   <si>
-    <t>a6be5ba1-4d7a-457f-9afe-923b2a13a896.a1dc7dfef67f5eff1da988d07b03aceffb18d12c.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:16:33</t>
-  </si>
-  <si>
     <t>b76753d8-f444-4b11-814d-6c833bfb1a88.67d822a3ad5cd09c26a4b6db1fd23edf7271d5bc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:18:44</t>
   </si>
 </sst>
 </file>
@@ -250,8 +214,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R6" headerRowCount="1">
-  <autoFilter ref="A1:R6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -277,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R6" headerRowCount="1">
-  <autoFilter ref="A1:R6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -304,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -321,7 +285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -387,7 +351,7 @@
         <v>13</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
         <v>10</v>
@@ -396,76 +360,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\3141e0f4-782e-4c99-b82e-f1d9b7c422c4.png" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\a6be5ba1-4d7a-457f-9afe-923b2a13a896.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\f25ebbce-f8c1-4623-b73a-d319c8c2ac40.png" r:id="rId6"/>
+    <hyperlink ref="B3" display="e2e\b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -476,7 +377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,66 +397,66 @@
     <col min="12" max="12" width="32.096752166748" customWidth="1"/>
     <col min="13" max="13" width="28.8178272247314" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
-    <col min="15" max="15" width="17.7080821990967" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
+    <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
     <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -569,49 +470,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -619,237 +520,63 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId2"/>
     <hyperlink ref="J2" display="1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="3141e0f4-782e-4c99-b82e-f1d9b7c422c4.png" r:id="rId4"/>
-    <hyperlink ref="J3" display="3141e0f4-782e-4c99-b82e-f1d9b7c422c4.png" r:id="rId5"/>
-    <hyperlink ref="A4" display="a6be5ba1-4d7a-457f-9afe-923b2a13a896.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="a6be5ba1-4d7a-457f-9afe-923b2a13a896.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="f25ebbce-f8c1-4623-b73a-d319c8c2ac40.png" r:id="rId10"/>
-    <hyperlink ref="J6" display="f25ebbce-f8c1-4623-b73a-d319c8c2ac40.png" r:id="rId11"/>
+    <hyperlink ref="A3" display="b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -860,7 +587,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -880,66 +607,66 @@
     <col min="12" max="12" width="32.096752166748" customWidth="1"/>
     <col min="13" max="13" width="28.8178272247314" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
-    <col min="15" max="15" width="17.7080821990967" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
+    <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
     <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -953,49 +680,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -1003,237 +730,63 @@
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId2"/>
     <hyperlink ref="J2" display="1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="3141e0f4-782e-4c99-b82e-f1d9b7c422c4.png" r:id="rId4"/>
-    <hyperlink ref="J3" display="3141e0f4-782e-4c99-b82e-f1d9b7c422c4.png" r:id="rId5"/>
-    <hyperlink ref="A4" display="a6be5ba1-4d7a-457f-9afe-923b2a13a896.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="a6be5ba1-4d7a-457f-9afe-923b2a13a896.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="f25ebbce-f8c1-4623-b73a-d319c8c2ac40.png" r:id="rId10"/>
-    <hyperlink ref="J6" display="f25ebbce-f8c1-4623-b73a-d319c8c2ac40.png" r:id="rId11"/>
+    <hyperlink ref="A3" display="b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>File Name</t>
   </si>
@@ -37,40 +37,37 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>081b7c23-73ba-4897-b725-3c8bc4a28674.md</t>
+  </si>
+  <si>
+    <t>e2e\081b7c23-73ba-4897-b725-3c8bc4a28674.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:20:02</t>
+  </si>
+  <si>
+    <t>1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md</t>
+  </si>
+  <si>
+    <t>e2e\1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:13:11</t>
+  </si>
+  <si>
     <t>2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md</t>
   </si>
   <si>
     <t>e2e\2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:22:24</t>
-  </si>
-  <si>
-    <t>081b7c23-73ba-4897-b725-3c8bc4a28674.md</t>
-  </si>
-  <si>
-    <t>e2e\081b7c23-73ba-4897-b725-3c8bc4a28674.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:20:02</t>
-  </si>
-  <si>
-    <t>1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md</t>
-  </si>
-  <si>
-    <t>e2e\1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:13:11</t>
+    <t>2017-02-21 04:23:14</t>
   </si>
   <si>
     <t>b0a17a9c-3df2-45bd-90b3-293d79b2ccbc.md</t>
@@ -151,37 +148,37 @@
     <t>False</t>
   </si>
   <si>
+    <t>081b7c23-73ba-4897-b725-3c8bc4a28674.2cb88882afc1de85e338b3ef970cdef476b8e54b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:19:46</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-21 04:20:41</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>1362c9f3-8b12-4a84-b90d-eb769bd76bdc.1d58d2c5fc70a938babf0826d2724338f1f20728.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:12:54</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:13:48</t>
+  </si>
+  <si>
     <t>2a3573bb-6bc3-4900-84b7-93ba1bd817b1.0b38e04f8e72816a3099d7e601e0ee72561c4df8.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 04:22:07</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-02-21 04:23:53</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>081b7c23-73ba-4897-b725-3c8bc4a28674.2cb88882afc1de85e338b3ef970cdef476b8e54b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:19:46</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:20:41</t>
-  </si>
-  <si>
-    <t>1362c9f3-8b12-4a84-b90d-eb769bd76bdc.1d58d2c5fc70a938babf0826d2724338f1f20728.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:12:54</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:13:48</t>
+    <t>2017-02-21 04:22:57</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:25:20</t>
   </si>
   <si>
     <t>b76753d8-f444-4b11-814d-6c833bfb1a88.67d822a3ad5cd09c26a4b6db1fd23edf7271d5bc.zh-cn.xlf</t>
@@ -193,22 +190,22 @@
     <t>2017-02-21 04:18:21</t>
   </si>
   <si>
+    <t>081b7c23-73ba-4897-b725-3c8bc4a28674.2cb88882afc1de85e338b3ef970cdef476b8e54b.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:21:04</t>
+  </si>
+  <si>
+    <t>1362c9f3-8b12-4a84-b90d-eb769bd76bdc.1d58d2c5fc70a938babf0826d2724338f1f20728.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:14:11</t>
+  </si>
+  <si>
     <t>2a3573bb-6bc3-4900-84b7-93ba1bd817b1.0b38e04f8e72816a3099d7e601e0ee72561c4df8.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 04:24:16</t>
-  </si>
-  <si>
-    <t>081b7c23-73ba-4897-b725-3c8bc4a28674.2cb88882afc1de85e338b3ef970cdef476b8e54b.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:21:04</t>
-  </si>
-  <si>
-    <t>1362c9f3-8b12-4a84-b90d-eb769bd76bdc.1d58d2c5fc70a938babf0826d2724338f1f20728.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:14:11</t>
+    <t>2017-02-21 04:25:43</t>
   </si>
   <si>
     <t>b76753d8-f444-4b11-814d-6c833bfb1a88.67d822a3ad5cd09c26a4b6db1fd23edf7271d5bc.de-de.xlf</t>
@@ -352,8 +349,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.963942527771" customWidth="1"/>
-    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
-    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
+    <col min="5" max="5" width="29.9777050018311" customWidth="1"/>
+    <col min="6" max="6" width="29.9777050018311" customWidth="1"/>
     <col min="7" max="7" width="29.5073738098145" customWidth="1"/>
   </cols>
   <sheetData>
@@ -411,80 +408,80 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\081b7c23-73ba-4897-b725-3c8bc4a28674.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\081b7c23-73ba-4897-b725-3c8bc4a28674.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\b0a17a9c-3df2-45bd-90b3-293d79b2ccbc.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId6"/>
   </hyperlinks>
@@ -505,7 +502,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -525,58 +522,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -590,49 +587,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -643,230 +640,230 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="081b7c23-73ba-4897-b725-3c8bc4a28674.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="081b7c23-73ba-4897-b725-3c8bc4a28674.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="081b7c23-73ba-4897-b725-3c8bc4a28674.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="081b7c23-73ba-4897-b725-3c8bc4a28674.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md" r:id="rId7"/>
     <hyperlink ref="A5" display="b0a17a9c-3df2-45bd-90b3-293d79b2ccbc.md" r:id="rId8"/>
     <hyperlink ref="J5" display="b0a17a9c-3df2-45bd-90b3-293d79b2ccbc.md" r:id="rId9"/>
     <hyperlink ref="A6" display="b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId10"/>
@@ -889,7 +886,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369146347046" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777050018311" customWidth="1"/>
     <col min="4" max="4" width="14.157301902771" customWidth="1"/>
     <col min="5" max="5" width="10.1100554466248" customWidth="1"/>
     <col min="6" max="6" width="19.5560188293457" customWidth="1"/>
@@ -909,58 +906,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -974,49 +971,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -1027,230 +1024,230 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="081b7c23-73ba-4897-b725-3c8bc4a28674.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="081b7c23-73ba-4897-b725-3c8bc4a28674.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="081b7c23-73ba-4897-b725-3c8bc4a28674.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="081b7c23-73ba-4897-b725-3c8bc4a28674.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md" r:id="rId7"/>
     <hyperlink ref="A5" display="b0a17a9c-3df2-45bd-90b3-293d79b2ccbc.md" r:id="rId8"/>
     <hyperlink ref="J5" display="b0a17a9c-3df2-45bd-90b3-293d79b2ccbc.md" r:id="rId9"/>
     <hyperlink ref="A6" display="b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId10"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>File Name</t>
   </si>
@@ -67,186 +67,189 @@
     <t>e2e\1d1dba1a-ea38-4a3f-aad4-42f8d644e792.md</t>
   </si>
   <si>
+    <t>2017-02-21 04:40:34</t>
+  </si>
+  <si>
+    <t>2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md</t>
+  </si>
+  <si>
+    <t>e2e\2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:23:14</t>
+  </si>
+  <si>
+    <t>35b9f911-bff9-4eb4-9150-f93a02b9d184.md</t>
+  </si>
+  <si>
+    <t>e2e\35b9f911-bff9-4eb4-9150-f93a02b9d184.md</t>
+  </si>
+  <si>
     <t>N\A</t>
   </si>
   <si>
+    <t>2017-02-21 04:35:53</t>
+  </si>
+  <si>
+    <t>5aa23181-767b-4c9f-a020-ae3968912845.md</t>
+  </si>
+  <si>
+    <t>e2e\5aa23181-767b-4c9f-a020-ae3968912845.md</t>
+  </si>
+  <si>
+    <t>73e2b610-0208-4194-825c-741a7587d7de.md</t>
+  </si>
+  <si>
+    <t>e2e\73e2b610-0208-4194-825c-741a7587d7de.md</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:37:54</t>
+  </si>
+  <si>
+    <t>9856efce-80ed-47a0-a8de-19fbc3ca31f4.md</t>
+  </si>
+  <si>
+    <t>e2e\9856efce-80ed-47a0-a8de-19fbc3ca31f4.md</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:33:51</t>
+  </si>
+  <si>
+    <t>b0a17a9c-3df2-45bd-90b3-293d79b2ccbc.md</t>
+  </si>
+  <si>
+    <t>e2e\b0a17a9c-3df2-45bd-90b3-293d79b2ccbc.md</t>
+  </si>
+  <si>
+    <t>b76753d8-f444-4b11-814d-6c833bfb1a88.md</t>
+  </si>
+  <si>
+    <t>e2e\b76753d8-f444-4b11-814d-6c833bfb1a88.md</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:17:43</t>
+  </si>
+  <si>
+    <t>d126285b-99ce-4c3b-9dcc-a8b1a67c5e9e.md</t>
+  </si>
+  <si>
+    <t>e2e\d126285b-99ce-4c3b-9dcc-a8b1a67c5e9e.md</t>
+  </si>
+  <si>
+    <t>d837292d-1ebf-4274-b0e0-67045c268922.md</t>
+  </si>
+  <si>
+    <t>e2e\d837292d-1ebf-4274-b0e0-67045c268922.md</t>
+  </si>
+  <si>
+    <t>e0e83f0a-6f69-45b2-a953-b194e7176ed6.md</t>
+  </si>
+  <si>
+    <t>e2e\e0e83f0a-6f69-45b2-a953-b194e7176ed6.md</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:27:58</t>
+  </si>
+  <si>
+    <t>eec2b352-05aa-43ac-ad4d-13c38894b801.md</t>
+  </si>
+  <si>
+    <t>e2e\eec2b352-05aa-43ac-ad4d-13c38894b801.md</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source Path</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Content Duplicate</t>
+  </si>
+  <si>
+    <t>Correspond Handoff File</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Name</t>
+  </si>
+  <si>
+    <t>Target File</t>
+  </si>
+  <si>
+    <t>Correspond Handback File</t>
+  </si>
+  <si>
+    <t>Correspond Handback DateTime</t>
+  </si>
+  <si>
+    <t>Correspond Handback Name</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>To be localized</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Has metadata</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>e2e</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>081b7c23-73ba-4897-b725-3c8bc4a28674.2cb88882afc1de85e338b3ef970cdef476b8e54b.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:19:46</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-21 04:20:41</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>1362c9f3-8b12-4a84-b90d-eb769bd76bdc.1d58d2c5fc70a938babf0826d2724338f1f20728.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:12:54</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:13:48</t>
+  </si>
+  <si>
+    <t>1d1dba1a-ea38-4a3f-aad4-42f8d644e792.5c4d68b61771485c6f8d52237e4b6b4025079e09.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-02-21 04:40:16</t>
   </si>
   <si>
-    <t>2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md</t>
-  </si>
-  <si>
-    <t>e2e\2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:23:14</t>
-  </si>
-  <si>
-    <t>35b9f911-bff9-4eb4-9150-f93a02b9d184.md</t>
-  </si>
-  <si>
-    <t>e2e\35b9f911-bff9-4eb4-9150-f93a02b9d184.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:35:53</t>
-  </si>
-  <si>
-    <t>5aa23181-767b-4c9f-a020-ae3968912845.md</t>
-  </si>
-  <si>
-    <t>e2e\5aa23181-767b-4c9f-a020-ae3968912845.md</t>
-  </si>
-  <si>
-    <t>73e2b610-0208-4194-825c-741a7587d7de.md</t>
-  </si>
-  <si>
-    <t>e2e\73e2b610-0208-4194-825c-741a7587d7de.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:37:54</t>
-  </si>
-  <si>
-    <t>9856efce-80ed-47a0-a8de-19fbc3ca31f4.md</t>
-  </si>
-  <si>
-    <t>e2e\9856efce-80ed-47a0-a8de-19fbc3ca31f4.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:33:51</t>
-  </si>
-  <si>
-    <t>b0a17a9c-3df2-45bd-90b3-293d79b2ccbc.md</t>
-  </si>
-  <si>
-    <t>e2e\b0a17a9c-3df2-45bd-90b3-293d79b2ccbc.md</t>
-  </si>
-  <si>
-    <t>b76753d8-f444-4b11-814d-6c833bfb1a88.md</t>
-  </si>
-  <si>
-    <t>e2e\b76753d8-f444-4b11-814d-6c833bfb1a88.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:17:43</t>
-  </si>
-  <si>
-    <t>d126285b-99ce-4c3b-9dcc-a8b1a67c5e9e.md</t>
-  </si>
-  <si>
-    <t>e2e\d126285b-99ce-4c3b-9dcc-a8b1a67c5e9e.md</t>
-  </si>
-  <si>
-    <t>d837292d-1ebf-4274-b0e0-67045c268922.md</t>
-  </si>
-  <si>
-    <t>e2e\d837292d-1ebf-4274-b0e0-67045c268922.md</t>
-  </si>
-  <si>
-    <t>e0e83f0a-6f69-45b2-a953-b194e7176ed6.md</t>
-  </si>
-  <si>
-    <t>e2e\e0e83f0a-6f69-45b2-a953-b194e7176ed6.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:27:58</t>
-  </si>
-  <si>
-    <t>eec2b352-05aa-43ac-ad4d-13c38894b801.md</t>
-  </si>
-  <si>
-    <t>e2e\eec2b352-05aa-43ac-ad4d-13c38894b801.md</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source Path</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Content Duplicate</t>
-  </si>
-  <si>
-    <t>Correspond Handoff File</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Name</t>
-  </si>
-  <si>
-    <t>Target File</t>
-  </si>
-  <si>
-    <t>Correspond Handback File</t>
-  </si>
-  <si>
-    <t>Correspond Handback DateTime</t>
-  </si>
-  <si>
-    <t>Correspond Handback Name</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>To be localized</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Has metadata</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>e2e</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>081b7c23-73ba-4897-b725-3c8bc4a28674.2cb88882afc1de85e338b3ef970cdef476b8e54b.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:19:46</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-02-21 04:20:41</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>1362c9f3-8b12-4a84-b90d-eb769bd76bdc.1d58d2c5fc70a938babf0826d2724338f1f20728.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:12:54</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:13:48</t>
-  </si>
-  <si>
-    <t>1d1dba1a-ea38-4a3f-aad4-42f8d644e792.5c4d68b61771485c6f8d52237e4b6b4025079e09.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>2017-02-21 04:41:20</t>
   </si>
   <si>
@@ -334,10 +337,22 @@
     <t>2017-02-21 04:14:11</t>
   </si>
   <si>
+    <t>1d1dba1a-ea38-4a3f-aad4-42f8d644e792.5c4d68b61771485c6f8d52237e4b6b4025079e09.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:42:10</t>
+  </si>
+  <si>
+    <t>API_HB2_2017022141</t>
+  </si>
+  <si>
     <t>2a3573bb-6bc3-4900-84b7-93ba1bd817b1.0b38e04f8e72816a3099d7e601e0ee72561c4df8.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-21 04:25:43</t>
+  </si>
+  <si>
+    <t>5aa23181-767b-4c9f-a020-ae3968912845.d3527a59c2809b55f9e6cc1b8e40195e6089e861.de-de.xlf</t>
   </si>
   <si>
     <t>73e2b610-0208-4194-825c-741a7587d7de.9f7a3691df617378f4eb922757221b165d31ffe6.de-de.xlf</t>
@@ -451,8 +466,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R11" headerRowCount="1">
-  <autoFilter ref="A1:R11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R13" headerRowCount="1">
+  <autoFilter ref="A1:R13"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -587,47 +602,47 @@
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>24</v>
@@ -647,10 +662,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -767,7 +782,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G13" s="2" t="s">
         <v>24</v>
@@ -1056,7 +1071,7 @@
         <v>76</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>70</v>
@@ -1068,10 +1083,10 @@
         <v>76</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>70</v>
@@ -1091,7 +1106,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1109,22 +1124,22 @@
         <v>72</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>80</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>79</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>70</v>
@@ -1147,7 +1162,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1165,7 +1180,7 @@
         <v>72</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
@@ -1174,16 +1189,16 @@
         <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>70</v>
@@ -1221,10 +1236,10 @@
         <v>72</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>77</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>70</v>
@@ -1233,13 +1248,13 @@
         <v>25</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>70</v>
@@ -1277,10 +1292,10 @@
         <v>72</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>70</v>
@@ -1289,10 +1304,10 @@
         <v>27</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>70</v>
@@ -1333,10 +1348,10 @@
         <v>72</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>70</v>
@@ -1345,13 +1360,13 @@
         <v>30</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>70</v>
@@ -1445,10 +1460,10 @@
         <v>72</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>70</v>
@@ -1457,10 +1472,10 @@
         <v>35</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="M11" s="0" t="s">
         <v>70</v>
@@ -1501,10 +1516,10 @@
         <v>72</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>70</v>
@@ -1513,13 +1528,13 @@
         <v>38</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>70</v>
@@ -1557,7 +1572,7 @@
         <v>72</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>24</v>
@@ -1569,13 +1584,13 @@
         <v>40</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>70</v>
@@ -1613,10 +1628,10 @@
         <v>72</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>70</v>
@@ -1625,10 +1640,10 @@
         <v>42</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>70</v>
@@ -1669,10 +1684,10 @@
         <v>72</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>70</v>
@@ -1681,10 +1696,10 @@
         <v>45</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M15" s="0" t="s">
         <v>70</v>
@@ -1745,7 +1760,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1847,7 +1862,7 @@
         <v>67</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -1859,10 +1874,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>70</v>
@@ -1903,7 +1918,7 @@
         <v>72</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
@@ -1915,10 +1930,10 @@
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>70</v>
@@ -1941,7 +1956,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1959,25 +1974,25 @@
         <v>72</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>70</v>
+        <v>109</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>70</v>
@@ -1997,7 +2012,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -2015,22 +2030,22 @@
         <v>72</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>70</v>
@@ -2053,7 +2068,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -2071,25 +2086,25 @@
         <v>72</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>92</v>
+        <v>109</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>70</v>
@@ -2109,7 +2124,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -2127,22 +2142,22 @@
         <v>72</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>102</v>
+        <v>113</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>70</v>
@@ -2165,7 +2180,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -2183,25 +2198,25 @@
         <v>72</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>70</v>
@@ -2221,7 +2236,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -2239,25 +2254,25 @@
         <v>72</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>70</v>
@@ -2277,7 +2292,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -2295,22 +2310,22 @@
         <v>72</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>70</v>
@@ -2333,7 +2348,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -2351,39 +2366,151 @@
         <v>72</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H11" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K11" s="0" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M11" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="J11" s="1" t="s">
+      <c r="I13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="K11" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="R11" s="0" t="s">
+      <c r="K13" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="0" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2393,22 +2520,26 @@
     <hyperlink ref="J2" display="081b7c23-73ba-4897-b725-3c8bc4a28674.md" r:id="rId3"/>
     <hyperlink ref="A3" display="1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId4"/>
     <hyperlink ref="J3" display="1362c9f3-8b12-4a84-b90d-eb769bd76bdc.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="73e2b610-0208-4194-825c-741a7587d7de.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="73e2b610-0208-4194-825c-741a7587d7de.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="9856efce-80ed-47a0-a8de-19fbc3ca31f4.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="9856efce-80ed-47a0-a8de-19fbc3ca31f4.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="b0a17a9c-3df2-45bd-90b3-293d79b2ccbc.md" r:id="rId12"/>
-    <hyperlink ref="J7" display="b0a17a9c-3df2-45bd-90b3-293d79b2ccbc.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId14"/>
-    <hyperlink ref="J8" display="b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="d126285b-99ce-4c3b-9dcc-a8b1a67c5e9e.md" r:id="rId16"/>
-    <hyperlink ref="J9" display="d126285b-99ce-4c3b-9dcc-a8b1a67c5e9e.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="e0e83f0a-6f69-45b2-a953-b194e7176ed6.md" r:id="rId18"/>
-    <hyperlink ref="J10" display="e0e83f0a-6f69-45b2-a953-b194e7176ed6.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="eec2b352-05aa-43ac-ad4d-13c38894b801.md" r:id="rId20"/>
-    <hyperlink ref="J11" display="eec2b352-05aa-43ac-ad4d-13c38894b801.md" r:id="rId21"/>
+    <hyperlink ref="A4" display="1d1dba1a-ea38-4a3f-aad4-42f8d644e792.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="1d1dba1a-ea38-4a3f-aad4-42f8d644e792.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="2a3573bb-6bc3-4900-84b7-93ba1bd817b1.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="5aa23181-767b-4c9f-a020-ae3968912845.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="5aa23181-767b-4c9f-a020-ae3968912845.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="73e2b610-0208-4194-825c-741a7587d7de.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="73e2b610-0208-4194-825c-741a7587d7de.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="9856efce-80ed-47a0-a8de-19fbc3ca31f4.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="9856efce-80ed-47a0-a8de-19fbc3ca31f4.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="b0a17a9c-3df2-45bd-90b3-293d79b2ccbc.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="b0a17a9c-3df2-45bd-90b3-293d79b2ccbc.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId18"/>
+    <hyperlink ref="J10" display="b76753d8-f444-4b11-814d-6c833bfb1a88.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="d126285b-99ce-4c3b-9dcc-a8b1a67c5e9e.md" r:id="rId20"/>
+    <hyperlink ref="J11" display="d126285b-99ce-4c3b-9dcc-a8b1a67c5e9e.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="e0e83f0a-6f69-45b2-a953-b194e7176ed6.md" r:id="rId22"/>
+    <hyperlink ref="J12" display="e0e83f0a-6f69-45b2-a953-b194e7176ed6.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="eec2b352-05aa-43ac-ad4d-13c38894b801.md" r:id="rId24"/>
+    <hyperlink ref="J13" display="eec2b352-05aa-43ac-ad4d-13c38894b801.md" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-21 04:51:48</t>
+    <t>2017-02-21 04:54:04</t>
   </si>
   <si>
     <t>ffffd20f672e-5e6c-49cc-98ee-295e83f53e11.md</t>
@@ -133,13 +133,13 @@
     <t>b7b1e851-a32e-47b1-9c3f-841bf00595e0.3939f3c8d1bf75def6a2cbe224b2397ec7064d13.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 04:51:32</t>
+    <t>2017-02-21 04:53:45</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-21 04:52:27</t>
+    <t>2017-02-21 04:54:39</t>
   </si>
   <si>
     <t>True</t>
@@ -157,7 +157,7 @@
     <t>b7b1e851-a32e-47b1-9c3f-841bf00595e0.3939f3c8d1bf75def6a2cbe224b2397ec7064d13.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 04:52:50</t>
+    <t>2017-02-21 04:55:02</t>
   </si>
   <si>
     <t>81fee5a2-f1b9-4318-b938-70094a70c564.ab19f837a08b0166ba47420fc757d1710d134b77.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-21 04:54:04</t>
+    <t>2017-02-21 04:56:14</t>
   </si>
   <si>
     <t>ffffd20f672e-5e6c-49cc-98ee-295e83f53e11.md</t>
@@ -133,13 +133,13 @@
     <t>b7b1e851-a32e-47b1-9c3f-841bf00595e0.3939f3c8d1bf75def6a2cbe224b2397ec7064d13.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 04:53:45</t>
+    <t>2017-02-21 04:55:57</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-21 04:54:39</t>
+    <t>2017-02-21 04:56:48</t>
   </si>
   <si>
     <t>True</t>
@@ -157,7 +157,7 @@
     <t>b7b1e851-a32e-47b1-9c3f-841bf00595e0.3939f3c8d1bf75def6a2cbe224b2397ec7064d13.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 04:55:02</t>
+    <t>2017-02-21 04:57:11</t>
   </si>
   <si>
     <t>81fee5a2-f1b9-4318-b938-70094a70c564.ab19f837a08b0166ba47420fc757d1710d134b77.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>b7b1e851-a32e-47b1-9c3f-841bf00595e0.md</t>
-  </si>
-  <si>
-    <t>e2e\b7b1e851-a32e-47b1-9c3f-841bf00595e0.md</t>
+    <t>7b8faf48-64c9-419e-ae34-2bde707c77ca.md</t>
+  </si>
+  <si>
+    <t>e2e\7b8faf48-64c9-419e-ae34-2bde707c77ca.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,22 +49,13 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-21 04:56:14</t>
-  </si>
-  <si>
-    <t>ffffd20f672e-5e6c-49cc-98ee-295e83f53e11.md</t>
-  </si>
-  <si>
-    <t>e2e\ffffd20f672e-5e6c-49cc-98ee-295e83f53e11.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:48:42</t>
-  </si>
-  <si>
-    <t>ffffff58abeb4c-4e19-45c6-b592-3d8ef01f04dc.md</t>
-  </si>
-  <si>
-    <t>e2e\ffffff58abeb4c-4e19-45c6-b592-3d8ef01f04dc.md</t>
+    <t>2017-02-21 04:58:29</t>
+  </si>
+  <si>
+    <t>d50f82d2-17ab-4d9b-a8cf-510f295efb23.md</t>
+  </si>
+  <si>
+    <t>e2e\d50f82d2-17ab-4d9b-a8cf-510f295efb23.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -130,40 +121,31 @@
     <t>False</t>
   </si>
   <si>
-    <t>b7b1e851-a32e-47b1-9c3f-841bf00595e0.3939f3c8d1bf75def6a2cbe224b2397ec7064d13.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:55:57</t>
+    <t>7b8faf48-64c9-419e-ae34-2bde707c77ca.ccf5c2c198bbf9612db8b7cb340f456f34be7784.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:58:11</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-21 04:56:48</t>
+    <t>2017-02-21 04:59:05</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>81fee5a2-f1b9-4318-b938-70094a70c564.ab19f837a08b0166ba47420fc757d1710d134b77.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:48:27</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:49:22</t>
-  </si>
-  <si>
-    <t>b7b1e851-a32e-47b1-9c3f-841bf00595e0.3939f3c8d1bf75def6a2cbe224b2397ec7064d13.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:57:11</t>
-  </si>
-  <si>
-    <t>81fee5a2-f1b9-4318-b938-70094a70c564.ab19f837a08b0166ba47420fc757d1710d134b77.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:49:45</t>
+    <t>d50f82d2-17ab-4d9b-a8cf-510f295efb23.4b21a4ae5daa370df395e5d1411dccd031233fb6.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>7b8faf48-64c9-419e-ae34-2bde707c77ca.ccf5c2c198bbf9612db8b7cb340f456f34be7784.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 04:59:27</t>
+  </si>
+  <si>
+    <t>d50f82d2-17ab-4d9b-a8cf-510f295efb23.4b21a4ae5daa370df395e5d1411dccd031233fb6.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -220,8 +202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -247,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -274,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -291,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,34 +348,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\b7b1e851-a32e-47b1-9c3f-841bf00595e0.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffffd20f672e-5e6c-49cc-98ee-295e83f53e11.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ffffff58abeb4c-4e19-45c6-b592-3d8ef01f04dc.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\7b8faf48-64c9-419e-ae34-2bde707c77ca.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\d50f82d2-17ab-4d9b-a8cf-510f295efb23.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -404,7 +365,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,58 +393,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -497,49 +458,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -553,115 +514,57 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="b7b1e851-a32e-47b1-9c3f-841bf00595e0.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="b7b1e851-a32e-47b1-9c3f-841bf00595e0.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffffd20f672e-5e6c-49cc-98ee-295e83f53e11.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ffffd20f672e-5e6c-49cc-98ee-295e83f53e11.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff58abeb4c-4e19-45c6-b592-3d8ef01f04dc.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ffffff58abeb4c-4e19-45c6-b592-3d8ef01f04dc.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="7b8faf48-64c9-419e-ae34-2bde707c77ca.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="7b8faf48-64c9-419e-ae34-2bde707c77ca.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="d50f82d2-17ab-4d9b-a8cf-510f295efb23.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="d50f82d2-17ab-4d9b-a8cf-510f295efb23.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -672,7 +575,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,58 +603,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -765,49 +668,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -821,115 +724,57 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="b7b1e851-a32e-47b1-9c3f-841bf00595e0.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="b7b1e851-a32e-47b1-9c3f-841bf00595e0.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffffd20f672e-5e6c-49cc-98ee-295e83f53e11.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ffffd20f672e-5e6c-49cc-98ee-295e83f53e11.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff58abeb4c-4e19-45c6-b592-3d8ef01f04dc.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ffffff58abeb4c-4e19-45c6-b592-3d8ef01f04dc.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="7b8faf48-64c9-419e-ae34-2bde707c77ca.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="7b8faf48-64c9-419e-ae34-2bde707c77ca.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="d50f82d2-17ab-4d9b-a8cf-510f295efb23.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="d50f82d2-17ab-4d9b-a8cf-510f295efb23.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>7b8faf48-64c9-419e-ae34-2bde707c77ca.md</t>
-  </si>
-  <si>
-    <t>e2e\7b8faf48-64c9-419e-ae34-2bde707c77ca.md</t>
+    <t>0cf1462d-29e0-42a8-b081-056b17913541.md</t>
+  </si>
+  <si>
+    <t>e2e\0cf1462d-29e0-42a8-b081-056b17913541.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,13 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-21 04:58:29</t>
-  </si>
-  <si>
-    <t>d50f82d2-17ab-4d9b-a8cf-510f295efb23.md</t>
-  </si>
-  <si>
-    <t>e2e\d50f82d2-17ab-4d9b-a8cf-510f295efb23.md</t>
+    <t>2017-02-21 05:05:06</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,31 +115,25 @@
     <t>False</t>
   </si>
   <si>
-    <t>7b8faf48-64c9-419e-ae34-2bde707c77ca.ccf5c2c198bbf9612db8b7cb340f456f34be7784.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:58:11</t>
+    <t>0cf1462d-29e0-42a8-b081-056b17913541.71516886af4def10197805254a1657cb3cd56c83.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 05:04:51</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-21 04:59:05</t>
+    <t>2017-02-21 05:05:48</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>d50f82d2-17ab-4d9b-a8cf-510f295efb23.4b21a4ae5daa370df395e5d1411dccd031233fb6.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>7b8faf48-64c9-419e-ae34-2bde707c77ca.ccf5c2c198bbf9612db8b7cb340f456f34be7784.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 04:59:27</t>
-  </si>
-  <si>
-    <t>d50f82d2-17ab-4d9b-a8cf-510f295efb23.4b21a4ae5daa370df395e5d1411dccd031233fb6.de-de.xlf</t>
+    <t>0cf1462d-29e0-42a8-b081-056b17913541.71516886af4def10197805254a1657cb3cd56c83.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 05:06:11</t>
   </si>
 </sst>
 </file>
@@ -202,8 +190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -229,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -256,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -273,7 +261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -331,30 +319,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\7b8faf48-64c9-419e-ae34-2bde707c77ca.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\d50f82d2-17ab-4d9b-a8cf-510f295efb23.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\0cf1462d-29e0-42a8-b081-056b17913541.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -365,7 +332,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,58 +360,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -458,113 +425,55 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="7b8faf48-64c9-419e-ae34-2bde707c77ca.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="7b8faf48-64c9-419e-ae34-2bde707c77ca.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="d50f82d2-17ab-4d9b-a8cf-510f295efb23.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="d50f82d2-17ab-4d9b-a8cf-510f295efb23.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="0cf1462d-29e0-42a8-b081-056b17913541.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="0cf1462d-29e0-42a8-b081-056b17913541.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -575,7 +484,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -603,58 +512,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -668,113 +577,55 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="7b8faf48-64c9-419e-ae34-2bde707c77ca.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="7b8faf48-64c9-419e-ae34-2bde707c77ca.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="d50f82d2-17ab-4d9b-a8cf-510f295efb23.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="d50f82d2-17ab-4d9b-a8cf-510f295efb23.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="0cf1462d-29e0-42a8-b081-056b17913541.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="0cf1462d-29e0-42a8-b081-056b17913541.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>File Name</t>
   </si>
@@ -64,6 +64,9 @@
     <t>e2e\8220be52-0502-477a-8ec6-8b132a9b5049.md</t>
   </si>
   <si>
+    <t>2017-02-21 05:15:58</t>
+  </si>
+  <si>
     <t>f256e445-0165-4543-8b84-40af27d72a05.png</t>
   </si>
   <si>
@@ -163,6 +166,12 @@
     <t>8220be52-0502-477a-8ec6-8b132a9b5049.4df061bb427ee31204c116884e2f88c6c607696d.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-21 05:15:41</t>
+  </si>
+  <si>
+    <t>2017-02-21 05:17:58</t>
+  </si>
+  <si>
     <t>a70a28e6cb90f31cd43094bf59c5ba1712a8937b.png</t>
   </si>
   <si>
@@ -182,6 +191,9 @@
   </si>
   <si>
     <t>8220be52-0502-477a-8ec6-8b132a9b5049.4df061bb427ee31204c116884e2f88c6c607696d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 05:18:21</t>
   </si>
 </sst>
 </file>
@@ -404,18 +416,18 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
@@ -429,13 +441,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>10</v>
@@ -492,58 +504,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -557,49 +569,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -613,49 +625,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -669,161 +681,161 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -876,58 +888,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -941,49 +953,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -997,49 +1009,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -1053,161 +1065,161 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>8</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>15</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -58,28 +58,7 @@
     <t>e2e\4fcab968-188d-4d48-b91e-b3950e537ca3.md</t>
   </si>
   <si>
-    <t>8220be52-0502-477a-8ec6-8b132a9b5049.md</t>
-  </si>
-  <si>
-    <t>e2e\8220be52-0502-477a-8ec6-8b132a9b5049.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 05:15:58</t>
-  </si>
-  <si>
-    <t>f256e445-0165-4543-8b84-40af27d72a05.png</t>
-  </si>
-  <si>
-    <t>e2e\f256e445-0165-4543-8b84-40af27d72a05.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>f5d10f5c-4413-425d-be3b-12e9dc19f27a.png</t>
-  </si>
-  <si>
-    <t>e2e\f5d10f5c-4413-425d-be3b-12e9dc19f27a.png</t>
+    <t>2017-02-21 05:19:57</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -163,22 +142,10 @@
     <t>4fcab968-188d-4d48-b91e-b3950e537ca3.2bf0e24fd8e6350b4ab3f1fc7c9d63b8ddc2d83e.zh-cn.xlf</t>
   </si>
   <si>
-    <t>8220be52-0502-477a-8ec6-8b132a9b5049.4df061bb427ee31204c116884e2f88c6c607696d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 05:15:41</t>
-  </si>
-  <si>
-    <t>2017-02-21 05:17:58</t>
-  </si>
-  <si>
-    <t>a70a28e6cb90f31cd43094bf59c5ba1712a8937b.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>6d23a2ed29ff5250fc21ffb771bac6ee61361e10.png</t>
+    <t>2017-02-21 05:19:39</t>
+  </si>
+  <si>
+    <t>2017-02-21 05:20:56</t>
   </si>
   <si>
     <t>47752dfd-fb21-46ce-b4e9-d8dddd0aa6f7.3d41d35ef753d860eadd3fca061ac4536ca6aef1.de-de.xlf</t>
@@ -190,10 +157,7 @@
     <t>4fcab968-188d-4d48-b91e-b3950e537ca3.2bf0e24fd8e6350b4ab3f1fc7c9d63b8ddc2d83e.de-de.xlf</t>
   </si>
   <si>
-    <t>8220be52-0502-477a-8ec6-8b132a9b5049.4df061bb427ee31204c116884e2f88c6c607696d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 05:18:21</t>
+    <t>2017-02-21 05:21:18</t>
   </si>
 </sst>
 </file>
@@ -250,8 +214,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R6" headerRowCount="1">
-  <autoFilter ref="A1:R6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -277,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R6" headerRowCount="1">
-  <autoFilter ref="A1:R6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -304,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -321,7 +285,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -396,76 +360,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\47752dfd-fb21-46ce-b4e9-d8dddd0aa6f7.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\4fcab968-188d-4d48-b91e-b3950e537ca3.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\8220be52-0502-477a-8ec6-8b132a9b5049.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\f256e445-0165-4543-8b84-40af27d72a05.png" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\f5d10f5c-4413-425d-be3b-12e9dc19f27a.png" r:id="rId6"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -476,7 +377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -496,66 +397,66 @@
     <col min="12" max="12" width="32.096752166748" customWidth="1"/>
     <col min="13" max="13" width="28.8178272247314" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
-    <col min="15" max="15" width="17.7080821990967" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
+    <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
     <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -569,49 +470,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -625,217 +526,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>48</v>
-      </c>
       <c r="H3" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -844,12 +577,6 @@
     <hyperlink ref="J2" display="47752dfd-fb21-46ce-b4e9-d8dddd0aa6f7.md" r:id="rId3"/>
     <hyperlink ref="A3" display="4fcab968-188d-4d48-b91e-b3950e537ca3.md" r:id="rId4"/>
     <hyperlink ref="J3" display="4fcab968-188d-4d48-b91e-b3950e537ca3.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="8220be52-0502-477a-8ec6-8b132a9b5049.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="8220be52-0502-477a-8ec6-8b132a9b5049.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="f256e445-0165-4543-8b84-40af27d72a05.png" r:id="rId8"/>
-    <hyperlink ref="J5" display="f256e445-0165-4543-8b84-40af27d72a05.png" r:id="rId9"/>
-    <hyperlink ref="A6" display="f5d10f5c-4413-425d-be3b-12e9dc19f27a.png" r:id="rId10"/>
-    <hyperlink ref="J6" display="f5d10f5c-4413-425d-be3b-12e9dc19f27a.png" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -860,7 +587,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -880,66 +607,66 @@
     <col min="12" max="12" width="32.096752166748" customWidth="1"/>
     <col min="13" max="13" width="28.8178272247314" customWidth="1"/>
     <col min="14" max="14" width="19.2982063293457" customWidth="1"/>
-    <col min="15" max="15" width="17.7080821990967" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="15" max="15" width="16.6648349761963" customWidth="1"/>
+    <col min="16" max="16" width="19.7299385070801" customWidth="1"/>
     <col min="17" max="17" width="15.850474357605" customWidth="1"/>
     <col min="18" max="18" width="13.7470531463623" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>32</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -953,49 +680,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>56</v>
+        <v>45</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3">
@@ -1009,217 +736,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>47</v>
-      </c>
       <c r="G3" s="0" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R5" s="0" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1228,12 +787,6 @@
     <hyperlink ref="J2" display="47752dfd-fb21-46ce-b4e9-d8dddd0aa6f7.md" r:id="rId3"/>
     <hyperlink ref="A3" display="4fcab968-188d-4d48-b91e-b3950e537ca3.md" r:id="rId4"/>
     <hyperlink ref="J3" display="4fcab968-188d-4d48-b91e-b3950e537ca3.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="8220be52-0502-477a-8ec6-8b132a9b5049.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="8220be52-0502-477a-8ec6-8b132a9b5049.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="f256e445-0165-4543-8b84-40af27d72a05.png" r:id="rId8"/>
-    <hyperlink ref="J5" display="f256e445-0165-4543-8b84-40af27d72a05.png" r:id="rId9"/>
-    <hyperlink ref="A6" display="f5d10f5c-4413-425d-be3b-12e9dc19f27a.png" r:id="rId10"/>
-    <hyperlink ref="J6" display="f5d10f5c-4413-425d-be3b-12e9dc19f27a.png" r:id="rId11"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>File Name</t>
   </si>
@@ -49,15 +49,18 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>2017-02-21 05:29:36</t>
+  </si>
+  <si>
+    <t>6a0e13bc-f212-4224-8007-85740819c1d4.md</t>
+  </si>
+  <si>
+    <t>e2e\6a0e13bc-f212-4224-8007-85740819c1d4.md</t>
+  </si>
+  <si>
     <t>2017-02-21 05:27:07</t>
   </si>
   <si>
-    <t>6a0e13bc-f212-4224-8007-85740819c1d4.md</t>
-  </si>
-  <si>
-    <t>e2e\6a0e13bc-f212-4224-8007-85740819c1d4.md</t>
-  </si>
-  <si>
     <t>8b7e69da-0255-4d77-ac0c-0febf4f6ae34.png</t>
   </si>
   <si>
@@ -145,21 +148,27 @@
     <t>47634a4a-64d0-49e2-baaf-004ec3d0286f.83a05d39af98896e7ea044f317b12c51232a1746.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-21 05:29:20</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-21 05:30:16</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>6a0e13bc-f212-4224-8007-85740819c1d4.30d2eaa7b3a362aa1ea7249a79d135cff231199b.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-02-21 05:26:50</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2017-02-21 05:27:53</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>6a0e13bc-f212-4224-8007-85740819c1d4.30d2eaa7b3a362aa1ea7249a79d135cff231199b.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>329df1269a9c5b5e261872d1b512efd266d65ad4.png</t>
   </si>
   <si>
@@ -175,10 +184,13 @@
     <t>47634a4a-64d0-49e2-baaf-004ec3d0286f.83a05d39af98896e7ea044f317b12c51232a1746.de-de.xlf</t>
   </si>
   <si>
+    <t>2017-02-21 05:30:39</t>
+  </si>
+  <si>
+    <t>6a0e13bc-f212-4224-8007-85740819c1d4.30d2eaa7b3a362aa1ea7249a79d135cff231199b.de-de.xlf</t>
+  </si>
+  <si>
     <t>2017-02-21 05:28:16</t>
-  </si>
-  <si>
-    <t>6a0e13bc-f212-4224-8007-85740819c1d4.30d2eaa7b3a362aa1ea7249a79d135cff231199b.de-de.xlf</t>
   </si>
   <si>
     <t>c6a4e831-8c10-4ca8-9fc6-a5c9297b7b8a.072a057e011713bbecfe3fefd838daf9601db604.de-de.xlf</t>
@@ -384,35 +396,35 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -424,18 +436,18 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>10</v>
@@ -444,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -492,58 +504,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -557,49 +569,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -613,110 +625,110 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -725,105 +737,105 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -876,58 +888,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -941,49 +953,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -997,110 +1009,110 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1109,105 +1121,105 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P6" s="0" t="s">
         <v>8</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>File Name</t>
   </si>
@@ -61,6 +61,9 @@
     <t>.md</t>
   </si>
   <si>
+    <t>2017-02-21 08:45:49</t>
+  </si>
+  <si>
     <t>8bd9ed99-b0ee-4d91-ad2b-f930ab667fcd.md</t>
   </si>
   <si>
@@ -163,6 +166,12 @@
     <t>771d07f9-2832-47ca-9120-017e14e31e6f.79f38cb7588c9c8434225cacd5903615144efe2a.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-21 08:45:31</t>
+  </si>
+  <si>
+    <t>2017-02-21 08:47:11</t>
+  </si>
+  <si>
     <t>8bd9ed99-b0ee-4d91-ad2b-f930ab667fcd.c29853095933eb971053f2e5be2ce06843e81875.zh-cn.xlf</t>
   </si>
   <si>
@@ -176,6 +185,9 @@
   </si>
   <si>
     <t>771d07f9-2832-47ca-9120-017e14e31e6f.79f38cb7588c9c8434225cacd5903615144efe2a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 08:47:34</t>
   </si>
   <si>
     <t>8bd9ed99-b0ee-4d91-ad2b-f930ab667fcd.c29853095933eb971053f2e5be2ce06843e81875.de-de.xlf</t>
@@ -384,15 +396,15 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>14</v>
@@ -409,10 +421,10 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>14</v>
@@ -429,10 +441,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -492,58 +504,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -557,49 +569,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -613,54 +625,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>14</v>
@@ -669,54 +681,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>14</v>
@@ -725,54 +737,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -781,49 +793,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="1" t="s">
+      <c r="P6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -876,58 +888,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -941,49 +953,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -997,54 +1009,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>14</v>
@@ -1053,54 +1065,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>14</v>
@@ -1109,54 +1121,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L5" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1165,49 +1177,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>File Name</t>
   </si>
@@ -58,6 +58,9 @@
     <t>e2e\2d599492-60f7-42e2-80b5-c099bbae70cf.md</t>
   </si>
   <si>
+    <t>2017-02-21 09:07:54</t>
+  </si>
+  <si>
     <t>b04f4e51-c591-4a27-b68e-f9f7a4b6c21b.md</t>
   </si>
   <si>
@@ -160,6 +163,12 @@
     <t>2d599492-60f7-42e2-80b5-c099bbae70cf.6ea36c7aef9dd4e735beb300131680bd79092e63.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-21 09:07:36</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:08:35</t>
+  </si>
+  <si>
     <t>b04f4e51-c591-4a27-b68e-f9f7a4b6c21b.b6d7bc90b636e821538c930684a93a710312d1fd.zh-cn.xlf</t>
   </si>
   <si>
@@ -179,6 +188,9 @@
   </si>
   <si>
     <t>2d599492-60f7-42e2-80b5-c099bbae70cf.6ea36c7aef9dd4e735beb300131680bd79092e63.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:08:58</t>
   </si>
   <si>
     <t>b04f4e51-c591-4a27-b68e-f9f7a4b6c21b.b6d7bc90b636e821538c930684a93a710312d1fd.de-de.xlf</t>
@@ -384,15 +396,15 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
@@ -409,13 +421,13 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
@@ -429,13 +441,13 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
         <v>19</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>18</v>
       </c>
       <c r="E6" s="0" t="s">
         <v>10</v>
@@ -492,58 +504,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -557,49 +569,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -613,54 +625,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -669,161 +681,161 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -876,58 +888,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -941,49 +953,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -997,54 +1009,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1053,161 +1065,161 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>50</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="0" t="s">
-        <v>18</v>
-      </c>
       <c r="C6" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="P6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>File Name</t>
   </si>
@@ -49,15 +49,18 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>2017-02-21 09:14:34</t>
+  </si>
+  <si>
+    <t>76104de6-f9ab-4f0c-b9bb-d0829ba0fcc5.md</t>
+  </si>
+  <si>
+    <t>e2e\76104de6-f9ab-4f0c-b9bb-d0829ba0fcc5.md</t>
+  </si>
+  <si>
     <t>2017-02-21 09:12:06</t>
   </si>
   <si>
-    <t>76104de6-f9ab-4f0c-b9bb-d0829ba0fcc5.md</t>
-  </si>
-  <si>
-    <t>e2e\76104de6-f9ab-4f0c-b9bb-d0829ba0fcc5.md</t>
-  </si>
-  <si>
     <t>96da0041-ff70-4040-8338-f3f1e7636d09.png</t>
   </si>
   <si>
@@ -145,21 +148,27 @@
     <t>45851643-1c4b-49d2-86a3-11352b36f042.65e6c562ef0c8ae012f7d785ae67f5590dac5750.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-21 09:14:16</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-21 09:15:18</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>76104de6-f9ab-4f0c-b9bb-d0829ba0fcc5.ee78096fa583584e3bfda049c1d6eb67dcdbcd4b.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-02-21 09:11:47</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2017-02-21 09:12:58</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>76104de6-f9ab-4f0c-b9bb-d0829ba0fcc5.ee78096fa583584e3bfda049c1d6eb67dcdbcd4b.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>9f3f5523aa0305cac9af081d9b34a3362a3e9bbe.png</t>
   </si>
   <si>
@@ -175,10 +184,13 @@
     <t>45851643-1c4b-49d2-86a3-11352b36f042.65e6c562ef0c8ae012f7d785ae67f5590dac5750.de-de.xlf</t>
   </si>
   <si>
+    <t>2017-02-21 09:15:41</t>
+  </si>
+  <si>
+    <t>76104de6-f9ab-4f0c-b9bb-d0829ba0fcc5.ee78096fa583584e3bfda049c1d6eb67dcdbcd4b.de-de.xlf</t>
+  </si>
+  <si>
     <t>2017-02-21 09:13:22</t>
-  </si>
-  <si>
-    <t>76104de6-f9ab-4f0c-b9bb-d0829ba0fcc5.ee78096fa583584e3bfda049c1d6eb67dcdbcd4b.de-de.xlf</t>
   </si>
   <si>
     <t>eb66a91e-c100-44ff-a0df-67b3d6670d52.1ea870367c9cb1bfec091701435ae1c4a4fb7aec.de-de.xlf</t>
@@ -384,39 +396,39 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="E5" s="0" t="s">
         <v>10</v>
       </c>
@@ -424,15 +436,15 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -444,7 +456,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -492,58 +504,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -557,49 +569,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -613,166 +625,166 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -781,49 +793,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -876,58 +888,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -941,49 +953,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -997,166 +1009,166 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>16</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P5" s="0" t="s">
         <v>13</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1165,49 +1177,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -52,6 +52,18 @@
     <t>2017-02-21 09:24:42</t>
   </si>
   <si>
+    <t>f4a10675-5af9-4150-8d95-9d354567f2a2.md</t>
+  </si>
+  <si>
+    <t>e2e\f4a10675-5af9-4150-8d95-9d354567f2a2.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:32:48</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,10 +142,25 @@
     <t>True</t>
   </si>
   <si>
+    <t>f4a10675-5af9-4150-8d95-9d354567f2a2.04ad14d99f32147bd293390af17307aa5afc71f8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:32:32</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:33:31</t>
+  </si>
+  <si>
     <t>0f0b2084-9fd7-447d-bc04-b237989b967e.fcf151572a7902e77872e64eff9d21ac69f842e5.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-21 09:26:47</t>
+  </si>
+  <si>
+    <t>f4a10675-5af9-4150-8d95-9d354567f2a2.04ad14d99f32147bd293390af17307aa5afc71f8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:33:56</t>
   </si>
 </sst>
 </file>
@@ -190,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +271,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -261,7 +288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +346,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\0f0b2084-9fd7-447d-bc04-b237989b967e.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\f4a10675-5af9-4150-8d95-9d354567f2a2.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +408,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -425,55 +473,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="R2" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="F3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0f0b2084-9fd7-447d-bc04-b237989b967e.md" r:id="rId2"/>
     <hyperlink ref="J2" display="0f0b2084-9fd7-447d-bc04-b237989b967e.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="f4a10675-5af9-4150-8d95-9d354567f2a2.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="f4a10675-5af9-4150-8d95-9d354567f2a2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +590,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +618,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -577,55 +683,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="F3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0f0b2084-9fd7-447d-bc04-b237989b967e.md" r:id="rId2"/>
     <hyperlink ref="J2" display="0f0b2084-9fd7-447d-bc04-b237989b967e.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="f4a10675-5af9-4150-8d95-9d354567f2a2.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="f4a10675-5af9-4150-8d95-9d354567f2a2.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -52,15 +52,24 @@
     <t>2017-02-21 09:24:42</t>
   </si>
   <si>
+    <t>a9e1cc1e-d962-4b1f-8160-02939567b839.md</t>
+  </si>
+  <si>
+    <t>e2e\a9e1cc1e-d962-4b1f-8160-02939567b839.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:37:07</t>
+  </si>
+  <si>
     <t>f4a10675-5af9-4150-8d95-9d354567f2a2.md</t>
   </si>
   <si>
     <t>e2e\f4a10675-5af9-4150-8d95-9d354567f2a2.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-21 09:32:48</t>
   </si>
   <si>
@@ -142,6 +151,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>a9e1cc1e-d962-4b1f-8160-02939567b839.fe5cb0905d9084d5dd49e2fd1f0308eb15e194f7.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:36:48</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:37:50</t>
+  </si>
+  <si>
     <t>f4a10675-5af9-4150-8d95-9d354567f2a2.04ad14d99f32147bd293390af17307aa5afc71f8.zh-cn.xlf</t>
   </si>
   <si>
@@ -155,6 +173,12 @@
   </si>
   <si>
     <t>2017-02-21 09:26:47</t>
+  </si>
+  <si>
+    <t>a9e1cc1e-d962-4b1f-8160-02939567b839.fe5cb0905d9084d5dd49e2fd1f0308eb15e194f7.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:38:14</t>
   </si>
   <si>
     <t>f4a10675-5af9-4150-8d95-9d354567f2a2.04ad14d99f32147bd293390af17307aa5afc71f8.de-de.xlf</t>
@@ -217,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -271,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -288,7 +312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,10 +390,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\0f0b2084-9fd7-447d-bc04-b237989b967e.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\f4a10675-5af9-4150-8d95-9d354567f2a2.md" r:id="rId3"/>
+    <hyperlink ref="B3" display="e2e\a9e1cc1e-d962-4b1f-8160-02939567b839.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\f4a10675-5af9-4150-8d95-9d354567f2a2.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -380,7 +425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,58 +453,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -473,49 +518,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -529,57 +574,115 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0f0b2084-9fd7-447d-bc04-b237989b967e.md" r:id="rId2"/>
     <hyperlink ref="J2" display="0f0b2084-9fd7-447d-bc04-b237989b967e.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="f4a10675-5af9-4150-8d95-9d354567f2a2.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="f4a10675-5af9-4150-8d95-9d354567f2a2.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="a9e1cc1e-d962-4b1f-8160-02939567b839.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a9e1cc1e-d962-4b1f-8160-02939567b839.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="f4a10675-5af9-4150-8d95-9d354567f2a2.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="f4a10675-5af9-4150-8d95-9d354567f2a2.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -590,7 +693,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,58 +721,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -683,49 +786,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -739,57 +842,115 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="0f0b2084-9fd7-447d-bc04-b237989b967e.md" r:id="rId2"/>
     <hyperlink ref="J2" display="0f0b2084-9fd7-447d-bc04-b237989b967e.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="f4a10675-5af9-4150-8d95-9d354567f2a2.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="f4a10675-5af9-4150-8d95-9d354567f2a2.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="a9e1cc1e-d962-4b1f-8160-02939567b839.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a9e1cc1e-d962-4b1f-8160-02939567b839.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="f4a10675-5af9-4150-8d95-9d354567f2a2.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="f4a10675-5af9-4150-8d95-9d354567f2a2.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -61,7 +61,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-21 09:37:07</t>
+    <t>2017-02-21 09:39:20</t>
   </si>
   <si>
     <t>f4a10675-5af9-4150-8d95-9d354567f2a2.md</t>
@@ -154,10 +154,10 @@
     <t>a9e1cc1e-d962-4b1f-8160-02939567b839.fe5cb0905d9084d5dd49e2fd1f0308eb15e194f7.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 09:36:48</t>
-  </si>
-  <si>
-    <t>2017-02-21 09:37:50</t>
+    <t>2017-02-21 09:39:00</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:40:04</t>
   </si>
   <si>
     <t>f4a10675-5af9-4150-8d95-9d354567f2a2.04ad14d99f32147bd293390af17307aa5afc71f8.zh-cn.xlf</t>
@@ -178,7 +178,7 @@
     <t>a9e1cc1e-d962-4b1f-8160-02939567b839.fe5cb0905d9084d5dd49e2fd1f0308eb15e194f7.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 09:38:14</t>
+    <t>2017-02-21 09:40:27</t>
   </si>
   <si>
     <t>f4a10675-5af9-4150-8d95-9d354567f2a2.04ad14d99f32147bd293390af17307aa5afc71f8.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -37,25 +37,31 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>b.md</t>
+  </si>
+  <si>
+    <t>e2e\b.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:43:53</t>
+  </si>
+  <si>
     <t>a.md</t>
   </si>
   <si>
     <t>e2e\a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-21 09:43:53</t>
-  </si>
-  <si>
-    <t>b.md</t>
-  </si>
-  <si>
-    <t>e2e\b.md</t>
+    <t>2017-02-21 09:47:44</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -136,10 +142,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>2017-02-21 09:47:27</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:49:09</t>
+  </si>
+  <si>
+    <t>TestHandback_201702210549</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-21 09:44:59</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:49:31</t>
   </si>
 </sst>
 </file>
@@ -277,8 +295,8 @@
     <col min="2" max="2" width="17.3850729806083" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -336,19 +354,19 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\b.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\b.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -367,7 +385,7 @@
   <cols>
     <col min="1" max="1" width="18.9206946236747" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -387,58 +405,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -452,49 +470,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -505,60 +523,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -577,7 +595,7 @@
   <cols>
     <col min="1" max="1" width="18.9206946236747" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -597,58 +615,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -662,49 +680,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -715,60 +733,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>File Name</t>
   </si>
@@ -73,6 +73,9 @@
     <t>e2e\c6f0ec6f-e1ce-4f66-ac63-826cb88a5aaf.md</t>
   </si>
   <si>
+    <t>2017-02-21 09:58:01</t>
+  </si>
+  <si>
     <t>f5507395-4caa-43b0-8370-8b7d914df3b2.md</t>
   </si>
   <si>
@@ -169,6 +172,12 @@
     <t>c6f0ec6f-e1ce-4f66-ac63-826cb88a5aaf.fbbeda8a12793fda7f583a0f5a62e895430427ad.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-21 09:57:43</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:58:44</t>
+  </si>
+  <si>
     <t>f5507395-4caa-43b0-8370-8b7d914df3b2.dba2fdc25e839a3d84be6daa7712756bebddf2aa.zh-cn.xlf</t>
   </si>
   <si>
@@ -179,6 +188,9 @@
   </si>
   <si>
     <t>c6f0ec6f-e1ce-4f66-ac63-826cb88a5aaf.fbbeda8a12793fda7f583a0f5a62e895430427ad.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:59:07</t>
   </si>
   <si>
     <t>f5507395-4caa-43b0-8370-8b7d914df3b2.dba2fdc25e839a3d84be6daa7712756bebddf2aa.de-de.xlf</t>
@@ -424,15 +436,15 @@
         <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -492,58 +504,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -557,49 +569,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -613,49 +625,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>18</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -669,49 +681,49 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -725,54 +737,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -781,49 +793,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -876,58 +888,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -941,49 +953,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -997,49 +1009,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>18</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -1053,49 +1065,49 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
         <v>8</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
@@ -1109,54 +1121,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>17</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1165,49 +1177,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>File Name</t>
   </si>
@@ -37,31 +37,28 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>39bab292-1397-4459-991d-e6ec9d1080e5.md</t>
+  </si>
+  <si>
+    <t>e2e\39bab292-1397-4459-991d-e6ec9d1080e5.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:02:31</t>
+  </si>
+  <si>
     <t>446778d6-36b4-44b2-b2fa-6c8766183549.md</t>
   </si>
   <si>
     <t>e2e\446778d6-36b4-44b2-b2fa-6c8766183549.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:04:51</t>
-  </si>
-  <si>
-    <t>39bab292-1397-4459-991d-e6ec9d1080e5.md</t>
-  </si>
-  <si>
-    <t>e2e\39bab292-1397-4459-991d-e6ec9d1080e5.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:02:31</t>
+    <t>2017-02-21 10:05:48</t>
   </si>
   <si>
     <t>4cd3d97d-8518-4907-9c00-9c731b489a7e.md</t>
@@ -151,28 +148,28 @@
     <t>False</t>
   </si>
   <si>
+    <t>39bab292-1397-4459-991d-e6ec9d1080e5.4ac0dd943741f72357f1ec3368aab718487f4b75.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:02:13</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-21 10:03:15</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>446778d6-36b4-44b2-b2fa-6c8766183549.3b1c8452dca5c9b10a1a2cdc75b8aa181bc1186b.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 10:04:33</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-02-21 10:06:32</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>39bab292-1397-4459-991d-e6ec9d1080e5.4ac0dd943741f72357f1ec3368aab718487f4b75.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:02:13</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:03:15</t>
+    <t>2017-02-21 10:05:31</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:07:46</t>
   </si>
   <si>
     <t>4fb693fc-f9ef-4b0d-b3ca-3120992bc7ea.dca8170491a98d158741ab6b7c1e60d9683f304e.zh-cn.xlf</t>
@@ -193,16 +190,16 @@
     <t>2017-02-21 10:00:55</t>
   </si>
   <si>
+    <t>39bab292-1397-4459-991d-e6ec9d1080e5.4ac0dd943741f72357f1ec3368aab718487f4b75.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:03:38</t>
+  </si>
+  <si>
     <t>446778d6-36b4-44b2-b2fa-6c8766183549.3b1c8452dca5c9b10a1a2cdc75b8aa181bc1186b.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 10:06:54</t>
-  </si>
-  <si>
-    <t>39bab292-1397-4459-991d-e6ec9d1080e5.4ac0dd943741f72357f1ec3368aab718487f4b75.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:03:38</t>
+    <t>2017-02-21 10:08:10</t>
   </si>
   <si>
     <t>4fb693fc-f9ef-4b0d-b3ca-3120992bc7ea.dca8170491a98d158741ab6b7c1e60d9683f304e.de-de.xlf</t>
@@ -352,8 +349,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
-    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
+    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
+    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -411,79 +408,79 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\446778d6-36b4-44b2-b2fa-6c8766183549.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\39bab292-1397-4459-991d-e6ec9d1080e5.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\39bab292-1397-4459-991d-e6ec9d1080e5.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\446778d6-36b4-44b2-b2fa-6c8766183549.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\4cd3d97d-8518-4907-9c00-9c731b489a7e.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\4fb693fc-f9ef-4b0d-b3ca-3120992bc7ea.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\f5507395-4caa-43b0-8370-8b7d914df3b2.md" r:id="rId6"/>
@@ -505,7 +502,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -525,58 +522,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -590,49 +587,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -643,228 +640,228 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="446778d6-36b4-44b2-b2fa-6c8766183549.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="446778d6-36b4-44b2-b2fa-6c8766183549.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="39bab292-1397-4459-991d-e6ec9d1080e5.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="39bab292-1397-4459-991d-e6ec9d1080e5.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="39bab292-1397-4459-991d-e6ec9d1080e5.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="39bab292-1397-4459-991d-e6ec9d1080e5.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="446778d6-36b4-44b2-b2fa-6c8766183549.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="446778d6-36b4-44b2-b2fa-6c8766183549.md" r:id="rId5"/>
     <hyperlink ref="A4" display="4cd3d97d-8518-4907-9c00-9c731b489a7e.md" r:id="rId6"/>
     <hyperlink ref="J4" display="4cd3d97d-8518-4907-9c00-9c731b489a7e.md" r:id="rId7"/>
     <hyperlink ref="A5" display="4fb693fc-f9ef-4b0d-b3ca-3120992bc7ea.md" r:id="rId8"/>
@@ -889,7 +886,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -909,58 +906,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -974,49 +971,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -1027,228 +1024,228 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="446778d6-36b4-44b2-b2fa-6c8766183549.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="446778d6-36b4-44b2-b2fa-6c8766183549.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="39bab292-1397-4459-991d-e6ec9d1080e5.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="39bab292-1397-4459-991d-e6ec9d1080e5.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="39bab292-1397-4459-991d-e6ec9d1080e5.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="39bab292-1397-4459-991d-e6ec9d1080e5.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="446778d6-36b4-44b2-b2fa-6c8766183549.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="446778d6-36b4-44b2-b2fa-6c8766183549.md" r:id="rId5"/>
     <hyperlink ref="A4" display="4cd3d97d-8518-4907-9c00-9c731b489a7e.md" r:id="rId6"/>
     <hyperlink ref="J4" display="4cd3d97d-8518-4907-9c00-9c731b489a7e.md" r:id="rId7"/>
     <hyperlink ref="A5" display="4fb693fc-f9ef-4b0d-b3ca-3120992bc7ea.md" r:id="rId8"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>File Name</t>
   </si>
@@ -58,190 +58,193 @@
     <t>e2e\2c740a10-0b6e-49d1-8cf9-95a3fc2c2f0c.md</t>
   </si>
   <si>
+    <t>2017-02-21 10:23:58</t>
+  </si>
+  <si>
+    <t>37a9c8dc-e873-4c8d-94db-7b5ff813c1c1.md</t>
+  </si>
+  <si>
+    <t>e2e\37a9c8dc-e873-4c8d-94db-7b5ff813c1c1.md</t>
+  </si>
+  <si>
     <t>N\A</t>
   </si>
   <si>
+    <t>2017-02-21 10:18:53</t>
+  </si>
+  <si>
+    <t>39bab292-1397-4459-991d-e6ec9d1080e5.md</t>
+  </si>
+  <si>
+    <t>e2e\39bab292-1397-4459-991d-e6ec9d1080e5.md</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:02:31</t>
+  </si>
+  <si>
+    <t>3dcf6277-cd63-4b24-a1ba-a75f1dc29a39.md</t>
+  </si>
+  <si>
+    <t>e2e\3dcf6277-cd63-4b24-a1ba-a75f1dc29a39.md</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:21:06</t>
+  </si>
+  <si>
+    <t>446778d6-36b4-44b2-b2fa-6c8766183549.md</t>
+  </si>
+  <si>
+    <t>e2e\446778d6-36b4-44b2-b2fa-6c8766183549.md</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:05:48</t>
+  </si>
+  <si>
+    <t>4cd3d97d-8518-4907-9c00-9c731b489a7e.md</t>
+  </si>
+  <si>
+    <t>e2e\4cd3d97d-8518-4907-9c00-9c731b489a7e.md</t>
+  </si>
+  <si>
+    <t>4fb693fc-f9ef-4b0d-b3ca-3120992bc7ea.md</t>
+  </si>
+  <si>
+    <t>e2e\4fb693fc-f9ef-4b0d-b3ca-3120992bc7ea.md</t>
+  </si>
+  <si>
+    <t>2017-02-21 09:55:38</t>
+  </si>
+  <si>
+    <t>774e8dc9-f94c-49ac-82ab-95f7ee26d4ef.md</t>
+  </si>
+  <si>
+    <t>e2e\774e8dc9-f94c-49ac-82ab-95f7ee26d4ef.md</t>
+  </si>
+  <si>
+    <t>c8d7551a-7a0c-4407-93ff-b02858b6810f.md</t>
+  </si>
+  <si>
+    <t>e2e\c8d7551a-7a0c-4407-93ff-b02858b6810f.md</t>
+  </si>
+  <si>
+    <t>cba0ca38-876c-4589-9a37-7e936aec05bb.md</t>
+  </si>
+  <si>
+    <t>e2e\cba0ca38-876c-4589-9a37-7e936aec05bb.md</t>
+  </si>
+  <si>
+    <t>e3ad3ae1-814a-4ec7-9b97-ff8c56a8bba5.md</t>
+  </si>
+  <si>
+    <t>e2e\e3ad3ae1-814a-4ec7-9b97-ff8c56a8bba5.md</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:16:49</t>
+  </si>
+  <si>
+    <t>f5507395-4caa-43b0-8370-8b7d914df3b2.md</t>
+  </si>
+  <si>
+    <t>e2e\f5507395-4caa-43b0-8370-8b7d914df3b2.md</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:00:13</t>
+  </si>
+  <si>
+    <t>ffb2775f-1220-4699-929f-e6a7dd6c970a.md</t>
+  </si>
+  <si>
+    <t>e2e\ffb2775f-1220-4699-929f-e6a7dd6c970a.md</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source Path</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Content Duplicate</t>
+  </si>
+  <si>
+    <t>Correspond Handoff File</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Name</t>
+  </si>
+  <si>
+    <t>Target File</t>
+  </si>
+  <si>
+    <t>Correspond Handback File</t>
+  </si>
+  <si>
+    <t>Correspond Handback DateTime</t>
+  </si>
+  <si>
+    <t>Correspond Handback Name</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>To be localized</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Has metadata</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>e2e</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>0b5f1004-4731-4c8f-b5e5-313831c58e7f.250f9803211f009878cfe5b5494a0692e9fd8064.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:10:09</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-21 10:11:10</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>2c740a10-0b6e-49d1-8cf9-95a3fc2c2f0c.44f8b1185607e01dd083a01f6138aa37637177f0.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-02-21 10:23:38</t>
   </si>
   <si>
-    <t>37a9c8dc-e873-4c8d-94db-7b5ff813c1c1.md</t>
-  </si>
-  <si>
-    <t>e2e\37a9c8dc-e873-4c8d-94db-7b5ff813c1c1.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:18:53</t>
-  </si>
-  <si>
-    <t>39bab292-1397-4459-991d-e6ec9d1080e5.md</t>
-  </si>
-  <si>
-    <t>e2e\39bab292-1397-4459-991d-e6ec9d1080e5.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:02:31</t>
-  </si>
-  <si>
-    <t>3dcf6277-cd63-4b24-a1ba-a75f1dc29a39.md</t>
-  </si>
-  <si>
-    <t>e2e\3dcf6277-cd63-4b24-a1ba-a75f1dc29a39.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:21:06</t>
-  </si>
-  <si>
-    <t>446778d6-36b4-44b2-b2fa-6c8766183549.md</t>
-  </si>
-  <si>
-    <t>e2e\446778d6-36b4-44b2-b2fa-6c8766183549.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:05:48</t>
-  </si>
-  <si>
-    <t>4cd3d97d-8518-4907-9c00-9c731b489a7e.md</t>
-  </si>
-  <si>
-    <t>e2e\4cd3d97d-8518-4907-9c00-9c731b489a7e.md</t>
-  </si>
-  <si>
-    <t>4fb693fc-f9ef-4b0d-b3ca-3120992bc7ea.md</t>
-  </si>
-  <si>
-    <t>e2e\4fb693fc-f9ef-4b0d-b3ca-3120992bc7ea.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 09:55:38</t>
-  </si>
-  <si>
-    <t>774e8dc9-f94c-49ac-82ab-95f7ee26d4ef.md</t>
-  </si>
-  <si>
-    <t>e2e\774e8dc9-f94c-49ac-82ab-95f7ee26d4ef.md</t>
-  </si>
-  <si>
-    <t>c8d7551a-7a0c-4407-93ff-b02858b6810f.md</t>
-  </si>
-  <si>
-    <t>e2e\c8d7551a-7a0c-4407-93ff-b02858b6810f.md</t>
-  </si>
-  <si>
-    <t>cba0ca38-876c-4589-9a37-7e936aec05bb.md</t>
-  </si>
-  <si>
-    <t>e2e\cba0ca38-876c-4589-9a37-7e936aec05bb.md</t>
-  </si>
-  <si>
-    <t>e3ad3ae1-814a-4ec7-9b97-ff8c56a8bba5.md</t>
-  </si>
-  <si>
-    <t>e2e\e3ad3ae1-814a-4ec7-9b97-ff8c56a8bba5.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:16:49</t>
-  </si>
-  <si>
-    <t>f5507395-4caa-43b0-8370-8b7d914df3b2.md</t>
-  </si>
-  <si>
-    <t>e2e\f5507395-4caa-43b0-8370-8b7d914df3b2.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:00:13</t>
-  </si>
-  <si>
-    <t>ffb2775f-1220-4699-929f-e6a7dd6c970a.md</t>
-  </si>
-  <si>
-    <t>e2e\ffb2775f-1220-4699-929f-e6a7dd6c970a.md</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source Path</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Content Duplicate</t>
-  </si>
-  <si>
-    <t>Correspond Handoff File</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Name</t>
-  </si>
-  <si>
-    <t>Target File</t>
-  </si>
-  <si>
-    <t>Correspond Handback File</t>
-  </si>
-  <si>
-    <t>Correspond Handback DateTime</t>
-  </si>
-  <si>
-    <t>Correspond Handback Name</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>To be localized</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Has metadata</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>e2e</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>0b5f1004-4731-4c8f-b5e5-313831c58e7f.250f9803211f009878cfe5b5494a0692e9fd8064.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:10:09</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-02-21 10:11:10</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>2c740a10-0b6e-49d1-8cf9-95a3fc2c2f0c.44f8b1185607e01dd083a01f6138aa37637177f0.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>2017-02-21 10:24:41</t>
   </si>
   <si>
-    <t>API_HB1_2017022124</t>
+    <t>API_HB2_2017022125</t>
   </si>
   <si>
     <t>37a9c8dc-e873-4c8d-94db-7b5ff813c1c1.f8d0e3e1001ca1de401828fd45c56b9d79c33403.zh-cn.xlf</t>
@@ -331,6 +334,12 @@
     <t>2017-02-21 10:11:33</t>
   </si>
   <si>
+    <t>2c740a10-0b6e-49d1-8cf9-95a3fc2c2f0c.44f8b1185607e01dd083a01f6138aa37637177f0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:25:32</t>
+  </si>
+  <si>
     <t>39bab292-1397-4459-991d-e6ec9d1080e5.4ac0dd943741f72357f1ec3368aab718487f4b75.de-de.xlf</t>
   </si>
   <si>
@@ -353,6 +362,9 @@
   </si>
   <si>
     <t>2017-02-21 09:56:48</t>
+  </si>
+  <si>
+    <t>774e8dc9-f94c-49ac-82ab-95f7ee26d4ef.a6aa471b8647860e081b11e44a1775aec3669ea7.de-de.xlf</t>
   </si>
   <si>
     <t>cba0ca38-876c-4589-9a37-7e936aec05bb.7efbb6808724af0fbdd9ad66b1de3614d70f27ab.de-de.xlf</t>
@@ -454,8 +466,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R11" headerRowCount="1">
-  <autoFilter ref="A1:R11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R13" headerRowCount="1">
+  <autoFilter ref="A1:R13"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -570,27 +582,27 @@
         <v>10</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -710,10 +722,10 @@
         <v>10</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11">
@@ -730,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>18</v>
@@ -1003,7 +1015,7 @@
         <v>73</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>70</v>
@@ -1015,10 +1027,10 @@
         <v>73</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>70</v>
@@ -1038,7 +1050,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1056,7 +1068,7 @@
         <v>72</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
@@ -1065,16 +1077,16 @@
         <v>70</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>70</v>
@@ -1112,10 +1124,10 @@
         <v>72</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>70</v>
@@ -1124,10 +1136,10 @@
         <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>70</v>
@@ -1168,10 +1180,10 @@
         <v>72</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>70</v>
@@ -1180,13 +1192,13 @@
         <v>22</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>70</v>
@@ -1224,10 +1236,10 @@
         <v>72</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>70</v>
@@ -1236,10 +1248,10 @@
         <v>25</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>70</v>
@@ -1280,10 +1292,10 @@
         <v>72</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>70</v>
@@ -1292,10 +1304,10 @@
         <v>28</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>70</v>
@@ -1336,10 +1348,10 @@
         <v>72</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>70</v>
@@ -1348,10 +1360,10 @@
         <v>30</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>70</v>
@@ -1392,10 +1404,10 @@
         <v>72</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>70</v>
@@ -1404,13 +1416,13 @@
         <v>33</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>70</v>
@@ -1448,7 +1460,7 @@
         <v>72</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>18</v>
@@ -1460,13 +1472,13 @@
         <v>35</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>70</v>
@@ -1504,10 +1516,10 @@
         <v>72</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>70</v>
@@ -1516,13 +1528,13 @@
         <v>37</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="N12" s="0" t="s">
         <v>70</v>
@@ -1560,10 +1572,10 @@
         <v>72</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>70</v>
@@ -1572,13 +1584,13 @@
         <v>39</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N13" s="0" t="s">
         <v>70</v>
@@ -1616,10 +1628,10 @@
         <v>72</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>70</v>
@@ -1628,10 +1640,10 @@
         <v>42</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>70</v>
@@ -1672,10 +1684,10 @@
         <v>72</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="I15" s="0" t="s">
         <v>70</v>
@@ -1684,13 +1696,13 @@
         <v>45</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L15" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M15" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N15" s="0" t="s">
         <v>70</v>
@@ -1748,7 +1760,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1850,7 +1862,7 @@
         <v>67</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -1862,10 +1874,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>70</v>
@@ -1888,7 +1900,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -1906,25 +1918,25 @@
         <v>72</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="N3" s="0" t="s">
         <v>70</v>
@@ -1944,7 +1956,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1962,25 +1974,25 @@
         <v>72</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>70</v>
@@ -2000,7 +2012,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -2018,25 +2030,25 @@
         <v>72</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="N5" s="0" t="s">
         <v>70</v>
@@ -2056,7 +2068,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -2074,22 +2086,22 @@
         <v>72</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="M6" s="0" t="s">
         <v>70</v>
@@ -2112,7 +2124,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -2130,22 +2142,22 @@
         <v>72</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M7" s="0" t="s">
         <v>70</v>
@@ -2168,7 +2180,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -2186,25 +2198,25 @@
         <v>72</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="N8" s="0" t="s">
         <v>70</v>
@@ -2224,7 +2236,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -2242,25 +2254,25 @@
         <v>72</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>70</v>
@@ -2280,7 +2292,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -2298,25 +2310,25 @@
         <v>72</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="N10" s="0" t="s">
         <v>70</v>
@@ -2336,7 +2348,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -2363,16 +2375,16 @@
         <v>70</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>118</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>70</v>
@@ -2387,6 +2399,118 @@
         <v>67</v>
       </c>
       <c r="R11" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="0" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2394,24 +2518,28 @@
   <hyperlinks>
     <hyperlink ref="A2" display="0b5f1004-4731-4c8f-b5e5-313831c58e7f.md" r:id="rId2"/>
     <hyperlink ref="J2" display="0b5f1004-4731-4c8f-b5e5-313831c58e7f.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="39bab292-1397-4459-991d-e6ec9d1080e5.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="39bab292-1397-4459-991d-e6ec9d1080e5.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="3dcf6277-cd63-4b24-a1ba-a75f1dc29a39.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="3dcf6277-cd63-4b24-a1ba-a75f1dc29a39.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="446778d6-36b4-44b2-b2fa-6c8766183549.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="446778d6-36b4-44b2-b2fa-6c8766183549.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="4cd3d97d-8518-4907-9c00-9c731b489a7e.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="4cd3d97d-8518-4907-9c00-9c731b489a7e.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="4fb693fc-f9ef-4b0d-b3ca-3120992bc7ea.md" r:id="rId12"/>
-    <hyperlink ref="J7" display="4fb693fc-f9ef-4b0d-b3ca-3120992bc7ea.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="cba0ca38-876c-4589-9a37-7e936aec05bb.md" r:id="rId14"/>
-    <hyperlink ref="J8" display="cba0ca38-876c-4589-9a37-7e936aec05bb.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="e3ad3ae1-814a-4ec7-9b97-ff8c56a8bba5.md" r:id="rId16"/>
-    <hyperlink ref="J9" display="e3ad3ae1-814a-4ec7-9b97-ff8c56a8bba5.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="f5507395-4caa-43b0-8370-8b7d914df3b2.md" r:id="rId18"/>
-    <hyperlink ref="J10" display="f5507395-4caa-43b0-8370-8b7d914df3b2.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="ffb2775f-1220-4699-929f-e6a7dd6c970a.md" r:id="rId20"/>
-    <hyperlink ref="J11" display="ffb2775f-1220-4699-929f-e6a7dd6c970a.md" r:id="rId21"/>
+    <hyperlink ref="A3" display="2c740a10-0b6e-49d1-8cf9-95a3fc2c2f0c.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="2c740a10-0b6e-49d1-8cf9-95a3fc2c2f0c.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="39bab292-1397-4459-991d-e6ec9d1080e5.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="39bab292-1397-4459-991d-e6ec9d1080e5.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="3dcf6277-cd63-4b24-a1ba-a75f1dc29a39.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="3dcf6277-cd63-4b24-a1ba-a75f1dc29a39.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="446778d6-36b4-44b2-b2fa-6c8766183549.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="446778d6-36b4-44b2-b2fa-6c8766183549.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="4cd3d97d-8518-4907-9c00-9c731b489a7e.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="4cd3d97d-8518-4907-9c00-9c731b489a7e.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="4fb693fc-f9ef-4b0d-b3ca-3120992bc7ea.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="4fb693fc-f9ef-4b0d-b3ca-3120992bc7ea.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="774e8dc9-f94c-49ac-82ab-95f7ee26d4ef.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="774e8dc9-f94c-49ac-82ab-95f7ee26d4ef.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="cba0ca38-876c-4589-9a37-7e936aec05bb.md" r:id="rId18"/>
+    <hyperlink ref="J10" display="cba0ca38-876c-4589-9a37-7e936aec05bb.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="e3ad3ae1-814a-4ec7-9b97-ff8c56a8bba5.md" r:id="rId20"/>
+    <hyperlink ref="J11" display="e3ad3ae1-814a-4ec7-9b97-ff8c56a8bba5.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="f5507395-4caa-43b0-8370-8b7d914df3b2.md" r:id="rId22"/>
+    <hyperlink ref="J12" display="f5507395-4caa-43b0-8370-8b7d914df3b2.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="ffb2775f-1220-4699-929f-e6a7dd6c970a.md" r:id="rId24"/>
+    <hyperlink ref="J13" display="ffb2775f-1220-4699-929f-e6a7dd6c970a.md" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-21 10:34:54</t>
+    <t>2017-02-21 10:37:05</t>
   </si>
   <si>
     <t>ffff195eb692-21e2-4153-ae61-ae52f7acae32.md</t>
@@ -133,13 +133,13 @@
     <t>d0093246-6e1b-4c7f-ac25-80ebd0319969.1d15d32ba893d167c98498a3bda9c5aec13d74b5.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 10:34:37</t>
+    <t>2017-02-21 10:36:47</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-21 10:35:35</t>
+    <t>2017-02-21 10:37:46</t>
   </si>
   <si>
     <t>True</t>
@@ -157,7 +157,7 @@
     <t>d0093246-6e1b-4c7f-ac25-80ebd0319969.1d15d32ba893d167c98498a3bda9c5aec13d74b5.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 10:35:59</t>
+    <t>2017-02-21 10:38:09</t>
   </si>
   <si>
     <t>14b93a49-e3e7-4b1e-9b35-55590c193f20.5f89431fb87aafb79c02fb7bcbdfccaf17c0e1ca.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-21 10:37:05</t>
+    <t>2017-02-21 10:39:10</t>
   </si>
   <si>
     <t>ffff195eb692-21e2-4153-ae61-ae52f7acae32.md</t>
@@ -133,13 +133,13 @@
     <t>d0093246-6e1b-4c7f-ac25-80ebd0319969.1d15d32ba893d167c98498a3bda9c5aec13d74b5.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 10:36:47</t>
+    <t>2017-02-21 10:38:53</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-21 10:37:46</t>
+    <t>2017-02-21 10:39:49</t>
   </si>
   <si>
     <t>True</t>
@@ -157,7 +157,7 @@
     <t>d0093246-6e1b-4c7f-ac25-80ebd0319969.1d15d32ba893d167c98498a3bda9c5aec13d74b5.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 10:38:09</t>
+    <t>2017-02-21 10:40:13</t>
   </si>
   <si>
     <t>14b93a49-e3e7-4b1e-9b35-55590c193f20.5f89431fb87aafb79c02fb7bcbdfccaf17c0e1ca.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>d0093246-6e1b-4c7f-ac25-80ebd0319969.md</t>
-  </si>
-  <si>
-    <t>e2e\d0093246-6e1b-4c7f-ac25-80ebd0319969.md</t>
+    <t>09dcb1ef-8987-4da3-b5f9-4a71d798eaff.md</t>
+  </si>
+  <si>
+    <t>e2e\09dcb1ef-8987-4da3-b5f9-4a71d798eaff.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,22 +49,13 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-21 10:39:10</t>
-  </si>
-  <si>
-    <t>ffff195eb692-21e2-4153-ae61-ae52f7acae32.md</t>
-  </si>
-  <si>
-    <t>e2e\ffff195eb692-21e2-4153-ae61-ae52f7acae32.md</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:32:01</t>
-  </si>
-  <si>
-    <t>ffffff5b543627-de0c-4798-bfb8-ed99cd773119.md</t>
-  </si>
-  <si>
-    <t>e2e\ffffff5b543627-de0c-4798-bfb8-ed99cd773119.md</t>
+    <t>2017-02-21 10:41:20</t>
+  </si>
+  <si>
+    <t>632994d6-61e5-4564-b41c-e826d957ca8b.md</t>
+  </si>
+  <si>
+    <t>e2e\632994d6-61e5-4564-b41c-e826d957ca8b.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -130,40 +121,31 @@
     <t>False</t>
   </si>
   <si>
-    <t>d0093246-6e1b-4c7f-ac25-80ebd0319969.1d15d32ba893d167c98498a3bda9c5aec13d74b5.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:38:53</t>
+    <t>09dcb1ef-8987-4da3-b5f9-4a71d798eaff.02a58a675d807cd1ea23913d9dbcc44edb85d651.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:41:02</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-21 10:39:49</t>
+    <t>2017-02-21 10:42:02</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>14b93a49-e3e7-4b1e-9b35-55590c193f20.5f89431fb87aafb79c02fb7bcbdfccaf17c0e1ca.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:31:43</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:32:43</t>
-  </si>
-  <si>
-    <t>d0093246-6e1b-4c7f-ac25-80ebd0319969.1d15d32ba893d167c98498a3bda9c5aec13d74b5.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:40:13</t>
-  </si>
-  <si>
-    <t>14b93a49-e3e7-4b1e-9b35-55590c193f20.5f89431fb87aafb79c02fb7bcbdfccaf17c0e1ca.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:33:07</t>
+    <t>632994d6-61e5-4564-b41c-e826d957ca8b.8a829aa9a4f26666b8ceae2b41acca8b4a709c73.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>09dcb1ef-8987-4da3-b5f9-4a71d798eaff.02a58a675d807cd1ea23913d9dbcc44edb85d651.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:42:25</t>
+  </si>
+  <si>
+    <t>632994d6-61e5-4564-b41c-e826d957ca8b.8a829aa9a4f26666b8ceae2b41acca8b4a709c73.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -220,8 +202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -247,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -274,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -291,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,34 +348,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\d0093246-6e1b-4c7f-ac25-80ebd0319969.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\ffff195eb692-21e2-4153-ae61-ae52f7acae32.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\ffffff5b543627-de0c-4798-bfb8-ed99cd773119.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\09dcb1ef-8987-4da3-b5f9-4a71d798eaff.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\632994d6-61e5-4564-b41c-e826d957ca8b.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -404,7 +365,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,58 +393,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -497,49 +458,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -553,115 +514,57 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="d0093246-6e1b-4c7f-ac25-80ebd0319969.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="d0093246-6e1b-4c7f-ac25-80ebd0319969.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff195eb692-21e2-4153-ae61-ae52f7acae32.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ffff195eb692-21e2-4153-ae61-ae52f7acae32.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff5b543627-de0c-4798-bfb8-ed99cd773119.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ffffff5b543627-de0c-4798-bfb8-ed99cd773119.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="09dcb1ef-8987-4da3-b5f9-4a71d798eaff.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="09dcb1ef-8987-4da3-b5f9-4a71d798eaff.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="632994d6-61e5-4564-b41c-e826d957ca8b.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="632994d6-61e5-4564-b41c-e826d957ca8b.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -672,7 +575,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,58 +603,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -765,49 +668,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -821,115 +724,57 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="d0093246-6e1b-4c7f-ac25-80ebd0319969.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="d0093246-6e1b-4c7f-ac25-80ebd0319969.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="ffff195eb692-21e2-4153-ae61-ae52f7acae32.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="ffff195eb692-21e2-4153-ae61-ae52f7acae32.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="ffffff5b543627-de0c-4798-bfb8-ed99cd773119.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="ffffff5b543627-de0c-4798-bfb8-ed99cd773119.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="09dcb1ef-8987-4da3-b5f9-4a71d798eaff.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="09dcb1ef-8987-4da3-b5f9-4a71d798eaff.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="632994d6-61e5-4564-b41c-e826d957ca8b.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="632994d6-61e5-4564-b41c-e826d957ca8b.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>09dcb1ef-8987-4da3-b5f9-4a71d798eaff.md</t>
-  </si>
-  <si>
-    <t>e2e\09dcb1ef-8987-4da3-b5f9-4a71d798eaff.md</t>
+    <t>b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.md</t>
+  </si>
+  <si>
+    <t>e2e\b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,13 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-21 10:41:20</t>
-  </si>
-  <si>
-    <t>632994d6-61e5-4564-b41c-e826d957ca8b.md</t>
-  </si>
-  <si>
-    <t>e2e\632994d6-61e5-4564-b41c-e826d957ca8b.md</t>
+    <t>2017-02-21 10:48:08</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,31 +115,25 @@
     <t>False</t>
   </si>
   <si>
-    <t>09dcb1ef-8987-4da3-b5f9-4a71d798eaff.02a58a675d807cd1ea23913d9dbcc44edb85d651.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:41:02</t>
+    <t>b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.366855d37345330f2fa342638af826332dc44c58.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:47:51</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-21 10:42:02</t>
+    <t>2017-02-21 10:48:50</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>632994d6-61e5-4564-b41c-e826d957ca8b.8a829aa9a4f26666b8ceae2b41acca8b4a709c73.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>09dcb1ef-8987-4da3-b5f9-4a71d798eaff.02a58a675d807cd1ea23913d9dbcc44edb85d651.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:42:25</t>
-  </si>
-  <si>
-    <t>632994d6-61e5-4564-b41c-e826d957ca8b.8a829aa9a4f26666b8ceae2b41acca8b4a709c73.de-de.xlf</t>
+    <t>b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.366855d37345330f2fa342638af826332dc44c58.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:49:14</t>
   </si>
 </sst>
 </file>
@@ -202,8 +190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -229,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -256,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -273,7 +261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -331,30 +319,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\09dcb1ef-8987-4da3-b5f9-4a71d798eaff.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\632994d6-61e5-4564-b41c-e826d957ca8b.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -365,7 +332,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,58 +360,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -458,113 +425,55 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="09dcb1ef-8987-4da3-b5f9-4a71d798eaff.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="09dcb1ef-8987-4da3-b5f9-4a71d798eaff.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="632994d6-61e5-4564-b41c-e826d957ca8b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="632994d6-61e5-4564-b41c-e826d957ca8b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -575,7 +484,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -603,58 +512,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -668,113 +577,55 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="09dcb1ef-8987-4da3-b5f9-4a71d798eaff.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="09dcb1ef-8987-4da3-b5f9-4a71d798eaff.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="632994d6-61e5-4564-b41c-e826d957ca8b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="632994d6-61e5-4564-b41c-e826d957ca8b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.md</t>
-  </si>
-  <si>
-    <t>e2e\b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.md</t>
+    <t>74cdc530-baab-48d0-bcfc-7225f2ec2db6.md</t>
+  </si>
+  <si>
+    <t>e2e\74cdc530-baab-48d0-bcfc-7225f2ec2db6.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,7 +49,16 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-21 10:48:08</t>
+    <t>2017-02-21 10:53:49</t>
+  </si>
+  <si>
+    <t>cb402c2a-e2a9-434e-b7b0-e1aef770442d.md</t>
+  </si>
+  <si>
+    <t>e2e\cb402c2a-e2a9-434e-b7b0-e1aef770442d.md</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:54:51</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,25 +124,34 @@
     <t>False</t>
   </si>
   <si>
-    <t>b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.366855d37345330f2fa342638af826332dc44c58.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:47:51</t>
+    <t>74cdc530-baab-48d0-bcfc-7225f2ec2db6.9077da9b8686fe5c9b15cdc4b55950110e56b658.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:53:33</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-21 10:48:50</t>
+    <t>2017-02-21 10:55:36</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.366855d37345330f2fa342638af826332dc44c58.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-21 10:49:14</t>
+    <t>cb402c2a-e2a9-434e-b7b0-e1aef770442d.719309e1036a43ec2a0cc7d6164ddac16cfab799.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:54:35</t>
+  </si>
+  <si>
+    <t>74cdc530-baab-48d0-bcfc-7225f2ec2db6.9077da9b8686fe5c9b15cdc4b55950110e56b658.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:55:59</t>
+  </si>
+  <si>
+    <t>cb402c2a-e2a9-434e-b7b0-e1aef770442d.719309e1036a43ec2a0cc7d6164ddac16cfab799.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -190,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -261,7 +279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +337,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\74cdc530-baab-48d0-bcfc-7225f2ec2db6.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\cb402c2a-e2a9-434e-b7b0-e1aef770442d.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +399,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -425,55 +464,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="74cdc530-baab-48d0-bcfc-7225f2ec2db6.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="74cdc530-baab-48d0-bcfc-7225f2ec2db6.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="cb402c2a-e2a9-434e-b7b0-e1aef770442d.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="cb402c2a-e2a9-434e-b7b0-e1aef770442d.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +581,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +609,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -577,55 +674,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="b7b9f3d0-e3f0-47d8-996a-5458cf7f0326.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="74cdc530-baab-48d0-bcfc-7225f2ec2db6.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="74cdc530-baab-48d0-bcfc-7225f2ec2db6.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="cb402c2a-e2a9-434e-b7b0-e1aef770442d.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="cb402c2a-e2a9-434e-b7b0-e1aef770442d.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -46,16 +46,22 @@
     <t>.md</t>
   </si>
   <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-21 10:59:28</t>
+  </si>
+  <si>
+    <t>cf5d4e63-38a4-456d-9f81-5cae228c4916.md</t>
+  </si>
+  <si>
+    <t>e2e\cf5d4e63-38a4-456d-9f81-5cae228c4916.md</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-21 10:59:28</t>
-  </si>
-  <si>
-    <t>cf5d4e63-38a4-456d-9f81-5cae228c4916.md</t>
-  </si>
-  <si>
-    <t>e2e\cf5d4e63-38a4-456d-9f81-5cae228c4916.md</t>
+    <t>2017-02-21 11:01:37</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -139,6 +145,12 @@
     <t>cf5d4e63-38a4-456d-9f81-5cae228c4916.d0143481560cac4a9d527aece013bd34aa8d71cc.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-21 11:01:20</t>
+  </si>
+  <si>
+    <t>2017-02-21 11:02:19</t>
+  </si>
+  <si>
     <t>12e9f1b5-392a-477a-b62d-c874087e6dd8.c3c1536ea5a3777d5ecdd81f83593c09a56e75d6.de-de.xlf</t>
   </si>
   <si>
@@ -146,6 +158,9 @@
   </si>
   <si>
     <t>cf5d4e63-38a4-456d-9f81-5cae228c4916.d0143481560cac4a9d527aece013bd34aa8d71cc.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 11:02:41</t>
   </si>
 </sst>
 </file>
@@ -283,8 +298,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -342,13 +357,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -373,7 +388,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -393,58 +408,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -458,49 +473,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -511,52 +526,52 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +598,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -603,58 +618,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -668,49 +683,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -721,52 +736,52 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -52,15 +52,24 @@
     <t>2017-02-21 10:59:28</t>
   </si>
   <si>
+    <t>1d810fc8-2299-46f8-a074-2c75f9035a63.md</t>
+  </si>
+  <si>
+    <t>e2e\1d810fc8-2299-46f8-a074-2c75f9035a63.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-21 11:03:38</t>
+  </si>
+  <si>
     <t>cf5d4e63-38a4-456d-9f81-5cae228c4916.md</t>
   </si>
   <si>
     <t>e2e\cf5d4e63-38a4-456d-9f81-5cae228c4916.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-21 11:01:37</t>
   </si>
   <si>
@@ -142,6 +151,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>1d810fc8-2299-46f8-a074-2c75f9035a63.d16179663988728f30d9db1916ec1d29cf42127f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 11:03:21</t>
+  </si>
+  <si>
+    <t>2017-02-21 11:04:19</t>
+  </si>
+  <si>
     <t>cf5d4e63-38a4-456d-9f81-5cae228c4916.d0143481560cac4a9d527aece013bd34aa8d71cc.zh-cn.xlf</t>
   </si>
   <si>
@@ -155,6 +173,12 @@
   </si>
   <si>
     <t>2017-02-21 11:00:39</t>
+  </si>
+  <si>
+    <t>1d810fc8-2299-46f8-a074-2c75f9035a63.d16179663988728f30d9db1916ec1d29cf42127f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 11:04:42</t>
   </si>
   <si>
     <t>cf5d4e63-38a4-456d-9f81-5cae228c4916.d0143481560cac4a9d527aece013bd34aa8d71cc.de-de.xlf</t>
@@ -217,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -271,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -288,7 +312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,10 +390,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\12e9f1b5-392a-477a-b62d-c874087e6dd8.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId3"/>
+    <hyperlink ref="B3" display="e2e\1d810fc8-2299-46f8-a074-2c75f9035a63.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -380,7 +425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,58 +453,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -473,49 +518,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -529,57 +574,115 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="12e9f1b5-392a-477a-b62d-c874087e6dd8.md" r:id="rId2"/>
     <hyperlink ref="J2" display="12e9f1b5-392a-477a-b62d-c874087e6dd8.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="1d810fc8-2299-46f8-a074-2c75f9035a63.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="1d810fc8-2299-46f8-a074-2c75f9035a63.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -590,7 +693,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,58 +721,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -683,49 +786,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -739,57 +842,115 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="12e9f1b5-392a-477a-b62d-c874087e6dd8.md" r:id="rId2"/>
     <hyperlink ref="J2" display="12e9f1b5-392a-477a-b62d-c874087e6dd8.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="1d810fc8-2299-46f8-a074-2c75f9035a63.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="1d810fc8-2299-46f8-a074-2c75f9035a63.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -58,18 +58,18 @@
     <t>e2e\1d810fc8-2299-46f8-a074-2c75f9035a63.md</t>
   </si>
   <si>
+    <t>2017-02-21 11:05:41</t>
+  </si>
+  <si>
+    <t>cf5d4e63-38a4-456d-9f81-5cae228c4916.md</t>
+  </si>
+  <si>
+    <t>e2e\cf5d4e63-38a4-456d-9f81-5cae228c4916.md</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-21 11:03:38</t>
-  </si>
-  <si>
-    <t>cf5d4e63-38a4-456d-9f81-5cae228c4916.md</t>
-  </si>
-  <si>
-    <t>e2e\cf5d4e63-38a4-456d-9f81-5cae228c4916.md</t>
-  </si>
-  <si>
     <t>2017-02-21 11:01:37</t>
   </si>
   <si>
@@ -154,10 +154,10 @@
     <t>1d810fc8-2299-46f8-a074-2c75f9035a63.d16179663988728f30d9db1916ec1d29cf42127f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 11:03:21</t>
-  </si>
-  <si>
-    <t>2017-02-21 11:04:19</t>
+    <t>2017-02-21 11:05:23</t>
+  </si>
+  <si>
+    <t>2017-02-21 11:07:13</t>
   </si>
   <si>
     <t>cf5d4e63-38a4-456d-9f81-5cae228c4916.d0143481560cac4a9d527aece013bd34aa8d71cc.zh-cn.xlf</t>
@@ -178,7 +178,7 @@
     <t>1d810fc8-2299-46f8-a074-2c75f9035a63.d16179663988728f30d9db1916ec1d29cf42127f.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 11:04:42</t>
+    <t>2017-02-21 11:07:35</t>
   </si>
   <si>
     <t>cf5d4e63-38a4-456d-9f81-5cae228c4916.d0143481560cac4a9d527aece013bd34aa8d71cc.de-de.xlf</t>
@@ -381,30 +381,30 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>37</v>
@@ -621,13 +621,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>37</v>
@@ -648,7 +648,7 @@
         <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>48</v>
@@ -839,7 +839,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>37</v>
@@ -854,7 +854,7 @@
         <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>42</v>
@@ -889,13 +889,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>37</v>
@@ -916,7 +916,7 @@
         <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>55</v>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>File Name</t>
   </si>
@@ -73,6 +73,15 @@
     <t>2017-02-21 11:01:37</t>
   </si>
   <si>
+    <t>d8893c56-fe19-464e-94ef-f52a94eba1ad.md</t>
+  </si>
+  <si>
+    <t>e2e\d8893c56-fe19-464e-94ef-f52a94eba1ad.md</t>
+  </si>
+  <si>
+    <t>2017-02-21 11:08:44</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -169,6 +178,15 @@
     <t>2017-02-21 11:02:19</t>
   </si>
   <si>
+    <t>d8893c56-fe19-464e-94ef-f52a94eba1ad.ce58ac674dba2c9d903ff8d34ca36f55a512b5c0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 11:08:27</t>
+  </si>
+  <si>
+    <t>2017-02-21 11:09:26</t>
+  </si>
+  <si>
     <t>12e9f1b5-392a-477a-b62d-c874087e6dd8.c3c1536ea5a3777d5ecdd81f83593c09a56e75d6.de-de.xlf</t>
   </si>
   <si>
@@ -185,6 +203,12 @@
   </si>
   <si>
     <t>2017-02-21 11:02:41</t>
+  </si>
+  <si>
+    <t>d8893c56-fe19-464e-94ef-f52a94eba1ad.ce58ac674dba2c9d903ff8d34ca36f55a512b5c0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 11:09:48</t>
   </si>
 </sst>
 </file>
@@ -241,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -268,8 +292,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -295,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -312,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,11 +434,32 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\12e9f1b5-392a-477a-b62d-c874087e6dd8.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\1d810fc8-2299-46f8-a074-2c75f9035a63.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\d8893c56-fe19-464e-94ef-f52a94eba1ad.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -425,7 +470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -453,58 +498,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -518,49 +563,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -574,49 +619,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -630,49 +675,105 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="R4" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>42</v>
+      <c r="R5" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -683,6 +784,8 @@
     <hyperlink ref="J3" display="1d810fc8-2299-46f8-a074-2c75f9035a63.md" r:id="rId5"/>
     <hyperlink ref="A4" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId6"/>
     <hyperlink ref="J4" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="d8893c56-fe19-464e-94ef-f52a94eba1ad.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="d8893c56-fe19-464e-94ef-f52a94eba1ad.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -693,7 +796,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -721,58 +824,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -786,49 +889,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -842,49 +945,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -898,49 +1001,105 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="R4" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>42</v>
+      <c r="R5" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -951,6 +1110,8 @@
     <hyperlink ref="J3" display="1d810fc8-2299-46f8-a074-2c75f9035a63.md" r:id="rId5"/>
     <hyperlink ref="A4" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId6"/>
     <hyperlink ref="J4" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="d8893c56-fe19-464e-94ef-f52a94eba1ad.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="d8893c56-fe19-464e-94ef-f52a94eba1ad.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>File Name</t>
   </si>
@@ -61,15 +61,42 @@
     <t>2017-02-21 11:05:41</t>
   </si>
   <si>
+    <t>25e3db95-ed04-4168-80f1-1488dd672b2e.md</t>
+  </si>
+  <si>
+    <t>e2e\25e3db95-ed04-4168-80f1-1488dd672b2e.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-21 11:11:25</t>
+  </si>
+  <si>
+    <t>8bcddf60-b335-4bed-a87e-47e803db7543.md</t>
+  </si>
+  <si>
+    <t>e2e\8bcddf60-b335-4bed-a87e-47e803db7543.md</t>
+  </si>
+  <si>
+    <t>a0384d1e-1c8c-4842-8c95-ca6fab8aa342.md</t>
+  </si>
+  <si>
+    <t>e2e\a0384d1e-1c8c-4842-8c95-ca6fab8aa342.md</t>
+  </si>
+  <si>
+    <t>b2e9f040-087b-4648-896b-005ba42ab51b.md</t>
+  </si>
+  <si>
+    <t>e2e\b2e9f040-087b-4648-896b-005ba42ab51b.md</t>
+  </si>
+  <si>
     <t>cf5d4e63-38a4-456d-9f81-5cae228c4916.md</t>
   </si>
   <si>
     <t>e2e\cf5d4e63-38a4-456d-9f81-5cae228c4916.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-21 11:01:37</t>
   </si>
   <si>
@@ -169,6 +196,24 @@
     <t>2017-02-21 11:07:13</t>
   </si>
   <si>
+    <t>25e3db95-ed04-4168-80f1-1488dd672b2e.f5d6460bf0ea588c8916af4dbdab07e62915f747.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 11:11:08</t>
+  </si>
+  <si>
+    <t>2017-02-21 11:12:52</t>
+  </si>
+  <si>
+    <t>8bcddf60-b335-4bed-a87e-47e803db7543.8a60aac0720027fe83c734590537596fd04384f0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>a0384d1e-1c8c-4842-8c95-ca6fab8aa342.bb6193b45e8322c4eb8177e6adf645d8f9198f13.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>b2e9f040-087b-4648-896b-005ba42ab51b.4c97ab6ae178d91f848639fc88f1c9c1e8a783e4.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>cf5d4e63-38a4-456d-9f81-5cae228c4916.d0143481560cac4a9d527aece013bd34aa8d71cc.zh-cn.xlf</t>
   </si>
   <si>
@@ -197,6 +242,21 @@
   </si>
   <si>
     <t>2017-02-21 11:07:35</t>
+  </si>
+  <si>
+    <t>25e3db95-ed04-4168-80f1-1488dd672b2e.f5d6460bf0ea588c8916af4dbdab07e62915f747.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-21 11:13:15</t>
+  </si>
+  <si>
+    <t>8bcddf60-b335-4bed-a87e-47e803db7543.8a60aac0720027fe83c734590537596fd04384f0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>a0384d1e-1c8c-4842-8c95-ca6fab8aa342.bb6193b45e8322c4eb8177e6adf645d8f9198f13.de-de.xlf</t>
+  </si>
+  <si>
+    <t>b2e9f040-087b-4648-896b-005ba42ab51b.4c97ab6ae178d91f848639fc88f1c9c1e8a783e4.de-de.xlf</t>
   </si>
   <si>
     <t>cf5d4e63-38a4-456d-9f81-5cae228c4916.d0143481560cac4a9d527aece013bd34aa8d71cc.de-de.xlf</t>
@@ -265,8 +325,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
-  <autoFilter ref="A1:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R9" headerRowCount="1">
+  <autoFilter ref="A1:R9"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -292,8 +352,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
-  <autoFilter ref="A1:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R9" headerRowCount="1">
+  <autoFilter ref="A1:R9"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -319,8 +379,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -336,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,15 +511,99 @@
         <v>17</v>
       </c>
       <c r="G5" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
         <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\12e9f1b5-392a-477a-b62d-c874087e6dd8.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\1d810fc8-2299-46f8-a074-2c75f9035a63.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\d8893c56-fe19-464e-94ef-f52a94eba1ad.md" r:id="rId5"/>
+    <hyperlink ref="B4" display="e2e\25e3db95-ed04-4168-80f1-1488dd672b2e.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\8bcddf60-b335-4bed-a87e-47e803db7543.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\a0384d1e-1c8c-4842-8c95-ca6fab8aa342.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\b2e9f040-087b-4648-896b-005ba42ab51b.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\d8893c56-fe19-464e-94ef-f52a94eba1ad.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -470,7 +614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,58 +642,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -563,49 +707,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -619,49 +763,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -675,49 +819,49 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -731,49 +875,273 @@
         <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -782,10 +1150,18 @@
     <hyperlink ref="J2" display="12e9f1b5-392a-477a-b62d-c874087e6dd8.md" r:id="rId3"/>
     <hyperlink ref="A3" display="1d810fc8-2299-46f8-a074-2c75f9035a63.md" r:id="rId4"/>
     <hyperlink ref="J3" display="1d810fc8-2299-46f8-a074-2c75f9035a63.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="d8893c56-fe19-464e-94ef-f52a94eba1ad.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="d8893c56-fe19-464e-94ef-f52a94eba1ad.md" r:id="rId9"/>
+    <hyperlink ref="A4" display="25e3db95-ed04-4168-80f1-1488dd672b2e.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="25e3db95-ed04-4168-80f1-1488dd672b2e.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="8bcddf60-b335-4bed-a87e-47e803db7543.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="8bcddf60-b335-4bed-a87e-47e803db7543.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="a0384d1e-1c8c-4842-8c95-ca6fab8aa342.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="a0384d1e-1c8c-4842-8c95-ca6fab8aa342.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="b2e9f040-087b-4648-896b-005ba42ab51b.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="b2e9f040-087b-4648-896b-005ba42ab51b.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="d8893c56-fe19-464e-94ef-f52a94eba1ad.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="d8893c56-fe19-464e-94ef-f52a94eba1ad.md" r:id="rId17"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -796,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -824,58 +1200,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -889,49 +1265,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -945,49 +1321,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -1001,49 +1377,49 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1057,49 +1433,273 @@
         <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1108,10 +1708,18 @@
     <hyperlink ref="J2" display="12e9f1b5-392a-477a-b62d-c874087e6dd8.md" r:id="rId3"/>
     <hyperlink ref="A3" display="1d810fc8-2299-46f8-a074-2c75f9035a63.md" r:id="rId4"/>
     <hyperlink ref="J3" display="1d810fc8-2299-46f8-a074-2c75f9035a63.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="d8893c56-fe19-464e-94ef-f52a94eba1ad.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="d8893c56-fe19-464e-94ef-f52a94eba1ad.md" r:id="rId9"/>
+    <hyperlink ref="A4" display="25e3db95-ed04-4168-80f1-1488dd672b2e.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="25e3db95-ed04-4168-80f1-1488dd672b2e.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="8bcddf60-b335-4bed-a87e-47e803db7543.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="8bcddf60-b335-4bed-a87e-47e803db7543.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="a0384d1e-1c8c-4842-8c95-ca6fab8aa342.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="a0384d1e-1c8c-4842-8c95-ca6fab8aa342.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="b2e9f040-087b-4648-896b-005ba42ab51b.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="b2e9f040-087b-4648-896b-005ba42ab51b.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="cf5d4e63-38a4-456d-9f81-5cae228c4916.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="d8893c56-fe19-464e-94ef-f52a94eba1ad.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="d8893c56-fe19-464e-94ef-f52a94eba1ad.md" r:id="rId17"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-21 11:24:09</t>
+    <t>2017-02-21 11:26:20</t>
   </si>
   <si>
     <t>9e4f7865-7696-48dc-b271-04c24c4f434b.md</t>
@@ -115,7 +115,7 @@
     <t>e2e</t>
   </si>
   <si>
-    <t>ht</t>
+    <t>mt</t>
   </si>
   <si>
     <t>False</t>
@@ -124,13 +124,13 @@
     <t>84ff829e-5680-4943-8150-25ca2e93d7d4.b21bc7cbd1116f8d9ced48c0145255208d5a65ba.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 11:23:51</t>
+    <t>2017-02-21 11:26:03</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-21 11:24:51</t>
+    <t>2017-02-21 11:27:01</t>
   </si>
   <si>
     <t>True</t>
@@ -142,7 +142,7 @@
     <t>84ff829e-5680-4943-8150-25ca2e93d7d4.b21bc7cbd1116f8d9ced48c0145255208d5a65ba.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-21 11:25:15</t>
+    <t>2017-02-21 11:27:24</t>
   </si>
   <si>
     <t>9e4f7865-7696-48dc-b271-04c24c4f434b.bf98d5e15698a262a5918324a1cfe3857f86148f.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -52,6 +52,18 @@
     <t>2017-02-22 06:44:13</t>
   </si>
   <si>
+    <t>690a98eb-5eed-4f24-9311-4d0094485c6c.md</t>
+  </si>
+  <si>
+    <t>e2e\690a98eb-5eed-4f24-9311-4d0094485c6c.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-22 06:52:01</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -130,10 +142,25 @@
     <t>True</t>
   </si>
   <si>
+    <t>690a98eb-5eed-4f24-9311-4d0094485c6c.423573a796c0147d78d10216e4df8427a21823d0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 06:51:45</t>
+  </si>
+  <si>
+    <t>2017-02-22 06:52:42</t>
+  </si>
+  <si>
     <t>f83d969b-171a-49fc-beb4-ffe2afb6085d.79fb87880ca5b660ed5d9fed288a89ef97280e40.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-22 06:46:16</t>
+  </si>
+  <si>
+    <t>690a98eb-5eed-4f24-9311-4d0094485c6c.423573a796c0147d78d10216e4df8427a21823d0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 06:53:05</t>
   </si>
 </sst>
 </file>
@@ -190,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +271,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -261,7 +288,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +346,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\f83d969b-171a-49fc-beb4-ffe2afb6085d.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\690a98eb-5eed-4f24-9311-4d0094485c6c.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +380,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +408,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -425,55 +473,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="M2" s="0" t="s">
+      <c r="R2" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="F3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="f83d969b-171a-49fc-beb4-ffe2afb6085d.md" r:id="rId2"/>
     <hyperlink ref="J2" display="f83d969b-171a-49fc-beb4-ffe2afb6085d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="690a98eb-5eed-4f24-9311-4d0094485c6c.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="690a98eb-5eed-4f24-9311-4d0094485c6c.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +590,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +618,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -577,55 +683,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="F3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="f83d969b-171a-49fc-beb4-ffe2afb6085d.md" r:id="rId2"/>
     <hyperlink ref="J2" display="f83d969b-171a-49fc-beb4-ffe2afb6085d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="690a98eb-5eed-4f24-9311-4d0094485c6c.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="690a98eb-5eed-4f24-9311-4d0094485c6c.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -52,15 +52,24 @@
     <t>2017-02-22 06:44:13</t>
   </si>
   <si>
+    <t>044bdc2b-7dbd-4de2-896e-58a6c3e98def.md</t>
+  </si>
+  <si>
+    <t>e2e\044bdc2b-7dbd-4de2-896e-58a6c3e98def.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-22 06:56:10</t>
+  </si>
+  <si>
     <t>690a98eb-5eed-4f24-9311-4d0094485c6c.md</t>
   </si>
   <si>
     <t>e2e\690a98eb-5eed-4f24-9311-4d0094485c6c.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-22 06:52:01</t>
   </si>
   <si>
@@ -142,6 +151,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>044bdc2b-7dbd-4de2-896e-58a6c3e98def.bfb9ff4ef24f5619bbc1559c8579a860cb26a5e1.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 06:55:53</t>
+  </si>
+  <si>
+    <t>2017-02-22 06:56:50</t>
+  </si>
+  <si>
     <t>690a98eb-5eed-4f24-9311-4d0094485c6c.423573a796c0147d78d10216e4df8427a21823d0.zh-cn.xlf</t>
   </si>
   <si>
@@ -155,6 +173,12 @@
   </si>
   <si>
     <t>2017-02-22 06:46:16</t>
+  </si>
+  <si>
+    <t>044bdc2b-7dbd-4de2-896e-58a6c3e98def.bfb9ff4ef24f5619bbc1559c8579a860cb26a5e1.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 06:57:13</t>
   </si>
   <si>
     <t>690a98eb-5eed-4f24-9311-4d0094485c6c.423573a796c0147d78d10216e4df8427a21823d0.de-de.xlf</t>
@@ -217,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -271,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -288,7 +312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,10 +390,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\f83d969b-171a-49fc-beb4-ffe2afb6085d.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\690a98eb-5eed-4f24-9311-4d0094485c6c.md" r:id="rId3"/>
+    <hyperlink ref="B3" display="e2e\044bdc2b-7dbd-4de2-896e-58a6c3e98def.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\690a98eb-5eed-4f24-9311-4d0094485c6c.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -380,7 +425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,58 +453,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -473,49 +518,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -529,57 +574,115 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="f83d969b-171a-49fc-beb4-ffe2afb6085d.md" r:id="rId2"/>
     <hyperlink ref="J2" display="f83d969b-171a-49fc-beb4-ffe2afb6085d.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="690a98eb-5eed-4f24-9311-4d0094485c6c.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="690a98eb-5eed-4f24-9311-4d0094485c6c.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="044bdc2b-7dbd-4de2-896e-58a6c3e98def.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="044bdc2b-7dbd-4de2-896e-58a6c3e98def.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="690a98eb-5eed-4f24-9311-4d0094485c6c.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="690a98eb-5eed-4f24-9311-4d0094485c6c.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -590,7 +693,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,58 +721,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -683,49 +786,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -739,57 +842,115 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="f83d969b-171a-49fc-beb4-ffe2afb6085d.md" r:id="rId2"/>
     <hyperlink ref="J2" display="f83d969b-171a-49fc-beb4-ffe2afb6085d.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="690a98eb-5eed-4f24-9311-4d0094485c6c.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="690a98eb-5eed-4f24-9311-4d0094485c6c.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="044bdc2b-7dbd-4de2-896e-58a6c3e98def.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="044bdc2b-7dbd-4de2-896e-58a6c3e98def.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="690a98eb-5eed-4f24-9311-4d0094485c6c.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="690a98eb-5eed-4f24-9311-4d0094485c6c.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -61,7 +61,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-22 06:56:10</t>
+    <t>2017-02-22 06:58:15</t>
   </si>
   <si>
     <t>690a98eb-5eed-4f24-9311-4d0094485c6c.md</t>
@@ -154,10 +154,10 @@
     <t>044bdc2b-7dbd-4de2-896e-58a6c3e98def.bfb9ff4ef24f5619bbc1559c8579a860cb26a5e1.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-22 06:55:53</t>
-  </si>
-  <si>
-    <t>2017-02-22 06:56:50</t>
+    <t>2017-02-22 06:57:58</t>
+  </si>
+  <si>
+    <t>2017-02-22 06:59:00</t>
   </si>
   <si>
     <t>690a98eb-5eed-4f24-9311-4d0094485c6c.423573a796c0147d78d10216e4df8427a21823d0.zh-cn.xlf</t>
@@ -178,7 +178,7 @@
     <t>044bdc2b-7dbd-4de2-896e-58a6c3e98def.bfb9ff4ef24f5619bbc1559c8579a860cb26a5e1.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-22 06:57:13</t>
+    <t>2017-02-22 06:59:23</t>
   </si>
   <si>
     <t>690a98eb-5eed-4f24-9311-4d0094485c6c.423573a796c0147d78d10216e4df8427a21823d0.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>File Name</t>
   </si>
@@ -37,25 +37,31 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>b.md</t>
+  </si>
+  <si>
+    <t>e2e\b.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:02:43</t>
+  </si>
+  <si>
     <t>a.md</t>
   </si>
   <si>
     <t>e2e\a.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-22 07:02:43</t>
-  </si>
-  <si>
-    <t>b.md</t>
-  </si>
-  <si>
-    <t>e2e\b.md</t>
+    <t>2017-02-22 07:06:40</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -136,10 +142,22 @@
     <t>True</t>
   </si>
   <si>
+    <t>2017-02-22 07:06:22</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:08:07</t>
+  </si>
+  <si>
+    <t>TestHandback_201702220307</t>
+  </si>
+  <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-22 07:03:49</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:08:28</t>
   </si>
 </sst>
 </file>
@@ -277,8 +295,8 @@
     <col min="2" max="2" width="17.3850729806083" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -336,19 +354,19 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\b.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\b.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\a.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -367,7 +385,7 @@
   <cols>
     <col min="1" max="1" width="18.9206946236747" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -387,58 +405,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -452,49 +470,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -505,60 +523,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -577,7 +595,7 @@
   <cols>
     <col min="1" max="1" width="18.9206946236747" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -597,58 +615,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -662,49 +680,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -715,60 +733,60 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="b.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="b.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="b.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="b.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="a.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="a.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>File Name</t>
   </si>
@@ -67,6 +67,9 @@
     <t>.md</t>
   </si>
   <si>
+    <t>2017-02-22 07:16:56</t>
+  </si>
+  <si>
     <t>caecbd1a-762b-4d6c-9bdc-a95694b5cd75.md</t>
   </si>
   <si>
@@ -166,6 +169,12 @@
     <t>b5f5da84-0977-41a0-82be-174061b7af4e.41b73e5a0137bb365e62d07b1407856b846c4d95.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-22 07:16:39</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:17:38</t>
+  </si>
+  <si>
     <t>caecbd1a-762b-4d6c-9bdc-a95694b5cd75.106929efe8a9e37a0ef17725c2d060f7d5fd3da9.zh-cn.xlf</t>
   </si>
   <si>
@@ -176,6 +185,9 @@
   </si>
   <si>
     <t>b5f5da84-0977-41a0-82be-174061b7af4e.41b73e5a0137bb365e62d07b1407856b846c4d95.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:18:01</t>
   </si>
   <si>
     <t>caecbd1a-762b-4d6c-9bdc-a95694b5cd75.106929efe8a9e37a0ef17725c2d060f7d5fd3da9.de-de.xlf</t>
@@ -404,15 +416,15 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>16</v>
@@ -429,10 +441,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>16</v>
@@ -492,58 +504,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -557,49 +569,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -613,49 +625,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -669,54 +681,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>43</v>
+        <v>51</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>16</v>
@@ -725,54 +737,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>16</v>
@@ -781,49 +793,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -876,58 +888,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -941,49 +953,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>41</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -997,49 +1009,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="P3" s="0" t="s">
         <v>15</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -1053,54 +1065,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>16</v>
@@ -1109,54 +1121,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>16</v>
@@ -1165,49 +1177,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="M6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="66">
   <si>
     <t>File Name</t>
   </si>
@@ -37,31 +37,28 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>16fc81cc-ca3f-40d6-a586-310219bfe4a1.md</t>
+  </si>
+  <si>
+    <t>e2e\16fc81cc-ca3f-40d6-a586-310219bfe4a1.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:21:19</t>
+  </si>
+  <si>
     <t>2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md</t>
   </si>
   <si>
     <t>e2e\2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:23:34</t>
-  </si>
-  <si>
-    <t>16fc81cc-ca3f-40d6-a586-310219bfe4a1.md</t>
-  </si>
-  <si>
-    <t>e2e\16fc81cc-ca3f-40d6-a586-310219bfe4a1.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:21:19</t>
+    <t>2017-02-22 07:24:30</t>
   </si>
   <si>
     <t>ae5b240b-5816-4f77-b500-000566d7f524.md</t>
@@ -151,28 +148,28 @@
     <t>False</t>
   </si>
   <si>
+    <t>16fc81cc-ca3f-40d6-a586-310219bfe4a1.3b6ded2007d599bb1b72f7e9895cf1fb5f24f654.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:21:00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-22 07:22:02</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.0ab47c41403deae33a8b4ba2e6cd75f3c7bfea3a.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-22 07:23:17</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-02-22 07:25:10</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>16fc81cc-ca3f-40d6-a586-310219bfe4a1.3b6ded2007d599bb1b72f7e9895cf1fb5f24f654.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:21:00</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:22:02</t>
+    <t>2017-02-22 07:24:13</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:26:24</t>
   </si>
   <si>
     <t>caecbd1a-762b-4d6c-9bdc-a95694b5cd75.106929efe8a9e37a0ef17725c2d060f7d5fd3da9.zh-cn.xlf</t>
@@ -193,16 +190,16 @@
     <t>2017-02-22 07:15:23</t>
   </si>
   <si>
+    <t>16fc81cc-ca3f-40d6-a586-310219bfe4a1.3b6ded2007d599bb1b72f7e9895cf1fb5f24f654.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:22:25</t>
+  </si>
+  <si>
     <t>2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.0ab47c41403deae33a8b4ba2e6cd75f3c7bfea3a.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-22 07:25:33</t>
-  </si>
-  <si>
-    <t>16fc81cc-ca3f-40d6-a586-310219bfe4a1.3b6ded2007d599bb1b72f7e9895cf1fb5f24f654.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:22:25</t>
+    <t>2017-02-22 07:26:47</t>
   </si>
   <si>
     <t>caecbd1a-762b-4d6c-9bdc-a95694b5cd75.106929efe8a9e37a0ef17725c2d060f7d5fd3da9.de-de.xlf</t>
@@ -352,8 +349,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
-    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
+    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
+    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -411,79 +408,79 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\16fc81cc-ca3f-40d6-a586-310219bfe4a1.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\16fc81cc-ca3f-40d6-a586-310219bfe4a1.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\ae5b240b-5816-4f77-b500-000566d7f524.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\caecbd1a-762b-4d6c-9bdc-a95694b5cd75.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\d0b52731-0d40-42e9-98a0-dfa3a69338e2.md" r:id="rId6"/>
@@ -505,7 +502,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -525,58 +522,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -590,49 +587,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -643,228 +640,228 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>43</v>
-      </c>
       <c r="F3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="H3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="16fc81cc-ca3f-40d6-a586-310219bfe4a1.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="16fc81cc-ca3f-40d6-a586-310219bfe4a1.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="16fc81cc-ca3f-40d6-a586-310219bfe4a1.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="16fc81cc-ca3f-40d6-a586-310219bfe4a1.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md" r:id="rId5"/>
     <hyperlink ref="A4" display="ae5b240b-5816-4f77-b500-000566d7f524.md" r:id="rId6"/>
     <hyperlink ref="J4" display="ae5b240b-5816-4f77-b500-000566d7f524.md" r:id="rId7"/>
     <hyperlink ref="A5" display="caecbd1a-762b-4d6c-9bdc-a95694b5cd75.md" r:id="rId8"/>
@@ -889,7 +886,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -909,58 +906,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>40</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -974,49 +971,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3">
@@ -1027,228 +1024,228 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="M3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="0" t="s">
+      <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>44</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="16fc81cc-ca3f-40d6-a586-310219bfe4a1.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="16fc81cc-ca3f-40d6-a586-310219bfe4a1.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="16fc81cc-ca3f-40d6-a586-310219bfe4a1.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="16fc81cc-ca3f-40d6-a586-310219bfe4a1.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md" r:id="rId5"/>
     <hyperlink ref="A4" display="ae5b240b-5816-4f77-b500-000566d7f524.md" r:id="rId6"/>
     <hyperlink ref="J4" display="ae5b240b-5816-4f77-b500-000566d7f524.md" r:id="rId7"/>
     <hyperlink ref="A5" display="caecbd1a-762b-4d6c-9bdc-a95694b5cd75.md" r:id="rId8"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="123">
   <si>
     <t>File Name</t>
   </si>
@@ -67,196 +67,199 @@
     <t>e2e\0bab64fb-e66b-4397-a6e7-b2f2774b6909.md</t>
   </si>
   <si>
+    <t>2017-02-22 07:42:19</t>
+  </si>
+  <si>
+    <t>16fc81cc-ca3f-40d6-a586-310219bfe4a1.md</t>
+  </si>
+  <si>
+    <t>e2e\16fc81cc-ca3f-40d6-a586-310219bfe4a1.md</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:21:19</t>
+  </si>
+  <si>
+    <t>1aa41d74-8e78-414f-ad57-82a8834a3aea.md</t>
+  </si>
+  <si>
+    <t>e2e\1aa41d74-8e78-414f-ad57-82a8834a3aea.md</t>
+  </si>
+  <si>
     <t>N\A</t>
   </si>
   <si>
+    <t>2017-02-22 07:37:18</t>
+  </si>
+  <si>
+    <t>1cb27d6d-33e2-4b37-a529-6b8fd5026645.md</t>
+  </si>
+  <si>
+    <t>e2e\1cb27d6d-33e2-4b37-a529-6b8fd5026645.md</t>
+  </si>
+  <si>
+    <t>2b769947-7e2d-4824-8ed8-16a53160e34d.md</t>
+  </si>
+  <si>
+    <t>e2e\2b769947-7e2d-4824-8ed8-16a53160e34d.md</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:28:55</t>
+  </si>
+  <si>
+    <t>2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md</t>
+  </si>
+  <si>
+    <t>e2e\2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:24:30</t>
+  </si>
+  <si>
+    <t>3192bb11-7409-45dc-960d-9121a9861a80.md</t>
+  </si>
+  <si>
+    <t>e2e\3192bb11-7409-45dc-960d-9121a9861a80.md</t>
+  </si>
+  <si>
+    <t>3e874e57-5052-41d5-801a-1ee75ca18150.md</t>
+  </si>
+  <si>
+    <t>e2e\3e874e57-5052-41d5-801a-1ee75ca18150.md</t>
+  </si>
+  <si>
+    <t>ae5b240b-5816-4f77-b500-000566d7f524.md</t>
+  </si>
+  <si>
+    <t>e2e\ae5b240b-5816-4f77-b500-000566d7f524.md</t>
+  </si>
+  <si>
+    <t>caecbd1a-762b-4d6c-9bdc-a95694b5cd75.md</t>
+  </si>
+  <si>
+    <t>e2e\caecbd1a-762b-4d6c-9bdc-a95694b5cd75.md</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:19:04</t>
+  </si>
+  <si>
+    <t>d0b52731-0d40-42e9-98a0-dfa3a69338e2.md</t>
+  </si>
+  <si>
+    <t>e2e\d0b52731-0d40-42e9-98a0-dfa3a69338e2.md</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:14:36</t>
+  </si>
+  <si>
+    <t>da0b8aa8-872c-490b-9727-b7d0ea6c1842.md</t>
+  </si>
+  <si>
+    <t>e2e\da0b8aa8-872c-490b-9727-b7d0ea6c1842.md</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source Path</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Content Duplicate</t>
+  </si>
+  <si>
+    <t>Correspond Handoff File</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Name</t>
+  </si>
+  <si>
+    <t>Target File</t>
+  </si>
+  <si>
+    <t>Correspond Handback File</t>
+  </si>
+  <si>
+    <t>Correspond Handback DateTime</t>
+  </si>
+  <si>
+    <t>Correspond Handback Name</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>To be localized</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Has metadata</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>e2e</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>0057794c-2d5e-4ba2-9ca9-c50fbf760438.7a2badec0d6d5093239133edae4c3269210181db.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:34:57</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-22 07:36:00</t>
+  </si>
+  <si>
+    <t>Full_HB_2017022235</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>04af1623-36fc-459d-bb59-61cfa68d6e50.4c0bad7a531e789671259dc7d2eebf061d7d6c39.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:39:11</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:40:11</t>
+  </si>
+  <si>
+    <t>API_HB_2017022240</t>
+  </si>
+  <si>
+    <t>0bab64fb-e66b-4397-a6e7-b2f2774b6909.13baa1b4e457da90633e1476af96025836a529f2.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-02-22 07:42:00</t>
   </si>
   <si>
-    <t>16fc81cc-ca3f-40d6-a586-310219bfe4a1.md</t>
-  </si>
-  <si>
-    <t>e2e\16fc81cc-ca3f-40d6-a586-310219bfe4a1.md</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:21:19</t>
-  </si>
-  <si>
-    <t>1aa41d74-8e78-414f-ad57-82a8834a3aea.md</t>
-  </si>
-  <si>
-    <t>e2e\1aa41d74-8e78-414f-ad57-82a8834a3aea.md</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:37:18</t>
-  </si>
-  <si>
-    <t>1cb27d6d-33e2-4b37-a529-6b8fd5026645.md</t>
-  </si>
-  <si>
-    <t>e2e\1cb27d6d-33e2-4b37-a529-6b8fd5026645.md</t>
-  </si>
-  <si>
-    <t>2b769947-7e2d-4824-8ed8-16a53160e34d.md</t>
-  </si>
-  <si>
-    <t>e2e\2b769947-7e2d-4824-8ed8-16a53160e34d.md</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:28:55</t>
-  </si>
-  <si>
-    <t>2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md</t>
-  </si>
-  <si>
-    <t>e2e\2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:24:30</t>
-  </si>
-  <si>
-    <t>3192bb11-7409-45dc-960d-9121a9861a80.md</t>
-  </si>
-  <si>
-    <t>e2e\3192bb11-7409-45dc-960d-9121a9861a80.md</t>
-  </si>
-  <si>
-    <t>3e874e57-5052-41d5-801a-1ee75ca18150.md</t>
-  </si>
-  <si>
-    <t>e2e\3e874e57-5052-41d5-801a-1ee75ca18150.md</t>
-  </si>
-  <si>
-    <t>ae5b240b-5816-4f77-b500-000566d7f524.md</t>
-  </si>
-  <si>
-    <t>e2e\ae5b240b-5816-4f77-b500-000566d7f524.md</t>
-  </si>
-  <si>
-    <t>caecbd1a-762b-4d6c-9bdc-a95694b5cd75.md</t>
-  </si>
-  <si>
-    <t>e2e\caecbd1a-762b-4d6c-9bdc-a95694b5cd75.md</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:19:04</t>
-  </si>
-  <si>
-    <t>d0b52731-0d40-42e9-98a0-dfa3a69338e2.md</t>
-  </si>
-  <si>
-    <t>e2e\d0b52731-0d40-42e9-98a0-dfa3a69338e2.md</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:14:36</t>
-  </si>
-  <si>
-    <t>da0b8aa8-872c-490b-9727-b7d0ea6c1842.md</t>
-  </si>
-  <si>
-    <t>e2e\da0b8aa8-872c-490b-9727-b7d0ea6c1842.md</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source Path</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Content Duplicate</t>
-  </si>
-  <si>
-    <t>Correspond Handoff File</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Name</t>
-  </si>
-  <si>
-    <t>Target File</t>
-  </si>
-  <si>
-    <t>Correspond Handback File</t>
-  </si>
-  <si>
-    <t>Correspond Handback DateTime</t>
-  </si>
-  <si>
-    <t>Correspond Handback Name</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>To be localized</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Has metadata</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>e2e</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>0057794c-2d5e-4ba2-9ca9-c50fbf760438.7a2badec0d6d5093239133edae4c3269210181db.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:34:57</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-02-22 07:36:00</t>
-  </si>
-  <si>
-    <t>Full_HB_2017022235</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>04af1623-36fc-459d-bb59-61cfa68d6e50.4c0bad7a531e789671259dc7d2eebf061d7d6c39.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:39:11</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:40:11</t>
-  </si>
-  <si>
-    <t>API_HB_2017022240</t>
-  </si>
-  <si>
-    <t>0bab64fb-e66b-4397-a6e7-b2f2774b6909.13baa1b4e457da90633e1476af96025836a529f2.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>2017-02-22 07:43:01</t>
   </si>
   <si>
-    <t>API_HB1_2017022242</t>
+    <t>API_HB2_2017022243</t>
   </si>
   <si>
     <t>16fc81cc-ca3f-40d6-a586-310219bfe4a1.3b6ded2007d599bb1b72f7e9895cf1fb5f24f654.zh-cn.xlf</t>
@@ -337,10 +340,19 @@
     <t>2017-02-22 07:40:33</t>
   </si>
   <si>
+    <t>0bab64fb-e66b-4397-a6e7-b2f2774b6909.13baa1b4e457da90633e1476af96025836a529f2.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:43:49</t>
+  </si>
+  <si>
     <t>16fc81cc-ca3f-40d6-a586-310219bfe4a1.3b6ded2007d599bb1b72f7e9895cf1fb5f24f654.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-22 07:22:25</t>
+  </si>
+  <si>
+    <t>1cb27d6d-33e2-4b37-a529-6b8fd5026645.9cd24248a9f010465217e99fd586d4550e0dd9c4.de-de.xlf</t>
   </si>
   <si>
     <t>2b769947-7e2d-4824-8ed8-16a53160e34d.067a5537f59d264ab09af34f75dec20d21d06f91.de-de.xlf</t>
@@ -454,8 +466,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R11" headerRowCount="1">
-  <autoFilter ref="A1:R11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R13" headerRowCount="1">
+  <autoFilter ref="A1:R13"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -590,47 +602,47 @@
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>23</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>17</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>24</v>
@@ -650,10 +662,10 @@
         <v>10</v>
       </c>
       <c r="F7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="8">
@@ -730,7 +742,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="G11" s="2" t="s">
         <v>24</v>
@@ -753,7 +765,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
@@ -1059,7 +1071,7 @@
         <v>78</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>70</v>
@@ -1071,10 +1083,10 @@
         <v>78</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>70</v>
@@ -1094,7 +1106,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1112,22 +1124,22 @@
         <v>73</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>81</v>
-      </c>
       <c r="L5" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>70</v>
@@ -1150,7 +1162,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1168,7 +1180,7 @@
         <v>73</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>24</v>
@@ -1177,16 +1189,16 @@
         <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>70</v>
@@ -1224,10 +1236,10 @@
         <v>73</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>18</v>
+        <v>79</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>70</v>
@@ -1236,13 +1248,13 @@
         <v>25</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>70</v>
@@ -1280,10 +1292,10 @@
         <v>73</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>70</v>
@@ -1292,10 +1304,10 @@
         <v>27</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>70</v>
@@ -1336,10 +1348,10 @@
         <v>73</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>70</v>
@@ -1348,10 +1360,10 @@
         <v>30</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M9" s="0" t="s">
         <v>70</v>
@@ -1392,7 +1404,7 @@
         <v>73</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>69</v>
@@ -1404,7 +1416,7 @@
         <v>33</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="L10" s="2" t="s">
         <v>71</v>
@@ -1448,7 +1460,7 @@
         <v>73</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>24</v>
@@ -1460,13 +1472,13 @@
         <v>35</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="N11" s="0" t="s">
         <v>70</v>
@@ -1504,10 +1516,10 @@
         <v>73</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I12" s="0" t="s">
         <v>70</v>
@@ -1516,10 +1528,10 @@
         <v>37</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M12" s="0" t="s">
         <v>70</v>
@@ -1560,10 +1572,10 @@
         <v>73</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="I13" s="0" t="s">
         <v>70</v>
@@ -1572,10 +1584,10 @@
         <v>39</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="M13" s="0" t="s">
         <v>70</v>
@@ -1616,10 +1628,10 @@
         <v>73</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="I14" s="0" t="s">
         <v>70</v>
@@ -1628,10 +1640,10 @@
         <v>42</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L14" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="M14" s="0" t="s">
         <v>70</v>
@@ -1672,7 +1684,7 @@
         <v>73</v>
       </c>
       <c r="G15" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>75</v>
@@ -1684,7 +1696,7 @@
         <v>45</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="L15" s="2" t="s">
         <v>76</v>
@@ -1748,7 +1760,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1850,7 +1862,7 @@
         <v>67</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
@@ -1862,10 +1874,10 @@
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="M2" s="0" t="s">
         <v>72</v>
@@ -1906,7 +1918,7 @@
         <v>73</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
@@ -1918,10 +1930,10 @@
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M3" s="0" t="s">
         <v>77</v>
@@ -1944,7 +1956,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1962,25 +1974,25 @@
         <v>73</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="N4" s="0" t="s">
         <v>70</v>
@@ -2000,7 +2012,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -2018,22 +2030,22 @@
         <v>73</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="I5" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="M5" s="0" t="s">
         <v>70</v>
@@ -2056,7 +2068,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -2074,25 +2086,25 @@
         <v>73</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="I6" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="N6" s="0" t="s">
         <v>70</v>
@@ -2112,7 +2124,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -2133,22 +2145,22 @@
         <v>113</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="I7" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="K7" s="0" t="s">
         <v>113</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="N7" s="0" t="s">
         <v>70</v>
@@ -2168,7 +2180,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -2186,22 +2198,22 @@
         <v>73</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="I8" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>107</v>
+        <v>115</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="M8" s="0" t="s">
         <v>70</v>
@@ -2224,7 +2236,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -2242,25 +2254,25 @@
         <v>73</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="I9" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="N9" s="0" t="s">
         <v>70</v>
@@ -2280,7 +2292,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -2298,22 +2310,22 @@
         <v>73</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="I10" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="M10" s="0" t="s">
         <v>70</v>
@@ -2336,7 +2348,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -2357,36 +2369,148 @@
         <v>118</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>14</v>
+        <v>41</v>
       </c>
       <c r="I11" s="0" t="s">
         <v>70</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="K11" s="0" t="s">
         <v>118</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>106</v>
+        <v>119</v>
       </c>
       <c r="M11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="N11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O11" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="P11" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q11" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R11" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E12" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K12" s="0" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="N12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O12" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="P12" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q12" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R12" s="0" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B13" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="0" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="M13" s="0" t="s">
         <v>77</v>
       </c>
-      <c r="N11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="R11" s="0" t="s">
+      <c r="N13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="O13" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q13" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="R13" s="0" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2396,22 +2520,26 @@
     <hyperlink ref="J2" display="0057794c-2d5e-4ba2-9ca9-c50fbf760438.md" r:id="rId3"/>
     <hyperlink ref="A3" display="04af1623-36fc-459d-bb59-61cfa68d6e50.md" r:id="rId4"/>
     <hyperlink ref="J3" display="04af1623-36fc-459d-bb59-61cfa68d6e50.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="16fc81cc-ca3f-40d6-a586-310219bfe4a1.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="16fc81cc-ca3f-40d6-a586-310219bfe4a1.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="2b769947-7e2d-4824-8ed8-16a53160e34d.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="2b769947-7e2d-4824-8ed8-16a53160e34d.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="3192bb11-7409-45dc-960d-9121a9861a80.md" r:id="rId12"/>
-    <hyperlink ref="J7" display="3192bb11-7409-45dc-960d-9121a9861a80.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="ae5b240b-5816-4f77-b500-000566d7f524.md" r:id="rId14"/>
-    <hyperlink ref="J8" display="ae5b240b-5816-4f77-b500-000566d7f524.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="caecbd1a-762b-4d6c-9bdc-a95694b5cd75.md" r:id="rId16"/>
-    <hyperlink ref="J9" display="caecbd1a-762b-4d6c-9bdc-a95694b5cd75.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="d0b52731-0d40-42e9-98a0-dfa3a69338e2.md" r:id="rId18"/>
-    <hyperlink ref="J10" display="d0b52731-0d40-42e9-98a0-dfa3a69338e2.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="da0b8aa8-872c-490b-9727-b7d0ea6c1842.md" r:id="rId20"/>
-    <hyperlink ref="J11" display="da0b8aa8-872c-490b-9727-b7d0ea6c1842.md" r:id="rId21"/>
+    <hyperlink ref="A4" display="0bab64fb-e66b-4397-a6e7-b2f2774b6909.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="0bab64fb-e66b-4397-a6e7-b2f2774b6909.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="16fc81cc-ca3f-40d6-a586-310219bfe4a1.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="16fc81cc-ca3f-40d6-a586-310219bfe4a1.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="1cb27d6d-33e2-4b37-a529-6b8fd5026645.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="1cb27d6d-33e2-4b37-a529-6b8fd5026645.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="2b769947-7e2d-4824-8ed8-16a53160e34d.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="2b769947-7e2d-4824-8ed8-16a53160e34d.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="2c8b84e8-3712-4f99-9e9a-a0ebd1919bd8.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="3192bb11-7409-45dc-960d-9121a9861a80.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="3192bb11-7409-45dc-960d-9121a9861a80.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="ae5b240b-5816-4f77-b500-000566d7f524.md" r:id="rId18"/>
+    <hyperlink ref="J10" display="ae5b240b-5816-4f77-b500-000566d7f524.md" r:id="rId19"/>
+    <hyperlink ref="A11" display="caecbd1a-762b-4d6c-9bdc-a95694b5cd75.md" r:id="rId20"/>
+    <hyperlink ref="J11" display="caecbd1a-762b-4d6c-9bdc-a95694b5cd75.md" r:id="rId21"/>
+    <hyperlink ref="A12" display="d0b52731-0d40-42e9-98a0-dfa3a69338e2.md" r:id="rId22"/>
+    <hyperlink ref="J12" display="d0b52731-0d40-42e9-98a0-dfa3a69338e2.md" r:id="rId23"/>
+    <hyperlink ref="A13" display="da0b8aa8-872c-490b-9727-b7d0ea6c1842.md" r:id="rId24"/>
+    <hyperlink ref="J13" display="da0b8aa8-872c-490b-9727-b7d0ea6c1842.md" r:id="rId25"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-22 07:53:02</t>
+    <t>2017-02-22 07:55:11</t>
   </si>
   <si>
     <t>fff830a7644-6cdb-4b18-836b-2ae0b3e39183.md</t>
@@ -133,13 +133,13 @@
     <t>a671a2a4-e273-4156-a750-b38e82fe8628.46e48dc8e52fa934b1bf3ad9e1797a784d2c4b11.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-22 07:52:45</t>
+    <t>2017-02-22 07:54:52</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-22 07:53:42</t>
+    <t>2017-02-22 07:55:52</t>
   </si>
   <si>
     <t>True</t>
@@ -157,7 +157,7 @@
     <t>a671a2a4-e273-4156-a750-b38e82fe8628.46e48dc8e52fa934b1bf3ad9e1797a784d2c4b11.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-22 07:54:06</t>
+    <t>2017-02-22 07:56:16</t>
   </si>
   <si>
     <t>2f53bac2-edd1-4225-bb99-0580987f80b5.195f8633f6b48e9107b1c824c21c8e9b7e59076f.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-22 07:55:11</t>
+    <t>2017-02-22 07:57:20</t>
   </si>
   <si>
     <t>fff830a7644-6cdb-4b18-836b-2ae0b3e39183.md</t>
@@ -133,13 +133,13 @@
     <t>a671a2a4-e273-4156-a750-b38e82fe8628.46e48dc8e52fa934b1bf3ad9e1797a784d2c4b11.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-22 07:54:52</t>
+    <t>2017-02-22 07:57:01</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-22 07:55:52</t>
+    <t>2017-02-22 07:57:56</t>
   </si>
   <si>
     <t>True</t>
@@ -157,7 +157,7 @@
     <t>a671a2a4-e273-4156-a750-b38e82fe8628.46e48dc8e52fa934b1bf3ad9e1797a784d2c4b11.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-22 07:56:16</t>
+    <t>2017-02-22 07:58:19</t>
   </si>
   <si>
     <t>2f53bac2-edd1-4225-bb99-0580987f80b5.195f8633f6b48e9107b1c824c21c8e9b7e59076f.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>a671a2a4-e273-4156-a750-b38e82fe8628.md</t>
-  </si>
-  <si>
-    <t>e2e\a671a2a4-e273-4156-a750-b38e82fe8628.md</t>
+    <t>31b004f3-b29d-48ab-b148-96681f028880.md</t>
+  </si>
+  <si>
+    <t>e2e\31b004f3-b29d-48ab-b148-96681f028880.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,22 +49,13 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-22 07:57:20</t>
-  </si>
-  <si>
-    <t>fff830a7644-6cdb-4b18-836b-2ae0b3e39183.md</t>
-  </si>
-  <si>
-    <t>e2e\fff830a7644-6cdb-4b18-836b-2ae0b3e39183.md</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:50:17</t>
-  </si>
-  <si>
-    <t>fffff146b2521-9a2a-4040-8c12-1d6981c6ec67.md</t>
-  </si>
-  <si>
-    <t>e2e\fffff146b2521-9a2a-4040-8c12-1d6981c6ec67.md</t>
+    <t>2017-02-22 07:59:27</t>
+  </si>
+  <si>
+    <t>999a2b88-61e8-47b5-948e-4a06c918b5fc.md</t>
+  </si>
+  <si>
+    <t>e2e\999a2b88-61e8-47b5-948e-4a06c918b5fc.md</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -130,40 +121,31 @@
     <t>False</t>
   </si>
   <si>
-    <t>a671a2a4-e273-4156-a750-b38e82fe8628.46e48dc8e52fa934b1bf3ad9e1797a784d2c4b11.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:57:01</t>
+    <t>31b004f3-b29d-48ab-b148-96681f028880.4e435c63f11db5f72326a8b0be1f2154c2db43d9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 07:59:08</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-22 07:57:56</t>
+    <t>2017-02-22 08:00:11</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>2f53bac2-edd1-4225-bb99-0580987f80b5.195f8633f6b48e9107b1c824c21c8e9b7e59076f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:50:00</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:50:57</t>
-  </si>
-  <si>
-    <t>a671a2a4-e273-4156-a750-b38e82fe8628.46e48dc8e52fa934b1bf3ad9e1797a784d2c4b11.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:58:19</t>
-  </si>
-  <si>
-    <t>2f53bac2-edd1-4225-bb99-0580987f80b5.195f8633f6b48e9107b1c824c21c8e9b7e59076f.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:51:20</t>
+    <t>999a2b88-61e8-47b5-948e-4a06c918b5fc.a836f3a78740c91b88deba8a61228b8973b01eab.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>31b004f3-b29d-48ab-b148-96681f028880.4e435c63f11db5f72326a8b0be1f2154c2db43d9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:00:34</t>
+  </si>
+  <si>
+    <t>999a2b88-61e8-47b5-948e-4a06c918b5fc.a836f3a78740c91b88deba8a61228b8973b01eab.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -220,8 +202,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -247,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -274,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -291,7 +273,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,34 +348,13 @@
         <v>10</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\a671a2a4-e273-4156-a750-b38e82fe8628.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\fff830a7644-6cdb-4b18-836b-2ae0b3e39183.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\fffff146b2521-9a2a-4040-8c12-1d6981c6ec67.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\31b004f3-b29d-48ab-b148-96681f028880.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\999a2b88-61e8-47b5-948e-4a06c918b5fc.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -404,7 +365,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -432,58 +393,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -497,49 +458,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -553,115 +514,57 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a671a2a4-e273-4156-a750-b38e82fe8628.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a671a2a4-e273-4156-a750-b38e82fe8628.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fff830a7644-6cdb-4b18-836b-2ae0b3e39183.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="fff830a7644-6cdb-4b18-836b-2ae0b3e39183.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="fffff146b2521-9a2a-4040-8c12-1d6981c6ec67.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="fffff146b2521-9a2a-4040-8c12-1d6981c6ec67.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="31b004f3-b29d-48ab-b148-96681f028880.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="31b004f3-b29d-48ab-b148-96681f028880.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="999a2b88-61e8-47b5-948e-4a06c918b5fc.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="999a2b88-61e8-47b5-948e-4a06c918b5fc.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -672,7 +575,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -700,58 +603,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>31</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2">
@@ -765,49 +668,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
@@ -821,115 +724,57 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="a671a2a4-e273-4156-a750-b38e82fe8628.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="a671a2a4-e273-4156-a750-b38e82fe8628.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="fff830a7644-6cdb-4b18-836b-2ae0b3e39183.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="fff830a7644-6cdb-4b18-836b-2ae0b3e39183.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="fffff146b2521-9a2a-4040-8c12-1d6981c6ec67.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="fffff146b2521-9a2a-4040-8c12-1d6981c6ec67.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="31b004f3-b29d-48ab-b148-96681f028880.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="31b004f3-b29d-48ab-b148-96681f028880.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="999a2b88-61e8-47b5-948e-4a06c918b5fc.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="999a2b88-61e8-47b5-948e-4a06c918b5fc.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>31b004f3-b29d-48ab-b148-96681f028880.md</t>
-  </si>
-  <si>
-    <t>e2e\31b004f3-b29d-48ab-b148-96681f028880.md</t>
+    <t>6a3e3c7a-0b83-4cd7-96d6-7e265f753887.md</t>
+  </si>
+  <si>
+    <t>e2e\6a3e3c7a-0b83-4cd7-96d6-7e265f753887.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,13 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-22 07:59:27</t>
-  </si>
-  <si>
-    <t>999a2b88-61e8-47b5-948e-4a06c918b5fc.md</t>
-  </si>
-  <si>
-    <t>e2e\999a2b88-61e8-47b5-948e-4a06c918b5fc.md</t>
+    <t>2017-02-22 08:06:05</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -121,31 +115,25 @@
     <t>False</t>
   </si>
   <si>
-    <t>31b004f3-b29d-48ab-b148-96681f028880.4e435c63f11db5f72326a8b0be1f2154c2db43d9.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-22 07:59:08</t>
+    <t>6a3e3c7a-0b83-4cd7-96d6-7e265f753887.ad133e79922ac0bd4e76efe00582ddfac48f0477.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:05:48</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-22 08:00:11</t>
+    <t>2017-02-22 08:06:50</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>999a2b88-61e8-47b5-948e-4a06c918b5fc.a836f3a78740c91b88deba8a61228b8973b01eab.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>31b004f3-b29d-48ab-b148-96681f028880.4e435c63f11db5f72326a8b0be1f2154c2db43d9.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-22 08:00:34</t>
-  </si>
-  <si>
-    <t>999a2b88-61e8-47b5-948e-4a06c918b5fc.a836f3a78740c91b88deba8a61228b8973b01eab.de-de.xlf</t>
+    <t>6a3e3c7a-0b83-4cd7-96d6-7e265f753887.ad133e79922ac0bd4e76efe00582ddfac48f0477.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:07:14</t>
   </si>
 </sst>
 </file>
@@ -202,8 +190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -229,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -256,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -273,7 +261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -331,30 +319,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\31b004f3-b29d-48ab-b148-96681f028880.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\999a2b88-61e8-47b5-948e-4a06c918b5fc.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\6a3e3c7a-0b83-4cd7-96d6-7e265f753887.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -365,7 +332,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,58 +360,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -458,113 +425,55 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="31b004f3-b29d-48ab-b148-96681f028880.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="31b004f3-b29d-48ab-b148-96681f028880.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="999a2b88-61e8-47b5-948e-4a06c918b5fc.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="999a2b88-61e8-47b5-948e-4a06c918b5fc.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="6a3e3c7a-0b83-4cd7-96d6-7e265f753887.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="6a3e3c7a-0b83-4cd7-96d6-7e265f753887.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -575,7 +484,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -603,58 +512,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="2">
@@ -668,113 +577,55 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="31b004f3-b29d-48ab-b148-96681f028880.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="31b004f3-b29d-48ab-b148-96681f028880.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="999a2b88-61e8-47b5-948e-4a06c918b5fc.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="999a2b88-61e8-47b5-948e-4a06c918b5fc.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="6a3e3c7a-0b83-4cd7-96d6-7e265f753887.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="6a3e3c7a-0b83-4cd7-96d6-7e265f753887.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="46">
   <si>
     <t>File Name</t>
   </si>
@@ -37,10 +37,10 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>6a3e3c7a-0b83-4cd7-96d6-7e265f753887.md</t>
-  </si>
-  <si>
-    <t>e2e\6a3e3c7a-0b83-4cd7-96d6-7e265f753887.md</t>
+    <t>394f5f92-4d17-412b-9a95-8ec02401e8b6.md</t>
+  </si>
+  <si>
+    <t>e2e\394f5f92-4d17-412b-9a95-8ec02401e8b6.md</t>
   </si>
   <si>
     <t>.md</t>
@@ -49,7 +49,16 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-22 08:06:05</t>
+    <t>2017-02-22 08:12:58</t>
+  </si>
+  <si>
+    <t>72c395e6-9144-4ba3-b08c-349fbec5caba.md</t>
+  </si>
+  <si>
+    <t>e2e\72c395e6-9144-4ba3-b08c-349fbec5caba.md</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:11:55</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -115,25 +124,34 @@
     <t>False</t>
   </si>
   <si>
-    <t>6a3e3c7a-0b83-4cd7-96d6-7e265f753887.ad133e79922ac0bd4e76efe00582ddfac48f0477.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-22 08:05:48</t>
+    <t>394f5f92-4d17-412b-9a95-8ec02401e8b6.3aac7d2951b34f7bec036f30e1e7803e93cf4bc3.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:12:42</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-22 08:06:50</t>
+    <t>2017-02-22 08:13:40</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>6a3e3c7a-0b83-4cd7-96d6-7e265f753887.ad133e79922ac0bd4e76efe00582ddfac48f0477.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-22 08:07:14</t>
+    <t>72c395e6-9144-4ba3-b08c-349fbec5caba.a7423c7070be7a650b7ab8cb5a4a4de1ad69bd74.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:11:37</t>
+  </si>
+  <si>
+    <t>394f5f92-4d17-412b-9a95-8ec02401e8b6.3aac7d2951b34f7bec036f30e1e7803e93cf4bc3.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:14:03</t>
+  </si>
+  <si>
+    <t>72c395e6-9144-4ba3-b08c-349fbec5caba.a7423c7070be7a650b7ab8cb5a4a4de1ad69bd74.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -190,8 +208,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -217,8 +235,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
-  <autoFilter ref="A1:R2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +262,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
-  <autoFilter ref="A1:G2"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -261,7 +279,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -319,9 +337,30 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\6a3e3c7a-0b83-4cd7-96d6-7e265f753887.md" r:id="rId2"/>
+    <hyperlink ref="B2" display="e2e\394f5f92-4d17-412b-9a95-8ec02401e8b6.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\72c395e6-9144-4ba3-b08c-349fbec5caba.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -332,7 +371,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -360,58 +399,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -425,55 +464,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="0" t="s">
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="R3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="6a3e3c7a-0b83-4cd7-96d6-7e265f753887.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="6a3e3c7a-0b83-4cd7-96d6-7e265f753887.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="394f5f92-4d17-412b-9a95-8ec02401e8b6.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="394f5f92-4d17-412b-9a95-8ec02401e8b6.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="72c395e6-9144-4ba3-b08c-349fbec5caba.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="72c395e6-9144-4ba3-b08c-349fbec5caba.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -484,7 +581,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R2"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -512,58 +609,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2">
@@ -577,55 +674,113 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="R2" s="0" t="s">
-        <v>35</v>
+      <c r="R3" s="0" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="6a3e3c7a-0b83-4cd7-96d6-7e265f753887.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="6a3e3c7a-0b83-4cd7-96d6-7e265f753887.md" r:id="rId3"/>
+    <hyperlink ref="A2" display="394f5f92-4d17-412b-9a95-8ec02401e8b6.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="394f5f92-4d17-412b-9a95-8ec02401e8b6.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="72c395e6-9144-4ba3-b08c-349fbec5caba.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="72c395e6-9144-4ba3-b08c-349fbec5caba.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
   <si>
     <t>File Name</t>
   </si>
@@ -46,16 +46,22 @@
     <t>.md</t>
   </si>
   <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:17:31</t>
+  </si>
+  <si>
+    <t>26dc01cb-1462-491f-a680-e2068927e702.md</t>
+  </si>
+  <si>
+    <t>e2e\26dc01cb-1462-491f-a680-e2068927e702.md</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-22 08:17:31</t>
-  </si>
-  <si>
-    <t>26dc01cb-1462-491f-a680-e2068927e702.md</t>
-  </si>
-  <si>
-    <t>e2e\26dc01cb-1462-491f-a680-e2068927e702.md</t>
+    <t>2017-02-22 08:19:30</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -139,6 +145,12 @@
     <t>26dc01cb-1462-491f-a680-e2068927e702.ab9e04c3558b90d09c9bcdc6b94ddfd2b2c5f27f.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-22 08:19:13</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:20:14</t>
+  </si>
+  <si>
     <t>1f748b26-4439-446f-81bc-0460abe0e5ff.763998afd2a946784bfe752e27439bf8fd7431a7.de-de.xlf</t>
   </si>
   <si>
@@ -146,6 +158,9 @@
   </si>
   <si>
     <t>26dc01cb-1462-491f-a680-e2068927e702.ab9e04c3558b90d09c9bcdc6b94ddfd2b2c5f27f.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:20:35</t>
   </si>
 </sst>
 </file>
@@ -283,8 +298,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -342,13 +357,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -373,7 +388,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -393,58 +408,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -458,49 +473,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -511,52 +526,52 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -583,7 +598,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -603,58 +618,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2">
@@ -668,49 +683,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="O2" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3">
@@ -721,52 +736,52 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>File Name</t>
   </si>
@@ -52,15 +52,24 @@
     <t>2017-02-22 08:17:31</t>
   </si>
   <si>
+    <t>1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md</t>
+  </si>
+  <si>
+    <t>e2e\1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:21:31</t>
+  </si>
+  <si>
     <t>26dc01cb-1462-491f-a680-e2068927e702.md</t>
   </si>
   <si>
     <t>e2e\26dc01cb-1462-491f-a680-e2068927e702.md</t>
   </si>
   <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-22 08:19:30</t>
   </si>
   <si>
@@ -142,6 +151,15 @@
     <t>True</t>
   </si>
   <si>
+    <t>1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.706654a496b3625da09e08732d0552e1cb3bb2ba.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:21:14</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:22:14</t>
+  </si>
+  <si>
     <t>26dc01cb-1462-491f-a680-e2068927e702.ab9e04c3558b90d09c9bcdc6b94ddfd2b2c5f27f.zh-cn.xlf</t>
   </si>
   <si>
@@ -155,6 +173,12 @@
   </si>
   <si>
     <t>2017-02-22 08:18:34</t>
+  </si>
+  <si>
+    <t>1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.706654a496b3625da09e08732d0552e1cb3bb2ba.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:22:37</t>
   </si>
   <si>
     <t>26dc01cb-1462-491f-a680-e2068927e702.ab9e04c3558b90d09c9bcdc6b94ddfd2b2c5f27f.de-de.xlf</t>
@@ -217,8 +241,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -244,8 +268,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -271,8 +295,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -288,7 +312,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,10 +390,31 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId3"/>
+    <hyperlink ref="B3" display="e2e\1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -380,7 +425,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -408,58 +453,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -473,49 +518,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -529,57 +574,115 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId2"/>
     <hyperlink ref="J2" display="1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -590,7 +693,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -618,58 +721,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2">
@@ -683,49 +786,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>36</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3">
@@ -739,57 +842,115 @@
         <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="N3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>39</v>
+      <c r="R4" s="0" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId2"/>
     <hyperlink ref="J2" display="1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId5"/>
+    <hyperlink ref="A3" display="1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -37,39 +37,39 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md</t>
+  </si>
+  <si>
+    <t>e2e\1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:23:37</t>
+  </si>
+  <si>
     <t>1f748b26-4439-446f-81bc-0460abe0e5ff.md</t>
   </si>
   <si>
     <t>e2e\1f748b26-4439-446f-81bc-0460abe0e5ff.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-22 08:17:31</t>
   </si>
   <si>
-    <t>1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md</t>
-  </si>
-  <si>
-    <t>e2e\1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md</t>
+    <t>26dc01cb-1462-491f-a680-e2068927e702.md</t>
+  </si>
+  <si>
+    <t>e2e\26dc01cb-1462-491f-a680-e2068927e702.md</t>
   </si>
   <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-22 08:21:31</t>
-  </si>
-  <si>
-    <t>26dc01cb-1462-491f-a680-e2068927e702.md</t>
-  </si>
-  <si>
-    <t>e2e\26dc01cb-1462-491f-a680-e2068927e702.md</t>
-  </si>
-  <si>
     <t>2017-02-22 08:19:30</t>
   </si>
   <si>
@@ -136,30 +136,30 @@
     <t>False</t>
   </si>
   <si>
+    <t>1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.706654a496b3625da09e08732d0552e1cb3bb2ba.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:23:19</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-22 08:25:08</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
     <t>1f748b26-4439-446f-81bc-0460abe0e5ff.763998afd2a946784bfe752e27439bf8fd7431a7.zh-cn.xlf</t>
   </si>
   <si>
     <t>2017-02-22 08:17:15</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>2017-02-22 08:18:12</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.706654a496b3625da09e08732d0552e1cb3bb2ba.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-22 08:21:14</t>
-  </si>
-  <si>
-    <t>2017-02-22 08:22:14</t>
-  </si>
-  <si>
     <t>26dc01cb-1462-491f-a680-e2068927e702.ab9e04c3558b90d09c9bcdc6b94ddfd2b2c5f27f.zh-cn.xlf</t>
   </si>
   <si>
@@ -169,16 +169,16 @@
     <t>2017-02-22 08:20:14</t>
   </si>
   <si>
+    <t>1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.706654a496b3625da09e08732d0552e1cb3bb2ba.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:25:30</t>
+  </si>
+  <si>
     <t>1f748b26-4439-446f-81bc-0460abe0e5ff.763998afd2a946784bfe752e27439bf8fd7431a7.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-22 08:18:34</t>
-  </si>
-  <si>
-    <t>1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.706654a496b3625da09e08732d0552e1cb3bb2ba.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-22 08:22:37</t>
   </si>
   <si>
     <t>26dc01cb-1462-491f-a680-e2068927e702.ab9e04c3558b90d09c9bcdc6b94ddfd2b2c5f27f.de-de.xlf</t>
@@ -381,30 +381,30 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -412,8 +412,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
@@ -571,7 +571,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>37</v>
@@ -621,13 +621,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>37</v>
@@ -648,7 +648,7 @@
         <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>48</v>
@@ -677,10 +677,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId5"/>
     <hyperlink ref="A4" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId6"/>
     <hyperlink ref="J4" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId7"/>
   </hyperlinks>
@@ -839,7 +839,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>37</v>
@@ -854,7 +854,7 @@
         <v>53</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
         <v>42</v>
@@ -889,13 +889,13 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>37</v>
@@ -916,7 +916,7 @@
         <v>42</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>55</v>
@@ -945,10 +945,10 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId5"/>
     <hyperlink ref="A4" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId6"/>
     <hyperlink ref="J4" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId7"/>
   </hyperlinks>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>File Name</t>
   </si>
@@ -73,6 +73,15 @@
     <t>2017-02-22 08:19:30</t>
   </si>
   <si>
+    <t>517ad39b-9fcc-4839-9da2-da4ec69df8e6.md</t>
+  </si>
+  <si>
+    <t>e2e\517ad39b-9fcc-4839-9da2-da4ec69df8e6.md</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:26:31</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -169,6 +178,15 @@
     <t>2017-02-22 08:20:14</t>
   </si>
   <si>
+    <t>517ad39b-9fcc-4839-9da2-da4ec69df8e6.b354480c3ab030bef42963314777d4b2788f3626.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:26:15</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:27:13</t>
+  </si>
+  <si>
     <t>1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.706654a496b3625da09e08732d0552e1cb3bb2ba.de-de.xlf</t>
   </si>
   <si>
@@ -185,6 +203,12 @@
   </si>
   <si>
     <t>2017-02-22 08:20:35</t>
+  </si>
+  <si>
+    <t>517ad39b-9fcc-4839-9da2-da4ec69df8e6.b354480c3ab030bef42963314777d4b2788f3626.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:27:36</t>
   </si>
 </sst>
 </file>
@@ -241,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -268,8 +292,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
+  <autoFilter ref="A1:R5"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -295,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
+  <autoFilter ref="A1:G5"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -312,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -410,11 +434,32 @@
         <v>18</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\517ad39b-9fcc-4839-9da2-da4ec69df8e6.md" r:id="rId5"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -425,7 +470,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -453,58 +498,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -518,49 +563,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -574,49 +619,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -630,49 +675,105 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="R4" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>42</v>
+      <c r="R5" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -683,6 +784,8 @@
     <hyperlink ref="J3" display="1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId5"/>
     <hyperlink ref="A4" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId6"/>
     <hyperlink ref="J4" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="517ad39b-9fcc-4839-9da2-da4ec69df8e6.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="517ad39b-9fcc-4839-9da2-da4ec69df8e6.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -693,7 +796,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -721,58 +824,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="2">
@@ -786,49 +889,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="M2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3">
@@ -842,49 +945,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="M3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>39</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4">
@@ -898,49 +1001,105 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="M4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="N4" s="0" t="s">
+      <c r="R4" s="0" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>42</v>
+      <c r="R5" s="0" t="s">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -951,6 +1110,8 @@
     <hyperlink ref="J3" display="1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId5"/>
     <hyperlink ref="A4" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId6"/>
     <hyperlink ref="J4" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="517ad39b-9fcc-4839-9da2-da4ec69df8e6.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="517ad39b-9fcc-4839-9da2-da4ec69df8e6.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
   <si>
     <t>File Name</t>
   </si>
@@ -73,6 +73,15 @@
     <t>2017-02-22 08:19:30</t>
   </si>
   <si>
+    <t>3f6c4cdf-f33b-4285-b226-bdc363dca7a3.md</t>
+  </si>
+  <si>
+    <t>e2e\3f6c4cdf-f33b-4285-b226-bdc363dca7a3.md</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:29:15</t>
+  </si>
+  <si>
     <t>517ad39b-9fcc-4839-9da2-da4ec69df8e6.md</t>
   </si>
   <si>
@@ -82,6 +91,24 @@
     <t>2017-02-22 08:26:31</t>
   </si>
   <si>
+    <t>6fbd6a90-937e-4e1f-a43d-3dd70609275b.md</t>
+  </si>
+  <si>
+    <t>e2e\6fbd6a90-937e-4e1f-a43d-3dd70609275b.md</t>
+  </si>
+  <si>
+    <t>854a2908-44aa-4232-bca8-85710e433991.md</t>
+  </si>
+  <si>
+    <t>e2e\854a2908-44aa-4232-bca8-85710e433991.md</t>
+  </si>
+  <si>
+    <t>8e145b41-4e70-4123-aded-df4fefb45dc8.md</t>
+  </si>
+  <si>
+    <t>e2e\8e145b41-4e70-4123-aded-df4fefb45dc8.md</t>
+  </si>
+  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -178,6 +205,15 @@
     <t>2017-02-22 08:20:14</t>
   </si>
   <si>
+    <t>3f6c4cdf-f33b-4285-b226-bdc363dca7a3.7c0c5c10d5562671c466391d20bb903f28e43d5a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:28:58</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:30:42</t>
+  </si>
+  <si>
     <t>517ad39b-9fcc-4839-9da2-da4ec69df8e6.b354480c3ab030bef42963314777d4b2788f3626.zh-cn.xlf</t>
   </si>
   <si>
@@ -187,6 +223,15 @@
     <t>2017-02-22 08:27:13</t>
   </si>
   <si>
+    <t>6fbd6a90-937e-4e1f-a43d-3dd70609275b.d550dc88925bc9554a76628042e60e91040ff902.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>854a2908-44aa-4232-bca8-85710e433991.886e7ca9d2d5cf92f3ae496da63545dae1dc71f9.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>8e145b41-4e70-4123-aded-df4fefb45dc8.b6a6bd32744f3517ad9dd1a4c0b64e46e24f88b5.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.706654a496b3625da09e08732d0552e1cb3bb2ba.de-de.xlf</t>
   </si>
   <si>
@@ -205,10 +250,25 @@
     <t>2017-02-22 08:20:35</t>
   </si>
   <si>
+    <t>3f6c4cdf-f33b-4285-b226-bdc363dca7a3.7c0c5c10d5562671c466391d20bb903f28e43d5a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-22 08:31:05</t>
+  </si>
+  <si>
     <t>517ad39b-9fcc-4839-9da2-da4ec69df8e6.b354480c3ab030bef42963314777d4b2788f3626.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-22 08:27:36</t>
+  </si>
+  <si>
+    <t>6fbd6a90-937e-4e1f-a43d-3dd70609275b.d550dc88925bc9554a76628042e60e91040ff902.de-de.xlf</t>
+  </si>
+  <si>
+    <t>854a2908-44aa-4232-bca8-85710e433991.886e7ca9d2d5cf92f3ae496da63545dae1dc71f9.de-de.xlf</t>
+  </si>
+  <si>
+    <t>8e145b41-4e70-4123-aded-df4fefb45dc8.b6a6bd32744f3517ad9dd1a4c0b64e46e24f88b5.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -265,8 +325,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R5" headerRowCount="1">
-  <autoFilter ref="A1:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R9" headerRowCount="1">
+  <autoFilter ref="A1:R9"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -292,8 +352,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R5" headerRowCount="1">
-  <autoFilter ref="A1:R5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R9" headerRowCount="1">
+  <autoFilter ref="A1:R9"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -319,8 +379,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G5" headerRowCount="1">
-  <autoFilter ref="A1:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G9" headerRowCount="1">
+  <autoFilter ref="A1:G9"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -336,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,12 +514,96 @@
         <v>21</v>
       </c>
     </row>
+    <row r="6">
+      <c r="A6" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\1d3eb6dd-6952-4a28-b9c4-63947b8ebd7c.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\517ad39b-9fcc-4839-9da2-da4ec69df8e6.md" r:id="rId5"/>
+    <hyperlink ref="B5" display="e2e\3f6c4cdf-f33b-4285-b226-bdc363dca7a3.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\517ad39b-9fcc-4839-9da2-da4ec69df8e6.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\6fbd6a90-937e-4e1f-a43d-3dd70609275b.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\854a2908-44aa-4232-bca8-85710e433991.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\8e145b41-4e70-4123-aded-df4fefb45dc8.md" r:id="rId9"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -470,7 +614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -498,58 +642,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -563,49 +707,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -619,49 +763,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>59</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -675,49 +819,49 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>42</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -731,49 +875,273 @@
         <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -784,8 +1152,16 @@
     <hyperlink ref="J3" display="1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId5"/>
     <hyperlink ref="A4" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId6"/>
     <hyperlink ref="J4" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="517ad39b-9fcc-4839-9da2-da4ec69df8e6.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="517ad39b-9fcc-4839-9da2-da4ec69df8e6.md" r:id="rId9"/>
+    <hyperlink ref="A5" display="3f6c4cdf-f33b-4285-b226-bdc363dca7a3.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="3f6c4cdf-f33b-4285-b226-bdc363dca7a3.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="517ad39b-9fcc-4839-9da2-da4ec69df8e6.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="517ad39b-9fcc-4839-9da2-da4ec69df8e6.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="6fbd6a90-937e-4e1f-a43d-3dd70609275b.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="6fbd6a90-937e-4e1f-a43d-3dd70609275b.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="854a2908-44aa-4232-bca8-85710e433991.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="854a2908-44aa-4232-bca8-85710e433991.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="8e145b41-4e70-4123-aded-df4fefb45dc8.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="8e145b41-4e70-4123-aded-df4fefb45dc8.md" r:id="rId17"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -796,7 +1172,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R5"/>
+  <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -824,58 +1200,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>29</v>
+        <v>38</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>30</v>
+        <v>39</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2">
@@ -889,49 +1265,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3">
@@ -945,49 +1321,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4">
@@ -1001,49 +1377,49 @@
         <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
@@ -1057,49 +1433,273 @@
         <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>45</v>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R6" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B8" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R8" s="0" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="F9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="O9" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="P9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q9" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="R9" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1110,8 +1710,16 @@
     <hyperlink ref="J3" display="1f748b26-4439-446f-81bc-0460abe0e5ff.md" r:id="rId5"/>
     <hyperlink ref="A4" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId6"/>
     <hyperlink ref="J4" display="26dc01cb-1462-491f-a680-e2068927e702.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="517ad39b-9fcc-4839-9da2-da4ec69df8e6.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="517ad39b-9fcc-4839-9da2-da4ec69df8e6.md" r:id="rId9"/>
+    <hyperlink ref="A5" display="3f6c4cdf-f33b-4285-b226-bdc363dca7a3.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="3f6c4cdf-f33b-4285-b226-bdc363dca7a3.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="517ad39b-9fcc-4839-9da2-da4ec69df8e6.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="517ad39b-9fcc-4839-9da2-da4ec69df8e6.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="6fbd6a90-937e-4e1f-a43d-3dd70609275b.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="6fbd6a90-937e-4e1f-a43d-3dd70609275b.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="854a2908-44aa-4232-bca8-85710e433991.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="854a2908-44aa-4232-bca8-85710e433991.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="8e145b41-4e70-4123-aded-df4fefb45dc8.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="8e145b41-4e70-4123-aded-df4fefb45dc8.md" r:id="rId17"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-22 08:41:59</t>
+    <t>2017-02-22 08:44:07</t>
   </si>
   <si>
     <t>69777f57-745b-46c0-93a6-146988fa487e.md</t>
@@ -115,7 +115,7 @@
     <t>e2e</t>
   </si>
   <si>
-    <t>ht</t>
+    <t>mt</t>
   </si>
   <si>
     <t>False</t>
@@ -124,13 +124,13 @@
     <t>1d28012a-513d-4476-9e58-ba83aa7667f3.7f8d73581d18585a765489b0a1659768dcc991a5.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-22 08:41:41</t>
+    <t>2017-02-22 08:43:50</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-22 08:42:40</t>
+    <t>2017-02-22 08:44:49</t>
   </si>
   <si>
     <t>True</t>
@@ -142,7 +142,7 @@
     <t>1d28012a-513d-4476-9e58-ba83aa7667f3.7f8d73581d18585a765489b0a1659768dcc991a5.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-22 08:43:03</t>
+    <t>2017-02-22 08:45:13</t>
   </si>
   <si>
     <t>69777f57-745b-46c0-93a6-146988fa487e.32b377dce6d1fae369a18e42e965d0b259fc78b0.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>File Name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>zh-cn</t>
   </si>
   <si>
+    <t>de-de</t>
+  </si>
+  <si>
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
@@ -46,94 +49,106 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>2017-02-28 06:27:07</t>
+  </si>
+  <si>
+    <t>c9477b75-15cd-4cf2-bdd9-e2d0395f2fee.md</t>
+  </si>
+  <si>
+    <t>e2e\c9477b75-15cd-4cf2-bdd9-e2d0395f2fee.md</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source Path</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Content Duplicate</t>
+  </si>
+  <si>
+    <t>Correspond Handoff File</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Name</t>
+  </si>
+  <si>
+    <t>Target File</t>
+  </si>
+  <si>
+    <t>Correspond Handback File</t>
+  </si>
+  <si>
+    <t>Correspond Handback DateTime</t>
+  </si>
+  <si>
+    <t>Correspond Handback Name</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>To be localized</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Has metadata</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>e2e</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>a3d9d09a-9bfc-4db4-a855-1b84e4fdcaa1.925184443a9fb8fde62255af6b7344f5e6496aab.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-02-28 06:26:51</t>
   </si>
   <si>
-    <t>c9477b75-15cd-4cf2-bdd9-e2d0395f2fee.md</t>
-  </si>
-  <si>
-    <t>e2e\c9477b75-15cd-4cf2-bdd9-e2d0395f2fee.md</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source Path</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Content Duplicate</t>
-  </si>
-  <si>
-    <t>Correspond Handoff File</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Name</t>
-  </si>
-  <si>
-    <t>Target File</t>
-  </si>
-  <si>
-    <t>Correspond Handback File</t>
-  </si>
-  <si>
-    <t>Correspond Handback DateTime</t>
-  </si>
-  <si>
-    <t>Correspond Handback Name</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>To be localized</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Has metadata</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>e2e</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>a3d9d09a-9bfc-4db4-a855-1b84e4fdcaa1.925184443a9fb8fde62255af6b7344f5e6496aab.zh-cn.xlf</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>2017-02-28 06:27:46</t>
   </si>
   <si>
-    <t>API_HB1_2017022827</t>
+    <t>API_HB2_2017022828</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>c9477b75-15cd-4cf2-bdd9-e2d0395f2fee.822894cceafae19c466855add623667f1c33a085.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>a3d9d09a-9bfc-4db4-a855-1b84e4fdcaa1.925184443a9fb8fde62255af6b7344f5e6496aab.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 06:28:35</t>
+  </si>
+  <si>
+    <t>c9477b75-15cd-4cf2-bdd9-e2d0395f2fee.822894cceafae19c466855add623667f1c33a085.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -217,7 +232,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -243,15 +259,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:F3" headerRowCount="1">
-  <autoFilter ref="A1:F3"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
     <tableColumn id="3" name="Extension"/>
     <tableColumn id="4" name="Publish URL"/>
     <tableColumn id="5" name="zh-cn"/>
-    <tableColumn id="6" name="Latest HO Xliff Generate Date"/>
+    <tableColumn id="6" name="de-de"/>
+    <tableColumn id="7" name="Latest HO Xliff Generate Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -259,7 +276,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -270,7 +287,8 @@
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
     <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.5073743547712" customWidth="1"/>
+    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -292,39 +310,48 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -369,170 +396,170 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -551,89 +578,207 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6706946236747" customWidth="1"/>
-    <col min="2" max="2" width="13.4869144984654" customWidth="1"/>
-    <col min="3" max="3" width="6.86154392787388" customWidth="1"/>
-    <col min="4" max="4" width="11.9073017665318" customWidth="1"/>
-    <col min="5" max="5" width="7.86005565098354" customWidth="1"/>
-    <col min="6" max="6" width="17.306018284389" customWidth="1"/>
-    <col min="7" max="7" width="22.7937404087612" customWidth="1"/>
-    <col min="8" max="8" width="27.9131600516183" customWidth="1"/>
-    <col min="9" max="9" width="24.962637765067" customWidth="1"/>
-    <col min="10" max="10" width="10.6069859095982" customWidth="1"/>
-    <col min="11" max="11" width="24.398930140904" customWidth="1"/>
-    <col min="12" max="12" width="29.8467516217913" customWidth="1"/>
-    <col min="13" max="13" width="26.5678274972098" customWidth="1"/>
-    <col min="14" max="14" width="17.048205784389" customWidth="1"/>
-    <col min="15" max="15" width="14.4148352486747" customWidth="1"/>
-    <col min="16" max="16" width="17.4799390520368" customWidth="1"/>
-    <col min="17" max="17" width="13.6004747663225" customWidth="1"/>
-    <col min="18" max="18" width="11.4970528738839" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
+    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
+    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
+    <col min="9" max="9" width="27.212637765067" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
+    <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
+    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
+    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
+    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
+    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="a3d9d09a-9bfc-4db4-a855-1b84e4fdcaa1.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="a3d9d09a-9bfc-4db4-a855-1b84e4fdcaa1.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="c9477b75-15cd-4cf2-bdd9-e2d0395f2fee.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="c9477b75-15cd-4cf2-bdd9-e2d0395f2fee.md" r:id="rId5"/>
+  </hyperlinks>
   <headerFooter/>
   <tableParts>
     <tablePart r:id="rId1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>File Name</t>
   </si>
@@ -37,58 +37,55 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>00d107ad-4a82-4006-8c2e-d49a8934d03d.md</t>
+  </si>
+  <si>
+    <t>e2e\00d107ad-4a82-4006-8c2e-d49a8934d03d.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-28 06:35:56</t>
+  </si>
+  <si>
+    <t>0d43b59b-73e1-4118-a692-1cfe33c3c590.md</t>
+  </si>
+  <si>
+    <t>e2e\0d43b59b-73e1-4118-a692-1cfe33c3c590.md</t>
+  </si>
+  <si>
+    <t>2017-02-28 06:30:04</t>
+  </si>
+  <si>
+    <t>24fdbda1-5f20-497c-ba3c-3ef130045e3b.md</t>
+  </si>
+  <si>
+    <t>e2e\24fdbda1-5f20-497c-ba3c-3ef130045e3b.md</t>
+  </si>
+  <si>
+    <t>N\A</t>
+  </si>
+  <si>
+    <t>2017-02-28 06:33:41</t>
+  </si>
+  <si>
+    <t>2e43769b-a3a3-4fe6-a61a-9e77b77f690a.md</t>
+  </si>
+  <si>
+    <t>e2e\2e43769b-a3a3-4fe6-a61a-9e77b77f690a.md</t>
+  </si>
+  <si>
     <t>3aa1586b-8883-4ffa-a806-685cef9485b2.md</t>
   </si>
   <si>
     <t>e2e\3aa1586b-8883-4ffa-a806-685cef9485b2.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-28 06:38:05</t>
-  </si>
-  <si>
-    <t>00d107ad-4a82-4006-8c2e-d49a8934d03d.md</t>
-  </si>
-  <si>
-    <t>e2e\00d107ad-4a82-4006-8c2e-d49a8934d03d.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-28 06:35:56</t>
-  </si>
-  <si>
-    <t>0d43b59b-73e1-4118-a692-1cfe33c3c590.md</t>
-  </si>
-  <si>
-    <t>e2e\0d43b59b-73e1-4118-a692-1cfe33c3c590.md</t>
-  </si>
-  <si>
-    <t>2017-02-28 06:30:04</t>
-  </si>
-  <si>
-    <t>24fdbda1-5f20-497c-ba3c-3ef130045e3b.md</t>
-  </si>
-  <si>
-    <t>e2e\24fdbda1-5f20-497c-ba3c-3ef130045e3b.md</t>
-  </si>
-  <si>
-    <t>N\A</t>
-  </si>
-  <si>
-    <t>2017-02-28 06:33:41</t>
-  </si>
-  <si>
-    <t>2e43769b-a3a3-4fe6-a61a-9e77b77f690a.md</t>
-  </si>
-  <si>
-    <t>e2e\2e43769b-a3a3-4fe6-a61a-9e77b77f690a.md</t>
+    <t>2017-02-28 06:38:58</t>
   </si>
   <si>
     <t>ae402bb3-4fd4-4da9-bb1c-0aceef9f532e.md</t>
@@ -166,52 +163,52 @@
     <t>False</t>
   </si>
   <si>
+    <t>00d107ad-4a82-4006-8c2e-d49a8934d03d.df7dc9a53faaebf8eba9972654ac31a40f92e489.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 06:35:40</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2017-02-28 06:36:36</t>
+  </si>
+  <si>
+    <t>Full_HB_2017022836</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>0d43b59b-73e1-4118-a692-1cfe33c3c590.740e64043838f6ab848b957ac454c0fbc75edb1a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 06:29:48</t>
+  </si>
+  <si>
+    <t>2017-02-28 06:30:43</t>
+  </si>
+  <si>
+    <t>24fdbda1-5f20-497c-ba3c-3ef130045e3b.545c76b84fab0460a47de301126b89f25e850423.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 06:32:50</t>
+  </si>
+  <si>
+    <t>API_HB_2017022832</t>
+  </si>
+  <si>
+    <t>2e43769b-a3a3-4fe6-a61a-9e77b77f690a.7f25d8fca8ae036a3a6165db71224bea54780bb7.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>3aa1586b-8883-4ffa-a806-685cef9485b2.0c2f047063459cefdd5a4b0b05e5a73c4f42e0d1.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-28 06:37:48</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-02-28 06:39:37</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>00d107ad-4a82-4006-8c2e-d49a8934d03d.df7dc9a53faaebf8eba9972654ac31a40f92e489.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-28 06:35:40</t>
-  </si>
-  <si>
-    <t>2017-02-28 06:36:36</t>
-  </si>
-  <si>
-    <t>Full_HB_2017022836</t>
-  </si>
-  <si>
-    <t>0d43b59b-73e1-4118-a692-1cfe33c3c590.740e64043838f6ab848b957ac454c0fbc75edb1a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-28 06:29:48</t>
-  </si>
-  <si>
-    <t>2017-02-28 06:30:43</t>
-  </si>
-  <si>
-    <t>24fdbda1-5f20-497c-ba3c-3ef130045e3b.545c76b84fab0460a47de301126b89f25e850423.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-28 06:32:50</t>
-  </si>
-  <si>
-    <t>API_HB_2017022832</t>
-  </si>
-  <si>
-    <t>2e43769b-a3a3-4fe6-a61a-9e77b77f690a.7f25d8fca8ae036a3a6165db71224bea54780bb7.zh-cn.xlf</t>
+    <t>2017-02-28 06:38:42</t>
+  </si>
+  <si>
+    <t>2017-02-28 06:40:52</t>
   </si>
   <si>
     <t>ae402bb3-4fd4-4da9-bb1c-0aceef9f532e.4e2fe05731b2cced2fe6803511ca1bbca7b70ade.zh-cn.xlf</t>
@@ -220,25 +217,25 @@
     <t>d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.9a22c72fdf2d5d90afa32a800cc93105077bceb6.zh-cn.xlf</t>
   </si>
   <si>
+    <t>00d107ad-4a82-4006-8c2e-d49a8934d03d.df7dc9a53faaebf8eba9972654ac31a40f92e489.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 06:36:57</t>
+  </si>
+  <si>
+    <t>0d43b59b-73e1-4118-a692-1cfe33c3c590.740e64043838f6ab848b957ac454c0fbc75edb1a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 06:31:05</t>
+  </si>
+  <si>
+    <t>2e43769b-a3a3-4fe6-a61a-9e77b77f690a.7f25d8fca8ae036a3a6165db71224bea54780bb7.de-de.xlf</t>
+  </si>
+  <si>
     <t>3aa1586b-8883-4ffa-a806-685cef9485b2.0c2f047063459cefdd5a4b0b05e5a73c4f42e0d1.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-28 06:40:01</t>
-  </si>
-  <si>
-    <t>00d107ad-4a82-4006-8c2e-d49a8934d03d.df7dc9a53faaebf8eba9972654ac31a40f92e489.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-28 06:36:57</t>
-  </si>
-  <si>
-    <t>0d43b59b-73e1-4118-a692-1cfe33c3c590.740e64043838f6ab848b957ac454c0fbc75edb1a.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-28 06:31:05</t>
-  </si>
-  <si>
-    <t>2e43769b-a3a3-4fe6-a61a-9e77b77f690a.7f25d8fca8ae036a3a6165db71224bea54780bb7.de-de.xlf</t>
+    <t>2017-02-28 06:41:14</t>
   </si>
   <si>
     <t>d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.9a22c72fdf2d5d90afa32a800cc93105077bceb6.de-de.xlf</t>
@@ -379,8 +376,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
-    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
+    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
+    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -438,30 +435,30 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>18</v>
@@ -478,82 +475,82 @@
         <v>9</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>26</v>
-      </c>
       <c r="C7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\3aa1586b-8883-4ffa-a806-685cef9485b2.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\00d107ad-4a82-4006-8c2e-d49a8934d03d.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\0d43b59b-73e1-4118-a692-1cfe33c3c590.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\24fdbda1-5f20-497c-ba3c-3ef130045e3b.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\2e43769b-a3a3-4fe6-a61a-9e77b77f690a.md" r:id="rId6"/>
+    <hyperlink ref="B2" display="e2e\00d107ad-4a82-4006-8c2e-d49a8934d03d.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\0d43b59b-73e1-4118-a692-1cfe33c3c590.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\24fdbda1-5f20-497c-ba3c-3ef130045e3b.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\2e43769b-a3a3-4fe6-a61a-9e77b77f690a.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\3aa1586b-8883-4ffa-a806-685cef9485b2.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\ae402bb3-4fd4-4da9-bb1c-0aceef9f532e.md" r:id="rId7"/>
     <hyperlink ref="B8" display="e2e\d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.md" r:id="rId8"/>
   </hyperlinks>
@@ -574,7 +571,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -594,58 +591,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -659,49 +656,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="0" t="s">
+      <c r="H2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="I2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M2" s="0" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="N2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>54</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -712,13 +709,13 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>54</v>
@@ -730,7 +727,7 @@
         <v>56</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
@@ -742,78 +739,78 @@
         <v>57</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>54</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="M4" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="I4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="N4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>54</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
@@ -824,234 +821,234 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="F5" s="0" t="s">
         <v>54</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>63</v>
+        <v>52</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O5" s="0" t="s">
         <v>54</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="F6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>54</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O7" s="0" t="s">
         <v>54</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>54</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O8" s="0" t="s">
         <v>54</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="3aa1586b-8883-4ffa-a806-685cef9485b2.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="3aa1586b-8883-4ffa-a806-685cef9485b2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="00d107ad-4a82-4006-8c2e-d49a8934d03d.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="00d107ad-4a82-4006-8c2e-d49a8934d03d.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="0d43b59b-73e1-4118-a692-1cfe33c3c590.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="0d43b59b-73e1-4118-a692-1cfe33c3c590.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="24fdbda1-5f20-497c-ba3c-3ef130045e3b.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="24fdbda1-5f20-497c-ba3c-3ef130045e3b.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="2e43769b-a3a3-4fe6-a61a-9e77b77f690a.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="2e43769b-a3a3-4fe6-a61a-9e77b77f690a.md" r:id="rId11"/>
+    <hyperlink ref="A2" display="00d107ad-4a82-4006-8c2e-d49a8934d03d.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="00d107ad-4a82-4006-8c2e-d49a8934d03d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="0d43b59b-73e1-4118-a692-1cfe33c3c590.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="0d43b59b-73e1-4118-a692-1cfe33c3c590.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="24fdbda1-5f20-497c-ba3c-3ef130045e3b.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="24fdbda1-5f20-497c-ba3c-3ef130045e3b.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="2e43769b-a3a3-4fe6-a61a-9e77b77f690a.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="2e43769b-a3a3-4fe6-a61a-9e77b77f690a.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="3aa1586b-8883-4ffa-a806-685cef9485b2.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="3aa1586b-8883-4ffa-a806-685cef9485b2.md" r:id="rId11"/>
     <hyperlink ref="A7" display="ae402bb3-4fd4-4da9-bb1c-0aceef9f532e.md" r:id="rId12"/>
     <hyperlink ref="J7" display="ae402bb3-4fd4-4da9-bb1c-0aceef9f532e.md" r:id="rId13"/>
     <hyperlink ref="A8" display="d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.md" r:id="rId14"/>
@@ -1074,7 +1071,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -1094,58 +1091,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -1159,49 +1156,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="0" t="s">
+      <c r="F2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="G2" s="0" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O2" s="0" t="s">
         <v>54</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1212,232 +1209,232 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>71</v>
-      </c>
       <c r="M3" s="0" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O3" s="0" t="s">
         <v>54</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="0" t="s">
-        <v>52</v>
-      </c>
       <c r="F4" s="0" t="s">
         <v>54</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O4" s="0" t="s">
         <v>54</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="0" t="s">
+      <c r="I5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>18</v>
-      </c>
       <c r="I6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="O6" s="0" t="s">
         <v>54</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="3aa1586b-8883-4ffa-a806-685cef9485b2.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="3aa1586b-8883-4ffa-a806-685cef9485b2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="00d107ad-4a82-4006-8c2e-d49a8934d03d.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="00d107ad-4a82-4006-8c2e-d49a8934d03d.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="0d43b59b-73e1-4118-a692-1cfe33c3c590.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="0d43b59b-73e1-4118-a692-1cfe33c3c590.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="2e43769b-a3a3-4fe6-a61a-9e77b77f690a.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="2e43769b-a3a3-4fe6-a61a-9e77b77f690a.md" r:id="rId9"/>
+    <hyperlink ref="A2" display="00d107ad-4a82-4006-8c2e-d49a8934d03d.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="00d107ad-4a82-4006-8c2e-d49a8934d03d.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="0d43b59b-73e1-4118-a692-1cfe33c3c590.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="0d43b59b-73e1-4118-a692-1cfe33c3c590.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="2e43769b-a3a3-4fe6-a61a-9e77b77f690a.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="2e43769b-a3a3-4fe6-a61a-9e77b77f690a.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="3aa1586b-8883-4ffa-a806-685cef9485b2.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="3aa1586b-8883-4ffa-a806-685cef9485b2.md" r:id="rId9"/>
     <hyperlink ref="A6" display="d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.md" r:id="rId10"/>
     <hyperlink ref="J6" display="d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.md" r:id="rId11"/>
   </hyperlinks>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>File Name</t>
   </si>
@@ -109,6 +109,9 @@
     <t>e2e\860955f1-990d-4a36-925c-bc9883050fdf.md</t>
   </si>
   <si>
+    <t>2017-02-28 06:45:00</t>
+  </si>
+  <si>
     <t>ae402bb3-4fd4-4da9-bb1c-0aceef9f532e.md</t>
   </si>
   <si>
@@ -262,6 +265,12 @@
     <t>860955f1-990d-4a36-925c-bc9883050fdf.8813536f847e414b05b612cf867d6964d583e3fe.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-02-28 06:44:42</t>
+  </si>
+  <si>
+    <t>2017-02-28 06:45:41</t>
+  </si>
+  <si>
     <t>ae402bb3-4fd4-4da9-bb1c-0aceef9f532e.4e2fe05731b2cced2fe6803511ca1bbca7b70ade.zh-cn.xlf</t>
   </si>
   <si>
@@ -308,6 +317,9 @@
   </si>
   <si>
     <t>860955f1-990d-4a36-925c-bc9883050fdf.8813536f847e414b05b612cf867d6964d583e3fe.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 06:46:02</t>
   </si>
   <si>
     <t>d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.9a22c72fdf2d5d90afa32a800cc93105077bceb6.de-de.xlf</t>
@@ -633,15 +645,15 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
@@ -658,13 +670,13 @@
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>10</v>
@@ -678,10 +690,10 @@
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C12" s="0" t="s">
         <v>9</v>
@@ -698,13 +710,13 @@
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E13" s="0" t="s">
         <v>10</v>
@@ -768,58 +780,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -833,49 +845,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -889,49 +901,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -945,49 +957,49 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1001,49 +1013,49 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -1057,49 +1069,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
@@ -1113,49 +1125,49 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -1169,49 +1181,49 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
@@ -1225,54 +1237,54 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -1281,110 +1293,110 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>30</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="0" t="s">
         <v>9</v>
@@ -1393,105 +1405,105 @@
         <v>10</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P13" s="0" t="s">
         <v>16</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1558,58 +1570,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -1623,49 +1635,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3">
@@ -1679,49 +1691,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -1735,49 +1747,49 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5">
@@ -1791,49 +1803,49 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6">
@@ -1847,49 +1859,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7">
@@ -1903,49 +1915,49 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="8">
@@ -1959,110 +1971,110 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>17</v>
+        <v>31</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>92</v>
+        <v>101</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>30</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -2071,105 +2083,105 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>16</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>File Name</t>
   </si>
@@ -103,13 +103,7 @@
     <t>e2e\467934c0-7ece-49f8-a1e2-77731597ee62.md</t>
   </si>
   <si>
-    <t>860955f1-990d-4a36-925c-bc9883050fdf.md</t>
-  </si>
-  <si>
-    <t>e2e\860955f1-990d-4a36-925c-bc9883050fdf.md</t>
-  </si>
-  <si>
-    <t>2017-02-28 06:45:00</t>
+    <t>2017-02-28 06:47:07</t>
   </si>
   <si>
     <t>ae402bb3-4fd4-4da9-bb1c-0aceef9f532e.md</t>
@@ -118,27 +112,12 @@
     <t>e2e\ae402bb3-4fd4-4da9-bb1c-0aceef9f532e.md</t>
   </si>
   <si>
-    <t>c3d14e8a-708d-4808-8d61-4ac7aa90918f.png</t>
-  </si>
-  <si>
-    <t>e2e\c3d14e8a-708d-4808-8d61-4ac7aa90918f.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
     <t>d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.md</t>
   </si>
   <si>
     <t>e2e\d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.md</t>
   </si>
   <si>
-    <t>fdc52fc4-4926-492c-a0b7-4338ef958e14.png</t>
-  </si>
-  <si>
-    <t>e2e\fdc52fc4-4926-492c-a0b7-4338ef958e14.png</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -262,30 +241,18 @@
     <t>467934c0-7ece-49f8-a1e2-77731597ee62.de4aa59a50c3361a7e8825cd44b0f96a336b53b3.zh-cn.xlf</t>
   </si>
   <si>
-    <t>860955f1-990d-4a36-925c-bc9883050fdf.8813536f847e414b05b612cf867d6964d583e3fe.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-28 06:44:42</t>
-  </si>
-  <si>
-    <t>2017-02-28 06:45:41</t>
+    <t>2017-02-28 06:46:47</t>
+  </si>
+  <si>
+    <t>2017-02-28 06:47:46</t>
   </si>
   <si>
     <t>ae402bb3-4fd4-4da9-bb1c-0aceef9f532e.4e2fe05731b2cced2fe6803511ca1bbca7b70ade.zh-cn.xlf</t>
   </si>
   <si>
-    <t>4656d44b92144b8d0ce4997d2ed8af1ccc992d0c.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
     <t>d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.9a22c72fdf2d5d90afa32a800cc93105077bceb6.zh-cn.xlf</t>
   </si>
   <si>
-    <t>cd4fbe29680ee3bcd13b6c760f2bc46940a7ac28.png</t>
-  </si>
-  <si>
     <t>00d107ad-4a82-4006-8c2e-d49a8934d03d.df7dc9a53faaebf8eba9972654ac31a40f92e489.de-de.xlf</t>
   </si>
   <si>
@@ -316,10 +283,7 @@
     <t>467934c0-7ece-49f8-a1e2-77731597ee62.de4aa59a50c3361a7e8825cd44b0f96a336b53b3.de-de.xlf</t>
   </si>
   <si>
-    <t>860955f1-990d-4a36-925c-bc9883050fdf.8813536f847e414b05b612cf867d6964d583e3fe.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-28 06:46:02</t>
+    <t>2017-02-28 06:48:08</t>
   </si>
   <si>
     <t>d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.9a22c72fdf2d5d90afa32a800cc93105077bceb6.de-de.xlf</t>
@@ -379,8 +343,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R13" headerRowCount="1">
-  <autoFilter ref="A1:R13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R10" headerRowCount="1">
+  <autoFilter ref="A1:R10"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -406,8 +370,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R11" headerRowCount="1">
-  <autoFilter ref="A1:R11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R8" headerRowCount="1">
+  <autoFilter ref="A1:R8"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -433,8 +397,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G13" headerRowCount="1">
-  <autoFilter ref="A1:G13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G10" headerRowCount="1">
+  <autoFilter ref="A1:G10"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -450,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -625,15 +589,15 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
@@ -642,10 +606,10 @@
         <v>10</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10">
@@ -662,70 +626,10 @@
         <v>10</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -737,11 +641,8 @@
     <hyperlink ref="B6" display="e2e\2e43769b-a3a3-4fe6-a61a-9e77b77f690a.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\3aa1586b-8883-4ffa-a806-685cef9485b2.md" r:id="rId7"/>
     <hyperlink ref="B8" display="e2e\467934c0-7ece-49f8-a1e2-77731597ee62.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\860955f1-990d-4a36-925c-bc9883050fdf.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\ae402bb3-4fd4-4da9-bb1c-0aceef9f532e.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\c3d14e8a-708d-4808-8d61-4ac7aa90918f.png" r:id="rId11"/>
-    <hyperlink ref="B12" display="e2e\d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.md" r:id="rId12"/>
-    <hyperlink ref="B13" display="e2e\fdc52fc4-4926-492c-a0b7-4338ef958e14.png" r:id="rId13"/>
+    <hyperlink ref="B9" display="e2e\ae402bb3-4fd4-4da9-bb1c-0aceef9f532e.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -752,7 +653,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -772,66 +673,66 @@
     <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
     <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
     <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="17.7080830165318" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
     <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
     <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -845,49 +746,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -901,49 +802,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -957,49 +858,49 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -1013,49 +914,49 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="G5" s="0" t="s">
         <v>67</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>74</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1069,49 +970,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -1125,49 +1026,49 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
@@ -1181,54 +1082,54 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -1237,49 +1138,49 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>83</v>
+        <v>21</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>84</v>
+        <v>68</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10">
@@ -1293,217 +1194,49 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>76</v>
+        <v>57</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1522,16 +1255,10 @@
     <hyperlink ref="J7" display="3aa1586b-8883-4ffa-a806-685cef9485b2.md" r:id="rId13"/>
     <hyperlink ref="A8" display="467934c0-7ece-49f8-a1e2-77731597ee62.md" r:id="rId14"/>
     <hyperlink ref="J8" display="467934c0-7ece-49f8-a1e2-77731597ee62.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="860955f1-990d-4a36-925c-bc9883050fdf.md" r:id="rId16"/>
-    <hyperlink ref="J9" display="860955f1-990d-4a36-925c-bc9883050fdf.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="ae402bb3-4fd4-4da9-bb1c-0aceef9f532e.md" r:id="rId18"/>
-    <hyperlink ref="J10" display="ae402bb3-4fd4-4da9-bb1c-0aceef9f532e.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="c3d14e8a-708d-4808-8d61-4ac7aa90918f.png" r:id="rId20"/>
-    <hyperlink ref="J11" display="c3d14e8a-708d-4808-8d61-4ac7aa90918f.png" r:id="rId21"/>
-    <hyperlink ref="A12" display="d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.md" r:id="rId22"/>
-    <hyperlink ref="J12" display="d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.md" r:id="rId23"/>
-    <hyperlink ref="A13" display="fdc52fc4-4926-492c-a0b7-4338ef958e14.png" r:id="rId24"/>
-    <hyperlink ref="J13" display="fdc52fc4-4926-492c-a0b7-4338ef958e14.png" r:id="rId25"/>
+    <hyperlink ref="A9" display="ae402bb3-4fd4-4da9-bb1c-0aceef9f532e.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="ae402bb3-4fd4-4da9-bb1c-0aceef9f532e.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.md" r:id="rId18"/>
+    <hyperlink ref="J10" display="d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.md" r:id="rId19"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1542,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1562,66 +1289,66 @@
     <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
     <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
     <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="17.7080830165318" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
     <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
     <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -1635,49 +1362,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
@@ -1691,49 +1418,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4">
@@ -1747,49 +1474,49 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5">
@@ -1803,49 +1530,49 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>22</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6">
@@ -1859,49 +1586,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>26</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>24</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7">
@@ -1915,54 +1642,54 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -1971,217 +1698,49 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -2198,14 +1757,8 @@
     <hyperlink ref="J6" display="3aa1586b-8883-4ffa-a806-685cef9485b2.md" r:id="rId11"/>
     <hyperlink ref="A7" display="467934c0-7ece-49f8-a1e2-77731597ee62.md" r:id="rId12"/>
     <hyperlink ref="J7" display="467934c0-7ece-49f8-a1e2-77731597ee62.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="860955f1-990d-4a36-925c-bc9883050fdf.md" r:id="rId14"/>
-    <hyperlink ref="J8" display="860955f1-990d-4a36-925c-bc9883050fdf.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="c3d14e8a-708d-4808-8d61-4ac7aa90918f.png" r:id="rId16"/>
-    <hyperlink ref="J9" display="c3d14e8a-708d-4808-8d61-4ac7aa90918f.png" r:id="rId17"/>
-    <hyperlink ref="A10" display="d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.md" r:id="rId18"/>
-    <hyperlink ref="J10" display="d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="fdc52fc4-4926-492c-a0b7-4338ef958e14.png" r:id="rId20"/>
-    <hyperlink ref="J11" display="fdc52fc4-4926-492c-a0b7-4338ef958e14.png" r:id="rId21"/>
+    <hyperlink ref="A8" display="d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="d5fdc2c4-3c3b-44b4-916d-a26b706ba3ca.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-28 07:11:51</t>
+    <t>2017-02-28 07:13:52</t>
   </si>
   <si>
     <t>a.md</t>
@@ -127,13 +127,13 @@
     <t>747f25f9-2892-47dc-87c9-7c7b9ba732bf.4ffb29e4e7febafd8e434a57081f966f0cf01f60.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-28 07:11:35</t>
+    <t>2017-02-28 07:13:36</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-28 07:12:29</t>
+    <t>2017-02-28 07:14:30</t>
   </si>
   <si>
     <t>True</t>
@@ -154,7 +154,7 @@
     <t>747f25f9-2892-47dc-87c9-7c7b9ba732bf.4ffb29e4e7febafd8e434a57081f966f0cf01f60.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-28 07:12:51</t>
+    <t>2017-02-28 07:14:51</t>
   </si>
   <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-28 07:13:52</t>
+    <t>2017-02-28 07:15:50</t>
   </si>
   <si>
     <t>a.md</t>
@@ -127,13 +127,13 @@
     <t>747f25f9-2892-47dc-87c9-7c7b9ba732bf.4ffb29e4e7febafd8e434a57081f966f0cf01f60.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-28 07:13:36</t>
+    <t>2017-02-28 07:15:35</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-28 07:14:30</t>
+    <t>2017-02-28 07:16:24</t>
   </si>
   <si>
     <t>True</t>
@@ -154,7 +154,7 @@
     <t>747f25f9-2892-47dc-87c9-7c7b9ba732bf.4ffb29e4e7febafd8e434a57081f966f0cf01f60.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-28 07:14:51</t>
+    <t>2017-02-28 07:16:46</t>
   </si>
   <si>
     <t>a.6631f68b315a3f7ddcdc141802fdb6ef151d1df2.de-de.xlf</t>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>File Name</t>
   </si>
@@ -46,16 +46,28 @@
     <t>.md</t>
   </si>
   <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-28 07:49:20</t>
+  </si>
+  <si>
+    <t>99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.md</t>
+  </si>
+  <si>
+    <t>e2e\99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.md</t>
+  </si>
+  <si>
+    <t>6c7a59ef-d917-4d83-ad2f-7f9e0424d251oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
+  </si>
+  <si>
+    <t>e2e\6c7a59ef-d917-4d83-ad2f-7f9e0424d251oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
+  </si>
+  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-28 07:49:20</t>
-  </si>
-  <si>
-    <t>99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.md</t>
-  </si>
-  <si>
-    <t>e2e\99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.md</t>
+    <t>2017-02-28 07:52:42</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -139,6 +151,15 @@
     <t>99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.1a418adca8b23ecd667b8d3a038b64e25b9417d8.zh-cn.xlf</t>
   </si>
   <si>
+    <t>6c7a59ef-d917-4d83-ad2f-7f9e0424d251ooooooooooooooooooooooooooooooooooooo.e942d69b43b162cfe2fb5ee31e4ee116621c8943.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 07:52:26</t>
+  </si>
+  <si>
+    <t>2017-02-28 07:53:21</t>
+  </si>
+  <si>
     <t>244d1767-ec7e-4b96-88ed-bb0b0edeab7b.740637072ab972899c88354d5823d86fc51f5838.de-de.xlf</t>
   </si>
   <si>
@@ -146,6 +167,12 @@
   </si>
   <si>
     <t>99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.1a418adca8b23ecd667b8d3a038b64e25b9417d8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>6c7a59ef-d917-4d83-ad2f-7f9e0424d251ooooooooooooooooooooooooooooooooooooo.e942d69b43b162cfe2fb5ee31e4ee116621c8943.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 07:53:43</t>
   </si>
 </sst>
 </file>
@@ -202,8 +229,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -229,8 +256,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
-  <autoFilter ref="A1:R3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
+  <autoFilter ref="A1:R4"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -256,8 +283,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
-  <autoFilter ref="A1:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
+  <autoFilter ref="A1:G4"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -273,7 +300,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -283,8 +310,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -351,10 +378,31 @@
         <v>11</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\244d1767-ec7e-4b96-88ed-bb0b0edeab7b.md" r:id="rId2"/>
     <hyperlink ref="B3" display="e2e\99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\6c7a59ef-d917-4d83-ad2f-7f9e0424d251oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId4"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -365,7 +413,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -373,7 +421,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -393,58 +441,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -458,49 +506,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="L2" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>34</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -514,49 +562,105 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="L3" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="M3" s="0" t="s">
+      <c r="R3" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>37</v>
+      <c r="F4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -565,6 +669,8 @@
     <hyperlink ref="J2" display="244d1767-ec7e-4b96-88ed-bb0b0edeab7b.md" r:id="rId3"/>
     <hyperlink ref="A3" display="99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.md" r:id="rId4"/>
     <hyperlink ref="J3" display="99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="6c7a59ef-d917-4d83-ad2f-7f9e0424d251oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="6c7a59ef-d917-4d83-ad2f-7f9e0424d251oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -575,7 +681,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R3"/>
+  <dimension ref="A1:R4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -583,7 +689,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -603,58 +709,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -668,49 +774,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3">
@@ -724,49 +830,105 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O3" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="0" t="s">
+      <c r="P3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="N3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>37</v>
+      <c r="F4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q4" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="R4" s="0" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -775,6 +937,8 @@
     <hyperlink ref="J2" display="244d1767-ec7e-4b96-88ed-bb0b0edeab7b.md" r:id="rId3"/>
     <hyperlink ref="A3" display="99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.md" r:id="rId4"/>
     <hyperlink ref="J3" display="99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="6c7a59ef-d917-4d83-ad2f-7f9e0424d251oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="6c7a59ef-d917-4d83-ad2f-7f9e0424d251oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>File Name</t>
   </si>
@@ -37,37 +37,19 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
-    <t>244d1767-ec7e-4b96-88ed-bb0b0edeab7b.md</t>
-  </si>
-  <si>
-    <t>e2e\244d1767-ec7e-4b96-88ed-bb0b0edeab7b.md</t>
+    <t>4f769bcc-8af8-485c-be52-98fb90d527d2.md</t>
+  </si>
+  <si>
+    <t>e2e\4f769bcc-8af8-485c-be52-98fb90d527d2.md</t>
   </si>
   <si>
     <t>.md</t>
   </si>
   <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-28 07:49:20</t>
-  </si>
-  <si>
-    <t>99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.md</t>
-  </si>
-  <si>
-    <t>e2e\99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.md</t>
-  </si>
-  <si>
-    <t>6c7a59ef-d917-4d83-ad2f-7f9e0424d251oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
-  </si>
-  <si>
-    <t>e2e\6c7a59ef-d917-4d83-ad2f-7f9e0424d251oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md</t>
-  </si>
-  <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-28 07:52:42</t>
+    <t>2017-02-28 07:58:09</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -133,46 +115,25 @@
     <t>False</t>
   </si>
   <si>
-    <t>244d1767-ec7e-4b96-88ed-bb0b0edeab7b.740637072ab972899c88354d5823d86fc51f5838.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-28 07:49:03</t>
+    <t>4f769bcc-8af8-485c-be52-98fb90d527d2.1213a0fa7ab2ab6535ae9f9a547ee1a6189314f0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 07:57:54</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-02-28 07:49:59</t>
+    <t>2017-02-28 07:58:47</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
-    <t>99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.1a418adca8b23ecd667b8d3a038b64e25b9417d8.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>6c7a59ef-d917-4d83-ad2f-7f9e0424d251ooooooooooooooooooooooooooooooooooooo.e942d69b43b162cfe2fb5ee31e4ee116621c8943.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-28 07:52:26</t>
-  </si>
-  <si>
-    <t>2017-02-28 07:53:21</t>
-  </si>
-  <si>
-    <t>244d1767-ec7e-4b96-88ed-bb0b0edeab7b.740637072ab972899c88354d5823d86fc51f5838.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-28 07:50:21</t>
-  </si>
-  <si>
-    <t>99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.1a418adca8b23ecd667b8d3a038b64e25b9417d8.de-de.xlf</t>
-  </si>
-  <si>
-    <t>6c7a59ef-d917-4d83-ad2f-7f9e0424d251ooooooooooooooooooooooooooooooooooooo.e942d69b43b162cfe2fb5ee31e4ee116621c8943.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-28 07:53:43</t>
+    <t>4f769bcc-8af8-485c-be52-98fb90d527d2.1213a0fa7ab2ab6535ae9f9a547ee1a6189314f0.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 07:59:09</t>
   </si>
 </sst>
 </file>
@@ -229,8 +190,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -256,8 +217,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R4" headerRowCount="1">
-  <autoFilter ref="A1:R4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R2" headerRowCount="1">
+  <autoFilter ref="A1:R2"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -283,8 +244,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G4" headerRowCount="1">
-  <autoFilter ref="A1:G4"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G2" headerRowCount="1">
+  <autoFilter ref="A1:G2"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -300,7 +261,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -310,8 +271,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
-    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
+    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
+    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -358,51 +319,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\244d1767-ec7e-4b96-88ed-bb0b0edeab7b.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\6c7a59ef-d917-4d83-ad2f-7f9e0424d251oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId4"/>
+    <hyperlink ref="B2" display="e2e\4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId2"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -413,7 +332,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -421,7 +340,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -441,58 +360,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -506,171 +425,55 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="244d1767-ec7e-4b96-88ed-bb0b0edeab7b.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="244d1767-ec7e-4b96-88ed-bb0b0edeab7b.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="6c7a59ef-d917-4d83-ad2f-7f9e0424d251oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="6c7a59ef-d917-4d83-ad2f-7f9e0424d251oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -681,7 +484,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R4"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -689,7 +492,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -709,58 +512,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>29</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="2">
@@ -774,171 +577,55 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="0" t="s">
         <v>38</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>48</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P3" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R3" s="0" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="R4" s="0" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="244d1767-ec7e-4b96-88ed-bb0b0edeab7b.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="244d1767-ec7e-4b96-88ed-bb0b0edeab7b.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="99c58dbb-fcdc-48ac-b390-c4f7b7eb7111.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="6c7a59ef-d917-4d83-ad2f-7f9e0424d251oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="6c7a59ef-d917-4d83-ad2f-7f9e0424d251oooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooooo.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId3"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>File Name</t>
   </si>
@@ -37,21 +37,39 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md</t>
+  </si>
+  <si>
+    <t>e2e\eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-28 08:05:00</t>
+  </si>
+  <si>
+    <t>10f3806c-2998-43cd-a6a2-45851d8a87dc.md</t>
+  </si>
+  <si>
+    <t>e2e\10f3806c-2998-43cd-a6a2-45851d8a87dc.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-28 08:08:09</t>
+  </si>
+  <si>
     <t>4f769bcc-8af8-485c-be52-98fb90d527d2.md</t>
   </si>
   <si>
     <t>e2e\4f769bcc-8af8-485c-be52-98fb90d527d2.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-02-28 08:05:00</t>
-  </si>
-  <si>
     <t>712ff180-b74f-4ba8-95d1-44e62587c07f.md</t>
   </si>
   <si>
@@ -70,12 +88,6 @@
     <t>e2e\d731f8ca-f55a-4a0b-b609-fc11b112cecb.md</t>
   </si>
   <si>
-    <t>eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md</t>
-  </si>
-  <si>
-    <t>e2e\eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md</t>
-  </si>
-  <si>
     <t>Source File Name</t>
   </si>
   <si>
@@ -139,18 +151,33 @@
     <t>False</t>
   </si>
   <si>
+    <t>eba56d22-c6f5-4b2c-b9c7-83d400b3b666.29746fc65cf6911300e371878c2ed3f4dff651f8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 08:04:44</t>
+  </si>
+  <si>
+    <t>2017-02-28 08:05:41</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>10f3806c-2998-43cd-a6a2-45851d8a87dc.a1549cdf2b2566b14fbfbee9968a811be90a4e17.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 08:07:51</t>
+  </si>
+  <si>
+    <t>2017-02-28 08:08:48</t>
+  </si>
+  <si>
     <t>4f769bcc-8af8-485c-be52-98fb90d527d2.1213a0fa7ab2ab6535ae9f9a547ee1a6189314f0.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-02-28 08:04:44</t>
-  </si>
-  <si>
-    <t>2017-02-28 08:05:41</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
     <t>712ff180-b74f-4ba8-95d1-44e62587c07f.378470fdbe8e8c4e47be0e61c069a9614b96cd90.zh-cn.xlf</t>
   </si>
   <si>
@@ -160,15 +187,21 @@
     <t>d731f8ca-f55a-4a0b-b609-fc11b112cecb.e6f64bb6dc2fe481d81848dcd03d39657f6ed265.zh-cn.xlf</t>
   </si>
   <si>
-    <t>eba56d22-c6f5-4b2c-b9c7-83d400b3b666.29746fc65cf6911300e371878c2ed3f4dff651f8.zh-cn.xlf</t>
+    <t>eba56d22-c6f5-4b2c-b9c7-83d400b3b666.29746fc65cf6911300e371878c2ed3f4dff651f8.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 08:06:03</t>
+  </si>
+  <si>
+    <t>10f3806c-2998-43cd-a6a2-45851d8a87dc.a1549cdf2b2566b14fbfbee9968a811be90a4e17.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 08:09:10</t>
   </si>
   <si>
     <t>4f769bcc-8af8-485c-be52-98fb90d527d2.1213a0fa7ab2ab6535ae9f9a547ee1a6189314f0.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-02-28 08:06:03</t>
-  </si>
-  <si>
     <t>712ff180-b74f-4ba8-95d1-44e62587c07f.378470fdbe8e8c4e47be0e61c069a9614b96cd90.de-de.xlf</t>
   </si>
   <si>
@@ -176,9 +209,6 @@
   </si>
   <si>
     <t>d731f8ca-f55a-4a0b-b609-fc11b112cecb.e6f64bb6dc2fe481d81848dcd03d39657f6ed265.de-de.xlf</t>
-  </si>
-  <si>
-    <t>eba56d22-c6f5-4b2c-b9c7-83d400b3b666.29746fc65cf6911300e371878c2ed3f4dff651f8.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -235,8 +265,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R6" headerRowCount="1">
-  <autoFilter ref="A1:R6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R7" headerRowCount="1">
+  <autoFilter ref="A1:R7"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -262,8 +292,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R6" headerRowCount="1">
-  <autoFilter ref="A1:R6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R7" headerRowCount="1">
+  <autoFilter ref="A1:R7"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -289,8 +319,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G6" headerRowCount="1">
-  <autoFilter ref="A1:G6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G7" headerRowCount="1">
+  <autoFilter ref="A1:G7"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -306,7 +336,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G6"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -316,8 +346,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
+    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -375,30 +405,30 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>11</v>
@@ -406,19 +436,19 @@
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G5" s="2" t="s">
         <v>11</v>
@@ -426,31 +456,52 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\712ff180-b74f-4ba8-95d1-44e62587c07f.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\acc33caa-6a9d-47e3-a2a0-22020a6a2c37.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\d731f8ca-f55a-4a0b-b609-fc11b112cecb.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId6"/>
+    <hyperlink ref="B2" display="e2e\eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\10f3806c-2998-43cd-a6a2-45851d8a87dc.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\712ff180-b74f-4ba8-95d1-44e62587c07f.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\acc33caa-6a9d-47e3-a2a0-22020a6a2c37.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\d731f8ca-f55a-4a0b-b609-fc11b112cecb.md" r:id="rId7"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -461,7 +512,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -469,7 +520,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -489,58 +540,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -554,49 +605,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -607,234 +658,292 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K4" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="N4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O4" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="H6" s="2" t="s">
+      <c r="R6" s="0" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="O6" s="0" t="s">
+      <c r="E7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="R6" s="0" t="s">
-        <v>39</v>
+      <c r="R7" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="712ff180-b74f-4ba8-95d1-44e62587c07f.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="712ff180-b74f-4ba8-95d1-44e62587c07f.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="acc33caa-6a9d-47e3-a2a0-22020a6a2c37.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="acc33caa-6a9d-47e3-a2a0-22020a6a2c37.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="d731f8ca-f55a-4a0b-b609-fc11b112cecb.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="d731f8ca-f55a-4a0b-b609-fc11b112cecb.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId11"/>
+    <hyperlink ref="A2" display="eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="10f3806c-2998-43cd-a6a2-45851d8a87dc.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="10f3806c-2998-43cd-a6a2-45851d8a87dc.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="712ff180-b74f-4ba8-95d1-44e62587c07f.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="712ff180-b74f-4ba8-95d1-44e62587c07f.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="acc33caa-6a9d-47e3-a2a0-22020a6a2c37.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="acc33caa-6a9d-47e3-a2a0-22020a6a2c37.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="d731f8ca-f55a-4a0b-b609-fc11b112cecb.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="d731f8ca-f55a-4a0b-b609-fc11b112cecb.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -845,7 +954,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -853,7 +962,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -873,58 +982,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2">
@@ -938,49 +1047,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O2" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P2" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3">
@@ -991,234 +1100,292 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>39</v>
+        <v>49</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O3" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q3" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q3" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="R3" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O4" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q4" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="R4" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O5" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P5" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>11</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="O6" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="P6" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>40</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>39</v>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q7" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" s="0" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="712ff180-b74f-4ba8-95d1-44e62587c07f.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="712ff180-b74f-4ba8-95d1-44e62587c07f.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="acc33caa-6a9d-47e3-a2a0-22020a6a2c37.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="acc33caa-6a9d-47e3-a2a0-22020a6a2c37.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="d731f8ca-f55a-4a0b-b609-fc11b112cecb.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="d731f8ca-f55a-4a0b-b609-fc11b112cecb.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId11"/>
+    <hyperlink ref="A2" display="eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="10f3806c-2998-43cd-a6a2-45851d8a87dc.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="10f3806c-2998-43cd-a6a2-45851d8a87dc.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="712ff180-b74f-4ba8-95d1-44e62587c07f.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="712ff180-b74f-4ba8-95d1-44e62587c07f.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="acc33caa-6a9d-47e3-a2a0-22020a6a2c37.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="acc33caa-6a9d-47e3-a2a0-22020a6a2c37.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="d731f8ca-f55a-4a0b-b609-fc11b112cecb.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="d731f8ca-f55a-4a0b-b609-fc11b112cecb.md" r:id="rId13"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -37,39 +37,39 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>10f3806c-2998-43cd-a6a2-45851d8a87dc.md</t>
+  </si>
+  <si>
+    <t>e2e\10f3806c-2998-43cd-a6a2-45851d8a87dc.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: not in sync with en-US</t>
+  </si>
+  <si>
+    <t>2017-02-28 08:10:05</t>
+  </si>
+  <si>
     <t>eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md</t>
   </si>
   <si>
     <t>e2e\eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
     <t>2017-02-28 08:05:00</t>
   </si>
   <si>
-    <t>10f3806c-2998-43cd-a6a2-45851d8a87dc.md</t>
-  </si>
-  <si>
-    <t>e2e\10f3806c-2998-43cd-a6a2-45851d8a87dc.md</t>
+    <t>4f769bcc-8af8-485c-be52-98fb90d527d2.md</t>
+  </si>
+  <si>
+    <t>e2e\4f769bcc-8af8-485c-be52-98fb90d527d2.md</t>
   </si>
   <si>
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-02-28 08:08:09</t>
-  </si>
-  <si>
-    <t>4f769bcc-8af8-485c-be52-98fb90d527d2.md</t>
-  </si>
-  <si>
-    <t>e2e\4f769bcc-8af8-485c-be52-98fb90d527d2.md</t>
-  </si>
-  <si>
     <t>712ff180-b74f-4ba8-95d1-44e62587c07f.md</t>
   </si>
   <si>
@@ -145,10 +145,25 @@
     <t>e2e</t>
   </si>
   <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>10f3806c-2998-43cd-a6a2-45851d8a87dc.a1549cdf2b2566b14fbfbee9968a811be90a4e17.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 08:09:49</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>False</t>
+    <t>2017-02-28 08:11:34</t>
+  </si>
+  <si>
+    <t>True</t>
   </si>
   <si>
     <t>eba56d22-c6f5-4b2c-b9c7-83d400b3b666.29746fc65cf6911300e371878c2ed3f4dff651f8.zh-cn.xlf</t>
@@ -160,21 +175,6 @@
     <t>2017-02-28 08:05:41</t>
   </si>
   <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>10f3806c-2998-43cd-a6a2-45851d8a87dc.a1549cdf2b2566b14fbfbee9968a811be90a4e17.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-28 08:07:51</t>
-  </si>
-  <si>
-    <t>2017-02-28 08:08:48</t>
-  </si>
-  <si>
     <t>4f769bcc-8af8-485c-be52-98fb90d527d2.1213a0fa7ab2ab6535ae9f9a547ee1a6189314f0.zh-cn.xlf</t>
   </si>
   <si>
@@ -187,16 +187,16 @@
     <t>d731f8ca-f55a-4a0b-b609-fc11b112cecb.e6f64bb6dc2fe481d81848dcd03d39657f6ed265.zh-cn.xlf</t>
   </si>
   <si>
+    <t>10f3806c-2998-43cd-a6a2-45851d8a87dc.a1549cdf2b2566b14fbfbee9968a811be90a4e17.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-02-28 08:11:55</t>
+  </si>
+  <si>
     <t>eba56d22-c6f5-4b2c-b9c7-83d400b3b666.29746fc65cf6911300e371878c2ed3f4dff651f8.de-de.xlf</t>
   </si>
   <si>
     <t>2017-02-28 08:06:03</t>
-  </si>
-  <si>
-    <t>10f3806c-2998-43cd-a6a2-45851d8a87dc.a1549cdf2b2566b14fbfbee9968a811be90a4e17.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-02-28 08:09:10</t>
   </si>
   <si>
     <t>4f769bcc-8af8-485c-be52-98fb90d527d2.1213a0fa7ab2ab6535ae9f9a547ee1a6189314f0.de-de.xlf</t>
@@ -405,33 +405,33 @@
         <v>9</v>
       </c>
       <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5">
@@ -445,13 +445,13 @@
         <v>9</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="6">
@@ -465,13 +465,13 @@
         <v>9</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="7">
@@ -485,19 +485,19 @@
         <v>9</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\10f3806c-2998-43cd-a6a2-45851d8a87dc.md" r:id="rId3"/>
+    <hyperlink ref="B2" display="e2e\10f3806c-2998-43cd-a6a2-45851d8a87dc.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId3"/>
     <hyperlink ref="B4" display="e2e\4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId4"/>
     <hyperlink ref="B5" display="e2e\712ff180-b74f-4ba8-95d1-44e62587c07f.md" r:id="rId5"/>
     <hyperlink ref="B6" display="e2e\acc33caa-6a9d-47e3-a2a0-22020a6a2c37.md" r:id="rId6"/>
@@ -620,7 +620,7 @@
         <v>46</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
@@ -629,25 +629,25 @@
         <v>45</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="0" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -658,16 +658,16 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>50</v>
@@ -676,7 +676,7 @@
         <v>51</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
@@ -688,78 +688,78 @@
         <v>52</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="0" t="s">
         <v>44</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>53</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="0" t="s">
         <v>44</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -770,25 +770,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>54</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
@@ -797,25 +797,25 @@
         <v>54</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="0" t="s">
         <v>44</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -826,25 +826,25 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>55</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
@@ -853,25 +853,25 @@
         <v>55</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="0" t="s">
         <v>44</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -882,25 +882,25 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>56</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
@@ -909,33 +909,33 @@
         <v>56</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="0" t="s">
         <v>44</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="10f3806c-2998-43cd-a6a2-45851d8a87dc.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="10f3806c-2998-43cd-a6a2-45851d8a87dc.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="10f3806c-2998-43cd-a6a2-45851d8a87dc.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="10f3806c-2998-43cd-a6a2-45851d8a87dc.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId5"/>
     <hyperlink ref="A4" display="4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId6"/>
     <hyperlink ref="J4" display="4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId7"/>
     <hyperlink ref="A5" display="712ff180-b74f-4ba8-95d1-44e62587c07f.md" r:id="rId8"/>
@@ -1062,7 +1062,7 @@
         <v>11</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
@@ -1074,22 +1074,22 @@
         <v>58</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="0" t="s">
         <v>44</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
@@ -1100,25 +1100,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G3" s="0" t="s">
         <v>59</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>12</v>
@@ -1130,78 +1130,78 @@
         <v>60</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="0" t="s">
         <v>44</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G4" s="0" t="s">
         <v>61</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
         <v>61</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="0" t="s">
         <v>44</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
@@ -1212,25 +1212,25 @@
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D5" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" s="0" t="s">
         <v>62</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
         <v>18</v>
@@ -1239,25 +1239,25 @@
         <v>62</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="0" t="s">
         <v>44</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
@@ -1268,25 +1268,25 @@
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D6" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G6" s="0" t="s">
         <v>63</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>20</v>
@@ -1295,25 +1295,25 @@
         <v>63</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="0" t="s">
         <v>44</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
@@ -1324,25 +1324,25 @@
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D7" s="0" t="s">
         <v>42</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G7" s="0" t="s">
         <v>64</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>22</v>
@@ -1351,33 +1351,33 @@
         <v>64</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="Q7" s="0" t="s">
         <v>44</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="10f3806c-2998-43cd-a6a2-45851d8a87dc.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="10f3806c-2998-43cd-a6a2-45851d8a87dc.md" r:id="rId5"/>
+    <hyperlink ref="A2" display="10f3806c-2998-43cd-a6a2-45851d8a87dc.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="10f3806c-2998-43cd-a6a2-45851d8a87dc.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="eba56d22-c6f5-4b2c-b9c7-83d400b3b666.md" r:id="rId5"/>
     <hyperlink ref="A4" display="4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId6"/>
     <hyperlink ref="J4" display="4f769bcc-8af8-485c-be52-98fb90d527d2.md" r:id="rId7"/>
     <hyperlink ref="A5" display="712ff180-b74f-4ba8-95d1-44e62587c07f.md" r:id="rId8"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>File Name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>zh-cn</t>
   </si>
   <si>
+    <t>de-de</t>
+  </si>
+  <si>
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
@@ -46,94 +49,106 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>2017-03-02 06:44:31</t>
+  </si>
+  <si>
+    <t>c631b688-01c2-4119-b7a3-b447ee332370.md</t>
+  </si>
+  <si>
+    <t>e2e\c631b688-01c2-4119-b7a3-b447ee332370.md</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source Path</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Content Duplicate</t>
+  </si>
+  <si>
+    <t>Correspond Handoff File</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Name</t>
+  </si>
+  <si>
+    <t>Target File</t>
+  </si>
+  <si>
+    <t>Correspond Handback File</t>
+  </si>
+  <si>
+    <t>Correspond Handback DateTime</t>
+  </si>
+  <si>
+    <t>Correspond Handback Name</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>To be localized</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Has metadata</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>e2e</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>0b2d148e-881a-488c-89d4-a59f153535f4.4c90ebc66f889c5e5b49cb56180b23b80f7822ea.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-03-02 06:44:16</t>
   </si>
   <si>
-    <t>c631b688-01c2-4119-b7a3-b447ee332370.md</t>
-  </si>
-  <si>
-    <t>e2e\c631b688-01c2-4119-b7a3-b447ee332370.md</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source Path</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Content Duplicate</t>
-  </si>
-  <si>
-    <t>Correspond Handoff File</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Name</t>
-  </si>
-  <si>
-    <t>Target File</t>
-  </si>
-  <si>
-    <t>Correspond Handback File</t>
-  </si>
-  <si>
-    <t>Correspond Handback DateTime</t>
-  </si>
-  <si>
-    <t>Correspond Handback Name</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>To be localized</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Has metadata</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>e2e</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>0b2d148e-881a-488c-89d4-a59f153535f4.4c90ebc66f889c5e5b49cb56180b23b80f7822ea.zh-cn.xlf</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>2017-03-02 06:45:11</t>
   </si>
   <si>
-    <t>API_HB1_2017030245</t>
+    <t>API_HB2_2017030245</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>c631b688-01c2-4119-b7a3-b447ee332370.c977cba29204721e8cce4efe083eb1561d374cc8.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>0b2d148e-881a-488c-89d4-a59f153535f4.4c90ebc66f889c5e5b49cb56180b23b80f7822ea.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-03-02 06:45:59</t>
+  </si>
+  <si>
+    <t>c631b688-01c2-4119-b7a3-b447ee332370.c977cba29204721e8cce4efe083eb1561d374cc8.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -217,7 +232,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -243,15 +259,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:F3" headerRowCount="1">
-  <autoFilter ref="A1:F3"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
     <tableColumn id="3" name="Extension"/>
     <tableColumn id="4" name="Publish URL"/>
     <tableColumn id="5" name="zh-cn"/>
-    <tableColumn id="6" name="Latest HO Xliff Generate Date"/>
+    <tableColumn id="6" name="de-de"/>
+    <tableColumn id="7" name="Latest HO Xliff Generate Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -259,7 +276,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -270,7 +287,8 @@
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
     <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.5073743547712" customWidth="1"/>
+    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -292,39 +310,48 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -369,170 +396,170 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -551,89 +578,207 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6706946236747" customWidth="1"/>
-    <col min="2" max="2" width="13.4869144984654" customWidth="1"/>
-    <col min="3" max="3" width="6.86154392787388" customWidth="1"/>
-    <col min="4" max="4" width="11.9073017665318" customWidth="1"/>
-    <col min="5" max="5" width="7.86005565098354" customWidth="1"/>
-    <col min="6" max="6" width="17.306018284389" customWidth="1"/>
-    <col min="7" max="7" width="22.7937404087612" customWidth="1"/>
-    <col min="8" max="8" width="27.9131600516183" customWidth="1"/>
-    <col min="9" max="9" width="24.962637765067" customWidth="1"/>
-    <col min="10" max="10" width="10.6069859095982" customWidth="1"/>
-    <col min="11" max="11" width="24.398930140904" customWidth="1"/>
-    <col min="12" max="12" width="29.8467516217913" customWidth="1"/>
-    <col min="13" max="13" width="26.5678274972098" customWidth="1"/>
-    <col min="14" max="14" width="17.048205784389" customWidth="1"/>
-    <col min="15" max="15" width="14.4148352486747" customWidth="1"/>
-    <col min="16" max="16" width="17.4799390520368" customWidth="1"/>
-    <col min="17" max="17" width="13.6004747663225" customWidth="1"/>
-    <col min="18" max="18" width="11.4970528738839" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
+    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
+    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
+    <col min="9" max="9" width="27.212637765067" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
+    <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
+    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
+    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
+    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
+    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="0b2d148e-881a-488c-89d4-a59f153535f4.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="0b2d148e-881a-488c-89d4-a59f153535f4.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="c631b688-01c2-4119-b7a3-b447ee332370.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="c631b688-01c2-4119-b7a3-b447ee332370.md" r:id="rId5"/>
+  </hyperlinks>
   <headerFooter/>
   <tableParts>
     <tablePart r:id="rId1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>File Name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>zh-cn</t>
   </si>
   <si>
+    <t>de-de</t>
+  </si>
+  <si>
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
@@ -46,94 +49,106 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
+    <t>2017-03-02 08:22:14</t>
+  </si>
+  <si>
+    <t>e97056e6-bafa-475a-a60f-5a25b263fe56.md</t>
+  </si>
+  <si>
+    <t>e2e\e97056e6-bafa-475a-a60f-5a25b263fe56.md</t>
+  </si>
+  <si>
+    <t>Source File Name</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Source Path</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Content Duplicate</t>
+  </si>
+  <si>
+    <t>Correspond Handoff File</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Datetime</t>
+  </si>
+  <si>
+    <t>Correspond Handoff Name</t>
+  </si>
+  <si>
+    <t>Target File</t>
+  </si>
+  <si>
+    <t>Correspond Handback File</t>
+  </si>
+  <si>
+    <t>Correspond Handback DateTime</t>
+  </si>
+  <si>
+    <t>Correspond Handback Name</t>
+  </si>
+  <si>
+    <t>Reference Tokens</t>
+  </si>
+  <si>
+    <t>To be localized</t>
+  </si>
+  <si>
+    <t>Dependency From</t>
+  </si>
+  <si>
+    <t>Has metadata</t>
+  </si>
+  <si>
+    <t>Error Detail</t>
+  </si>
+  <si>
+    <t>e2e</t>
+  </si>
+  <si>
+    <t>ht</t>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>3d2cfe56-bc29-4208-b951-5ed0af1229f0.c93033fa13d1733ba976b53f90d585f7f6c0c28a.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-03-02 08:21:45</t>
   </si>
   <si>
-    <t>e97056e6-bafa-475a-a60f-5a25b263fe56.md</t>
-  </si>
-  <si>
-    <t>e2e\e97056e6-bafa-475a-a60f-5a25b263fe56.md</t>
-  </si>
-  <si>
-    <t>Source File Name</t>
-  </si>
-  <si>
-    <t>File Extension</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Source Path</t>
-  </si>
-  <si>
-    <t>Priority</t>
-  </si>
-  <si>
-    <t>Content Duplicate</t>
-  </si>
-  <si>
-    <t>Correspond Handoff File</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Datetime</t>
-  </si>
-  <si>
-    <t>Correspond Handoff Name</t>
-  </si>
-  <si>
-    <t>Target File</t>
-  </si>
-  <si>
-    <t>Correspond Handback File</t>
-  </si>
-  <si>
-    <t>Correspond Handback DateTime</t>
-  </si>
-  <si>
-    <t>Correspond Handback Name</t>
-  </si>
-  <si>
-    <t>Reference Tokens</t>
-  </si>
-  <si>
-    <t>To be localized</t>
-  </si>
-  <si>
-    <t>Dependency From</t>
-  </si>
-  <si>
-    <t>Has metadata</t>
-  </si>
-  <si>
-    <t>Error Detail</t>
-  </si>
-  <si>
-    <t>e2e</t>
-  </si>
-  <si>
-    <t>ht</t>
-  </si>
-  <si>
-    <t>False</t>
-  </si>
-  <si>
-    <t>3d2cfe56-bc29-4208-b951-5ed0af1229f0.c93033fa13d1733ba976b53f90d585f7f6c0c28a.zh-cn.xlf</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
     <t>2017-03-02 08:22:55</t>
   </si>
   <si>
-    <t>API_HB1_2017030222</t>
+    <t>API_HB2_2017030223</t>
   </si>
   <si>
     <t>True</t>
   </si>
   <si>
     <t>e97056e6-bafa-475a-a60f-5a25b263fe56.c34d165efedfda6cfa752c673942135a19c44cd0.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>3d2cfe56-bc29-4208-b951-5ed0af1229f0.c93033fa13d1733ba976b53f90d585f7f6c0c28a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-03-02 08:23:42</t>
+  </si>
+  <si>
+    <t>e97056e6-bafa-475a-a60f-5a25b263fe56.c34d165efedfda6cfa752c673942135a19c44cd0.de-de.xlf</t>
   </si>
 </sst>
 </file>
@@ -217,7 +232,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R1" headerRowCount="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R3" headerRowCount="1">
+  <autoFilter ref="A1:R3"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -243,15 +259,16 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:F3" headerRowCount="1">
-  <autoFilter ref="A1:F3"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G3" headerRowCount="1">
+  <autoFilter ref="A1:G3"/>
+  <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
     <tableColumn id="3" name="Extension"/>
     <tableColumn id="4" name="Publish URL"/>
     <tableColumn id="5" name="zh-cn"/>
-    <tableColumn id="6" name="Latest HO Xliff Generate Date"/>
+    <tableColumn id="6" name="de-de"/>
+    <tableColumn id="7" name="Latest HO Xliff Generate Date"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -259,7 +276,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -270,7 +287,8 @@
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
     <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
-    <col min="6" max="6" width="29.5073743547712" customWidth="1"/>
+    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
+    <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -292,39 +310,48 @@
       <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="0" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
         <v>10</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -369,170 +396,170 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M2" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="N2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="O2" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="0" t="s">
-        <v>33</v>
-      </c>
       <c r="R2" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="0" t="s">
+      <c r="M3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="M3" s="0" t="s">
-        <v>37</v>
-      </c>
       <c r="N3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -551,89 +578,207 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.6706946236747" customWidth="1"/>
-    <col min="2" max="2" width="13.4869144984654" customWidth="1"/>
-    <col min="3" max="3" width="6.86154392787388" customWidth="1"/>
-    <col min="4" max="4" width="11.9073017665318" customWidth="1"/>
-    <col min="5" max="5" width="7.86005565098354" customWidth="1"/>
-    <col min="6" max="6" width="17.306018284389" customWidth="1"/>
-    <col min="7" max="7" width="22.7937404087612" customWidth="1"/>
-    <col min="8" max="8" width="27.9131600516183" customWidth="1"/>
-    <col min="9" max="9" width="24.962637765067" customWidth="1"/>
-    <col min="10" max="10" width="10.6069859095982" customWidth="1"/>
-    <col min="11" max="11" width="24.398930140904" customWidth="1"/>
-    <col min="12" max="12" width="29.8467516217913" customWidth="1"/>
-    <col min="13" max="13" width="26.5678274972098" customWidth="1"/>
-    <col min="14" max="14" width="17.048205784389" customWidth="1"/>
-    <col min="15" max="15" width="14.4148352486747" customWidth="1"/>
-    <col min="16" max="16" width="17.4799390520368" customWidth="1"/>
-    <col min="17" max="17" width="13.6004747663225" customWidth="1"/>
-    <col min="18" max="18" width="11.4970528738839" customWidth="1"/>
+    <col min="1" max="1" width="40" customWidth="1"/>
+    <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
+    <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
+    <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
+    <col min="6" max="6" width="19.556018284389" customWidth="1"/>
+    <col min="7" max="7" width="40" customWidth="1"/>
+    <col min="8" max="8" width="30.1631600516183" customWidth="1"/>
+    <col min="9" max="9" width="27.212637765067" customWidth="1"/>
+    <col min="10" max="10" width="40" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
+    <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
+    <col min="14" max="14" width="19.298205784389" customWidth="1"/>
+    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
+    <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
+    <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q2" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="M3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="N3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="O3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="P3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q3" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="R3" s="0" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" display="3d2cfe56-bc29-4208-b951-5ed0af1229f0.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="3d2cfe56-bc29-4208-b951-5ed0af1229f0.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="e97056e6-bafa-475a-a60f-5a25b263fe56.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="e97056e6-bafa-475a-a60f-5a25b263fe56.md" r:id="rId5"/>
+  </hyperlinks>
   <headerFooter/>
   <tableParts>
     <tablePart r:id="rId1"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>File Name</t>
   </si>
@@ -37,55 +37,52 @@
     <t>Latest HO Xliff Generate Date</t>
   </si>
   <si>
+    <t>167f43ef-f4b8-4a43-bb5a-c17bb35d16ff.md</t>
+  </si>
+  <si>
+    <t>e2e\167f43ef-f4b8-4a43-bb5a-c17bb35d16ff.md</t>
+  </si>
+  <si>
+    <t>.md</t>
+  </si>
+  <si>
+    <t>Handed back: in sync with en-US</t>
+  </si>
+  <si>
+    <t>N\A</t>
+  </si>
+  <si>
+    <t>2017-03-02 08:28:55</t>
+  </si>
+  <si>
+    <t>35cc0030-8bf1-4f57-ac4a-683b2be1d918.md</t>
+  </si>
+  <si>
+    <t>e2e\35cc0030-8bf1-4f57-ac4a-683b2be1d918.md</t>
+  </si>
+  <si>
+    <t>41182f6e-3964-4fe5-8ccd-01e0bbc68925.md</t>
+  </si>
+  <si>
+    <t>e2e\41182f6e-3964-4fe5-8ccd-01e0bbc68925.md</t>
+  </si>
+  <si>
+    <t>2017-03-02 08:25:13</t>
+  </si>
+  <si>
+    <t>4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md</t>
+  </si>
+  <si>
+    <t>e2e\4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md</t>
+  </si>
+  <si>
     <t>530ae844-2736-4e06-ad08-4376f1741612.md</t>
   </si>
   <si>
     <t>e2e\530ae844-2736-4e06-ad08-4376f1741612.md</t>
   </si>
   <si>
-    <t>.md</t>
-  </si>
-  <si>
-    <t>Handed back: not in sync with en-US</t>
-  </si>
-  <si>
-    <t>2017-03-02 08:33:22</t>
-  </si>
-  <si>
-    <t>167f43ef-f4b8-4a43-bb5a-c17bb35d16ff.md</t>
-  </si>
-  <si>
-    <t>e2e\167f43ef-f4b8-4a43-bb5a-c17bb35d16ff.md</t>
-  </si>
-  <si>
-    <t>Handed back: in sync with en-US</t>
-  </si>
-  <si>
-    <t>N\A</t>
-  </si>
-  <si>
-    <t>2017-03-02 08:28:55</t>
-  </si>
-  <si>
-    <t>35cc0030-8bf1-4f57-ac4a-683b2be1d918.md</t>
-  </si>
-  <si>
-    <t>e2e\35cc0030-8bf1-4f57-ac4a-683b2be1d918.md</t>
-  </si>
-  <si>
-    <t>41182f6e-3964-4fe5-8ccd-01e0bbc68925.md</t>
-  </si>
-  <si>
-    <t>e2e\41182f6e-3964-4fe5-8ccd-01e0bbc68925.md</t>
-  </si>
-  <si>
-    <t>2017-03-02 08:25:13</t>
-  </si>
-  <si>
-    <t>4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md</t>
-  </si>
-  <si>
-    <t>e2e\4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md</t>
+    <t>2017-03-02 08:34:15</t>
   </si>
   <si>
     <t>74ebd2bb-c08d-4b3a-839c-73954c26dae4.md</t>
@@ -160,49 +157,49 @@
     <t>e2e</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
+    <t>False</t>
+  </si>
+  <si>
+    <t>167f43ef-f4b8-4a43-bb5a-c17bb35d16ff.77a5616cfcc7b1205f3d59f4439fc91e6e8c266f.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-03-02 08:28:05</t>
+  </si>
+  <si>
+    <t>API_HB_2017030227</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>35cc0030-8bf1-4f57-ac4a-683b2be1d918.50ea4cb70dc064029f76b879a26bb330b2b8e20a.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>41182f6e-3964-4fe5-8ccd-01e0bbc68925.b8aaae8a5cfd186e6f32c503ae5583d66a0a2b5d.zh-cn.xlf</t>
+  </si>
+  <si>
+    <t>2017-03-02 08:24:54</t>
+  </si>
+  <si>
+    <t>2017-03-02 08:25:53</t>
+  </si>
+  <si>
+    <t>4a245fc9-a850-4a9c-ba01-0c84f020ac0d.087f495d0f8c57df7a3e471be63765f3e30aacf0.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>ht</t>
   </si>
   <si>
-    <t>False</t>
-  </si>
-  <si>
     <t>530ae844-2736-4e06-ad08-4376f1741612.d82e9c1507b02f5c6864d75fac2338b27ccb42ca.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-03-02 08:33:05</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>2017-03-02 08:34:55</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>167f43ef-f4b8-4a43-bb5a-c17bb35d16ff.77a5616cfcc7b1205f3d59f4439fc91e6e8c266f.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-03-02 08:28:05</t>
-  </si>
-  <si>
-    <t>API_HB_2017030227</t>
-  </si>
-  <si>
-    <t>35cc0030-8bf1-4f57-ac4a-683b2be1d918.50ea4cb70dc064029f76b879a26bb330b2b8e20a.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>41182f6e-3964-4fe5-8ccd-01e0bbc68925.b8aaae8a5cfd186e6f32c503ae5583d66a0a2b5d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-03-02 08:24:54</t>
-  </si>
-  <si>
-    <t>2017-03-02 08:25:53</t>
-  </si>
-  <si>
-    <t>4a245fc9-a850-4a9c-ba01-0c84f020ac0d.087f495d0f8c57df7a3e471be63765f3e30aacf0.zh-cn.xlf</t>
+    <t>2017-03-02 08:33:58</t>
+  </si>
+  <si>
+    <t>2017-03-02 08:36:06</t>
   </si>
   <si>
     <t>74ebd2bb-c08d-4b3a-839c-73954c26dae4.43d3c1a327581d4cfd808e4d179af9533a2f2ef0.zh-cn.xlf</t>
@@ -220,19 +217,19 @@
     <t>d8549613-7f4e-4ec8-8d29-8ef91873817a.9e5adee6633867abe66edc49f2cf9117651c346a.zh-cn.xlf</t>
   </si>
   <si>
+    <t>41182f6e-3964-4fe5-8ccd-01e0bbc68925.b8aaae8a5cfd186e6f32c503ae5583d66a0a2b5d.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-03-02 08:26:15</t>
+  </si>
+  <si>
+    <t>4a245fc9-a850-4a9c-ba01-0c84f020ac0d.087f495d0f8c57df7a3e471be63765f3e30aacf0.de-de.xlf</t>
+  </si>
+  <si>
     <t>530ae844-2736-4e06-ad08-4376f1741612.d82e9c1507b02f5c6864d75fac2338b27ccb42ca.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-03-02 08:35:18</t>
-  </si>
-  <si>
-    <t>41182f6e-3964-4fe5-8ccd-01e0bbc68925.b8aaae8a5cfd186e6f32c503ae5583d66a0a2b5d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-03-02 08:26:15</t>
-  </si>
-  <si>
-    <t>4a245fc9-a850-4a9c-ba01-0c84f020ac0d.087f495d0f8c57df7a3e471be63765f3e30aacf0.de-de.xlf</t>
+    <t>2017-03-02 08:36:28</t>
   </si>
   <si>
     <t>74ebd2bb-c08d-4b3a-839c-73954c26dae4.43d3c1a327581d4cfd808e4d179af9533a2f2ef0.de-de.xlf</t>
@@ -379,8 +376,8 @@
     <col min="2" max="2" width="40" customWidth="1"/>
     <col min="3" max="3" width="12.1930160522461" customWidth="1"/>
     <col min="4" max="4" width="13.9639423915318" customWidth="1"/>
-    <col min="5" max="5" width="33.4602203369141" customWidth="1"/>
-    <col min="6" max="6" width="33.4602203369141" customWidth="1"/>
+    <col min="5" max="5" width="29.9777047293527" customWidth="1"/>
+    <col min="6" max="6" width="29.9777047293527" customWidth="1"/>
     <col min="7" max="7" width="29.5073743547712" customWidth="1"/>
   </cols>
   <sheetData>
@@ -421,139 +418,139 @@
         <v>10</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" display="e2e\530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\167f43ef-f4b8-4a43-bb5a-c17bb35d16ff.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\35cc0030-8bf1-4f57-ac4a-683b2be1d918.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId6"/>
+    <hyperlink ref="B2" display="e2e\167f43ef-f4b8-4a43-bb5a-c17bb35d16ff.md" r:id="rId2"/>
+    <hyperlink ref="B3" display="e2e\35cc0030-8bf1-4f57-ac4a-683b2be1d918.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId6"/>
     <hyperlink ref="B7" display="e2e\74ebd2bb-c08d-4b3a-839c-73954c26dae4.md" r:id="rId7"/>
     <hyperlink ref="B8" display="e2e\d8549613-7f4e-4ec8-8d29-8ef91873817a.md" r:id="rId8"/>
   </hyperlinks>
@@ -574,7 +571,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -594,58 +591,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2">
@@ -659,399 +656,399 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="0" t="s">
+      <c r="G2" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>50</v>
-      </c>
       <c r="H2" s="2" t="s">
-        <v>51</v>
+        <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>16</v>
-      </c>
       <c r="I3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="0" t="s">
         <v>54</v>
       </c>
-      <c r="G4" s="0" t="s">
-        <v>58</v>
-      </c>
       <c r="H4" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>56</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>60</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="L6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E7" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K7" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M7" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="O7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M7" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="N7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="O7" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q7" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="R7" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E8" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="I8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K8" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M8" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K8" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="L8" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="M8" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="N8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="O8" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q8" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="R8" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="167f43ef-f4b8-4a43-bb5a-c17bb35d16ff.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="167f43ef-f4b8-4a43-bb5a-c17bb35d16ff.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="35cc0030-8bf1-4f57-ac4a-683b2be1d918.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="35cc0030-8bf1-4f57-ac4a-683b2be1d918.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId11"/>
+    <hyperlink ref="A2" display="167f43ef-f4b8-4a43-bb5a-c17bb35d16ff.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="167f43ef-f4b8-4a43-bb5a-c17bb35d16ff.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="35cc0030-8bf1-4f57-ac4a-683b2be1d918.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="35cc0030-8bf1-4f57-ac4a-683b2be1d918.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId11"/>
     <hyperlink ref="A7" display="74ebd2bb-c08d-4b3a-839c-73954c26dae4.md" r:id="rId12"/>
     <hyperlink ref="J7" display="74ebd2bb-c08d-4b3a-839c-73954c26dae4.md" r:id="rId13"/>
     <hyperlink ref="A8" display="d8549613-7f4e-4ec8-8d29-8ef91873817a.md" r:id="rId14"/>
@@ -1074,7 +1071,7 @@
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
     <col min="2" max="2" width="15.7369144984654" customWidth="1"/>
-    <col min="3" max="3" width="33.4602203369141" customWidth="1"/>
+    <col min="3" max="3" width="29.9777047293527" customWidth="1"/>
     <col min="4" max="4" width="14.1573017665318" customWidth="1"/>
     <col min="5" max="5" width="10.1100556509835" customWidth="1"/>
     <col min="6" max="6" width="19.556018284389" customWidth="1"/>
@@ -1094,63 +1091,63 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="F1" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="G1" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="H1" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="L1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="N1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="O1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="P1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="Q1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B2" s="0" t="s">
         <v>9</v>
@@ -1159,283 +1156,283 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="G2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="I2" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="M2" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L4" s="2" t="s">
         <v>71</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="O5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M5" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="O5" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="P5" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q5" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="R5" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K6" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="M6" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="P6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="F6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="I6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K6" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="M6" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="N6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="O6" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="P6" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q6" s="0" t="s">
-        <v>49</v>
-      </c>
       <c r="R6" s="0" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId7"/>
+    <hyperlink ref="A2" display="41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId7"/>
     <hyperlink ref="A5" display="74ebd2bb-c08d-4b3a-839c-73954c26dae4.md" r:id="rId8"/>
     <hyperlink ref="J5" display="74ebd2bb-c08d-4b3a-839c-73954c26dae4.md" r:id="rId9"/>
     <hyperlink ref="A6" display="d8549613-7f4e-4ec8-8d29-8ef91873817a.md" r:id="rId10"/>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>File Name</t>
   </si>
@@ -61,15 +61,18 @@
     <t>e2e\1781c8a6-5928-4d4a-ae54-e1069c342292.md</t>
   </si>
   <si>
+    <t>2017-03-02 08:40:01</t>
+  </si>
+  <si>
+    <t>1c625034-05d0-48ef-aff5-1ce6d04b3ad0.md</t>
+  </si>
+  <si>
+    <t>e2e\1c625034-05d0-48ef-aff5-1ce6d04b3ad0.md</t>
+  </si>
+  <si>
     <t>2017-03-02 08:37:42</t>
   </si>
   <si>
-    <t>1c625034-05d0-48ef-aff5-1ce6d04b3ad0.md</t>
-  </si>
-  <si>
-    <t>e2e\1c625034-05d0-48ef-aff5-1ce6d04b3ad0.md</t>
-  </si>
-  <si>
     <t>35cc0030-8bf1-4f57-ac4a-683b2be1d918.md</t>
   </si>
   <si>
@@ -217,15 +220,21 @@
     <t>1781c8a6-5928-4d4a-ae54-e1069c342292.302b9191de005bf1c90752a5902cc924dd2d0d9d.zh-cn.xlf</t>
   </si>
   <si>
+    <t>2017-03-02 08:39:42</t>
+  </si>
+  <si>
+    <t>2017-03-02 08:40:43</t>
+  </si>
+  <si>
+    <t>1c625034-05d0-48ef-aff5-1ce6d04b3ad0.749e23289db625d7006270faa0d3c609b60b5db0.zh-cn.xlf</t>
+  </si>
+  <si>
     <t>2017-03-02 08:37:24</t>
   </si>
   <si>
     <t>2017-03-02 08:38:26</t>
   </si>
   <si>
-    <t>1c625034-05d0-48ef-aff5-1ce6d04b3ad0.749e23289db625d7006270faa0d3c609b60b5db0.zh-cn.xlf</t>
-  </si>
-  <si>
     <t>35cc0030-8bf1-4f57-ac4a-683b2be1d918.50ea4cb70dc064029f76b879a26bb330b2b8e20a.zh-cn.xlf</t>
   </si>
   <si>
@@ -280,10 +289,13 @@
     <t>1781c8a6-5928-4d4a-ae54-e1069c342292.302b9191de005bf1c90752a5902cc924dd2d0d9d.de-de.xlf</t>
   </si>
   <si>
+    <t>2017-03-02 08:41:05</t>
+  </si>
+  <si>
+    <t>1c625034-05d0-48ef-aff5-1ce6d04b3ad0.749e23289db625d7006270faa0d3c609b60b5db0.de-de.xlf</t>
+  </si>
+  <si>
     <t>2017-03-02 08:38:49</t>
-  </si>
-  <si>
-    <t>1c625034-05d0-48ef-aff5-1ce6d04b3ad0.749e23289db625d7006270faa0d3c609b60b5db0.de-de.xlf</t>
   </si>
   <si>
     <t>41182f6e-3964-4fe5-8ccd-01e0bbc68925.b8aaae8a5cfd186e6f32c503ae5583d66a0a2b5d.de-de.xlf</t>
@@ -533,15 +545,15 @@
         <v>10</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="0" t="s">
         <v>9</v>
@@ -558,10 +570,10 @@
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6" s="0" t="s">
         <v>9</v>
@@ -573,35 +585,35 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C8" s="0" t="s">
         <v>9</v>
@@ -613,15 +625,15 @@
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>9</v>
@@ -633,15 +645,15 @@
         <v>10</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C10" s="0" t="s">
         <v>9</v>
@@ -653,18 +665,18 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" s="0" t="s">
         <v>10</v>
@@ -673,19 +685,19 @@
         <v>10</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="E12" s="0" t="s">
         <v>10</v>
       </c>
@@ -693,15 +705,15 @@
         <v>10</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C13" s="0" t="s">
         <v>9</v>
@@ -713,7 +725,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -768,58 +780,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -833,49 +845,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -889,49 +901,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
@@ -945,54 +957,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1001,54 +1013,54 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1057,54 +1069,54 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1113,54 +1125,54 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -1169,54 +1181,54 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B9" s="0" t="s">
         <v>9</v>
@@ -1225,54 +1237,54 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B10" s="0" t="s">
         <v>9</v>
@@ -1281,166 +1293,166 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C11" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P11" s="0" t="s">
         <v>17</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B12" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="C12" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="I12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="M12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O12" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P12" s="0" t="s">
         <v>14</v>
       </c>
       <c r="Q12" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R12" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B13" s="0" t="s">
         <v>9</v>
@@ -1449,49 +1461,49 @@
         <v>10</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="I13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L13" s="2" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="M13" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O13" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q13" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R13" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1558,58 +1570,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -1623,49 +1635,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3">
@@ -1679,54 +1691,54 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" s="0" t="s">
         <v>9</v>
@@ -1735,110 +1747,110 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="I5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B6" s="0" t="s">
         <v>9</v>
@@ -1847,54 +1859,54 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1903,54 +1915,54 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B8" s="0" t="s">
         <v>9</v>
@@ -1959,166 +1971,166 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P9" s="0" t="s">
         <v>17</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="B10" s="0" t="s">
-        <v>35</v>
-      </c>
       <c r="C10" s="0" t="s">
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="P10" s="0" t="s">
         <v>14</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="0" t="s">
         <v>9</v>
@@ -2127,49 +2139,49 @@
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G11" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="L11" s="2" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="M11" s="0" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="N11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="O11" s="0" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="Q11" s="0" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="R11" s="0" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <si>
     <t>File Name</t>
   </si>
@@ -55,15 +55,6 @@
     <t>2017-03-02 08:28:55</t>
   </si>
   <si>
-    <t>1781c8a6-5928-4d4a-ae54-e1069c342292.md</t>
-  </si>
-  <si>
-    <t>e2e\1781c8a6-5928-4d4a-ae54-e1069c342292.md</t>
-  </si>
-  <si>
-    <t>2017-03-02 08:40:01</t>
-  </si>
-  <si>
     <t>1c625034-05d0-48ef-aff5-1ce6d04b3ad0.md</t>
   </si>
   <si>
@@ -118,19 +109,7 @@
     <t>e2e\8cfac292-cc34-43d7-9ad9-32c94ca5ecdf.md</t>
   </si>
   <si>
-    <t>91c009ab-8171-4f51-8293-40fa4a8898d3.png</t>
-  </si>
-  <si>
-    <t>e2e\91c009ab-8171-4f51-8293-40fa4a8898d3.png</t>
-  </si>
-  <si>
-    <t>.png</t>
-  </si>
-  <si>
-    <t>bf8b5078-d13b-4d21-b4b3-1f8f914855d2.png</t>
-  </si>
-  <si>
-    <t>e2e\bf8b5078-d13b-4d21-b4b3-1f8f914855d2.png</t>
+    <t>2017-03-02 08:42:09</t>
   </si>
   <si>
     <t>d8549613-7f4e-4ec8-8d29-8ef91873817a.md</t>
@@ -217,15 +196,6 @@
     <t>ht</t>
   </si>
   <si>
-    <t>1781c8a6-5928-4d4a-ae54-e1069c342292.302b9191de005bf1c90752a5902cc924dd2d0d9d.zh-cn.xlf</t>
-  </si>
-  <si>
-    <t>2017-03-02 08:39:42</t>
-  </si>
-  <si>
-    <t>2017-03-02 08:40:43</t>
-  </si>
-  <si>
     <t>1c625034-05d0-48ef-aff5-1ce6d04b3ad0.749e23289db625d7006270faa0d3c609b60b5db0.zh-cn.xlf</t>
   </si>
   <si>
@@ -274,24 +244,15 @@
     <t>8cfac292-cc34-43d7-9ad9-32c94ca5ecdf.fc5a30c1609d6d6e6b6fcc48cb2c3ea18bd4778a.zh-cn.xlf</t>
   </si>
   <si>
-    <t>ff24ac484880846784444a2637a2137d5f68367b.png</t>
-  </si>
-  <si>
-    <t>True(Dependency)</t>
-  </si>
-  <si>
-    <t>af5e2b713c098c381bf706c8d16aeb769d34b271.png</t>
+    <t>2017-03-02 08:41:51</t>
+  </si>
+  <si>
+    <t>2017-03-02 08:42:50</t>
   </si>
   <si>
     <t>d8549613-7f4e-4ec8-8d29-8ef91873817a.9e5adee6633867abe66edc49f2cf9117651c346a.zh-cn.xlf</t>
   </si>
   <si>
-    <t>1781c8a6-5928-4d4a-ae54-e1069c342292.302b9191de005bf1c90752a5902cc924dd2d0d9d.de-de.xlf</t>
-  </si>
-  <si>
-    <t>2017-03-02 08:41:05</t>
-  </si>
-  <si>
     <t>1c625034-05d0-48ef-aff5-1ce6d04b3ad0.749e23289db625d7006270faa0d3c609b60b5db0.de-de.xlf</t>
   </si>
   <si>
@@ -320,6 +281,9 @@
   </si>
   <si>
     <t>8cfac292-cc34-43d7-9ad9-32c94ca5ecdf.fc5a30c1609d6d6e6b6fcc48cb2c3ea18bd4778a.de-de.xlf</t>
+  </si>
+  <si>
+    <t>2017-03-02 08:43:13</t>
   </si>
   <si>
     <t>d8549613-7f4e-4ec8-8d29-8ef91873817a.9e5adee6633867abe66edc49f2cf9117651c346a.de-de.xlf</t>
@@ -379,8 +343,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R13" headerRowCount="1">
-  <autoFilter ref="A1:R13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="zh-cn" displayName="zh_cn" ref="A1:R10" headerRowCount="1">
+  <autoFilter ref="A1:R10"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -406,8 +370,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R11" headerRowCount="1">
-  <autoFilter ref="A1:R11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="de-de" displayName="de_de" ref="A1:R8" headerRowCount="1">
+  <autoFilter ref="A1:R8"/>
   <tableColumns count="18">
     <tableColumn id="1" name="Source File Name"/>
     <tableColumn id="2" name="File Extension"/>
@@ -433,8 +397,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G13" headerRowCount="1">
-  <autoFilter ref="A1:G13"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Overview" displayName="Overview" ref="A1:G10" headerRowCount="1">
+  <autoFilter ref="A1:G10"/>
   <tableColumns count="7">
     <tableColumn id="1" name="File Name"/>
     <tableColumn id="2" name="Path And Name"/>
@@ -450,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -542,30 +506,30 @@
         <v>10</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6">
@@ -585,27 +549,27 @@
         <v>10</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="0" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2" t="s">
         <v>25</v>
-      </c>
-      <c r="C7" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="8">
@@ -665,83 +629,20 @@
         <v>10</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" display="e2e\167f43ef-f4b8-4a43-bb5a-c17bb35d16ff.md" r:id="rId2"/>
-    <hyperlink ref="B3" display="e2e\1781c8a6-5928-4d4a-ae54-e1069c342292.md" r:id="rId3"/>
-    <hyperlink ref="B4" display="e2e\1c625034-05d0-48ef-aff5-1ce6d04b3ad0.md" r:id="rId4"/>
-    <hyperlink ref="B5" display="e2e\35cc0030-8bf1-4f57-ac4a-683b2be1d918.md" r:id="rId5"/>
-    <hyperlink ref="B6" display="e2e\41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId6"/>
-    <hyperlink ref="B7" display="e2e\4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId7"/>
-    <hyperlink ref="B8" display="e2e\530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId8"/>
-    <hyperlink ref="B9" display="e2e\74ebd2bb-c08d-4b3a-839c-73954c26dae4.md" r:id="rId9"/>
-    <hyperlink ref="B10" display="e2e\8cfac292-cc34-43d7-9ad9-32c94ca5ecdf.md" r:id="rId10"/>
-    <hyperlink ref="B11" display="e2e\91c009ab-8171-4f51-8293-40fa4a8898d3.png" r:id="rId11"/>
-    <hyperlink ref="B12" display="e2e\bf8b5078-d13b-4d21-b4b3-1f8f914855d2.png" r:id="rId12"/>
-    <hyperlink ref="B13" display="e2e\d8549613-7f4e-4ec8-8d29-8ef91873817a.md" r:id="rId13"/>
+    <hyperlink ref="B3" display="e2e\1c625034-05d0-48ef-aff5-1ce6d04b3ad0.md" r:id="rId3"/>
+    <hyperlink ref="B4" display="e2e\35cc0030-8bf1-4f57-ac4a-683b2be1d918.md" r:id="rId4"/>
+    <hyperlink ref="B5" display="e2e\41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId5"/>
+    <hyperlink ref="B6" display="e2e\4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId6"/>
+    <hyperlink ref="B7" display="e2e\530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId7"/>
+    <hyperlink ref="B8" display="e2e\74ebd2bb-c08d-4b3a-839c-73954c26dae4.md" r:id="rId8"/>
+    <hyperlink ref="B9" display="e2e\8cfac292-cc34-43d7-9ad9-32c94ca5ecdf.md" r:id="rId9"/>
+    <hyperlink ref="B10" display="e2e\d8549613-7f4e-4ec8-8d29-8ef91873817a.md" r:id="rId10"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -752,7 +653,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R13"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -772,66 +673,66 @@
     <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
     <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
     <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="17.7080830165318" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
     <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
     <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -845,49 +746,49 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
@@ -901,49 +802,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="F3" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -957,54 +858,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>71</v>
+        <v>12</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1013,49 +914,49 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F5" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G5" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>12</v>
-      </c>
       <c r="I5" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -1069,54 +970,54 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F6" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G6" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="I6" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="0" t="s">
         <v>9</v>
@@ -1125,49 +1026,49 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -1181,49 +1082,49 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9">
@@ -1237,49 +1138,49 @@
         <v>10</v>
       </c>
       <c r="D9" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="F9" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G9" s="0" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="I9" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J9" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="L9" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="M9" s="0" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="N9" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O9" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P9" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R9" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="10">
@@ -1293,245 +1194,71 @@
         <v>10</v>
       </c>
       <c r="D10" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E10" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="F10" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G10" s="0" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I10" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J10" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="L10" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="M10" s="0" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="N10" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O10" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P10" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q10" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R10" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G12" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J12" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K12" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="L12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="M12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N12" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O12" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="P12" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q12" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R12" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B13" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D13" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F13" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="I13" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K13" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="L13" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="M13" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="N13" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O13" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="P13" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q13" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R13" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" display="167f43ef-f4b8-4a43-bb5a-c17bb35d16ff.md" r:id="rId2"/>
     <hyperlink ref="J2" display="167f43ef-f4b8-4a43-bb5a-c17bb35d16ff.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="1781c8a6-5928-4d4a-ae54-e1069c342292.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="1781c8a6-5928-4d4a-ae54-e1069c342292.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="1c625034-05d0-48ef-aff5-1ce6d04b3ad0.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="1c625034-05d0-48ef-aff5-1ce6d04b3ad0.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="35cc0030-8bf1-4f57-ac4a-683b2be1d918.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="35cc0030-8bf1-4f57-ac4a-683b2be1d918.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId12"/>
-    <hyperlink ref="J7" display="4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId14"/>
-    <hyperlink ref="J8" display="530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="74ebd2bb-c08d-4b3a-839c-73954c26dae4.md" r:id="rId16"/>
-    <hyperlink ref="J9" display="74ebd2bb-c08d-4b3a-839c-73954c26dae4.md" r:id="rId17"/>
-    <hyperlink ref="A10" display="8cfac292-cc34-43d7-9ad9-32c94ca5ecdf.md" r:id="rId18"/>
-    <hyperlink ref="J10" display="8cfac292-cc34-43d7-9ad9-32c94ca5ecdf.md" r:id="rId19"/>
-    <hyperlink ref="A11" display="91c009ab-8171-4f51-8293-40fa4a8898d3.png" r:id="rId20"/>
-    <hyperlink ref="J11" display="91c009ab-8171-4f51-8293-40fa4a8898d3.png" r:id="rId21"/>
-    <hyperlink ref="A12" display="bf8b5078-d13b-4d21-b4b3-1f8f914855d2.png" r:id="rId22"/>
-    <hyperlink ref="J12" display="bf8b5078-d13b-4d21-b4b3-1f8f914855d2.png" r:id="rId23"/>
-    <hyperlink ref="A13" display="d8549613-7f4e-4ec8-8d29-8ef91873817a.md" r:id="rId24"/>
-    <hyperlink ref="J13" display="d8549613-7f4e-4ec8-8d29-8ef91873817a.md" r:id="rId25"/>
+    <hyperlink ref="A3" display="1c625034-05d0-48ef-aff5-1ce6d04b3ad0.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="1c625034-05d0-48ef-aff5-1ce6d04b3ad0.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="35cc0030-8bf1-4f57-ac4a-683b2be1d918.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="35cc0030-8bf1-4f57-ac4a-683b2be1d918.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="74ebd2bb-c08d-4b3a-839c-73954c26dae4.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="74ebd2bb-c08d-4b3a-839c-73954c26dae4.md" r:id="rId15"/>
+    <hyperlink ref="A9" display="8cfac292-cc34-43d7-9ad9-32c94ca5ecdf.md" r:id="rId16"/>
+    <hyperlink ref="J9" display="8cfac292-cc34-43d7-9ad9-32c94ca5ecdf.md" r:id="rId17"/>
+    <hyperlink ref="A10" display="d8549613-7f4e-4ec8-8d29-8ef91873817a.md" r:id="rId18"/>
+    <hyperlink ref="J10" display="d8549613-7f4e-4ec8-8d29-8ef91873817a.md" r:id="rId19"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>
@@ -1542,7 +1269,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:R11"/>
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1562,66 +1289,66 @@
     <col min="12" max="12" width="32.0967516217913" customWidth="1"/>
     <col min="13" max="13" width="28.8178274972098" customWidth="1"/>
     <col min="14" max="14" width="19.298205784389" customWidth="1"/>
-    <col min="15" max="15" width="17.7080830165318" customWidth="1"/>
-    <col min="16" max="16" width="40" customWidth="1"/>
+    <col min="15" max="15" width="16.6648352486747" customWidth="1"/>
+    <col min="16" max="16" width="19.7299390520368" customWidth="1"/>
     <col min="17" max="17" width="15.8504747663225" customWidth="1"/>
     <col min="18" max="18" width="13.7470528738839" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="H1" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="I1" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="C1" s="0" t="s">
+      <c r="J1" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="K1" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="L1" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="M1" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="N1" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="O1" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="P1" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="0" t="s">
+      <c r="Q1" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="0" t="s">
+      <c r="R1" s="0" t="s">
         <v>51</v>
-      </c>
-      <c r="L1" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="O1" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="P1" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q1" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="R1" s="0" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2">
@@ -1635,54 +1362,54 @@
         <v>10</v>
       </c>
       <c r="D2" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E2" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="F2" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="G2" s="0" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="M2" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N2" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O2" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P2" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q2" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R2" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="0" t="s">
         <v>9</v>
@@ -1691,49 +1418,49 @@
         <v>10</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G3" s="0" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I3" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="K3" s="0" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="M3" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N3" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O3" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P3" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q3" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R3" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4">
@@ -1747,54 +1474,54 @@
         <v>10</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G4" s="0" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>21</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="M4" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N4" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O4" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P4" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q4" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R4" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B5" s="0" t="s">
         <v>9</v>
@@ -1803,49 +1530,49 @@
         <v>10</v>
       </c>
       <c r="D5" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>60</v>
-      </c>
       <c r="F5" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="H5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I5" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K5" s="0" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="L5" s="2" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="M5" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="N5" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O5" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P5" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q5" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R5" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6">
@@ -1859,49 +1586,49 @@
         <v>10</v>
       </c>
       <c r="D6" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E6" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="F6" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G6" s="0" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J6" s="1" t="s">
         <v>26</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="L6" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="M6" s="0" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="N6" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O6" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P6" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q6" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R6" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7">
@@ -1915,49 +1642,49 @@
         <v>10</v>
       </c>
       <c r="D7" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="F7" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>31</v>
       </c>
       <c r="I7" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>99</v>
+        <v>88</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="M7" s="0" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="N7" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O7" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P7" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R7" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8">
@@ -1971,241 +1698,67 @@
         <v>10</v>
       </c>
       <c r="D8" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>59</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>66</v>
-      </c>
       <c r="F8" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G8" s="0" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="I8" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="J8" s="1" t="s">
         <v>32</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="M8" s="0" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="N8" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="O8" s="0" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="P8" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="0" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="R8" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="K9" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="L9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N9" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O9" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="P9" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q9" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R9" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="M10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="N10" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O10" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="P10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q10" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R10" s="0" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="D11" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="J11" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="L11" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="M11" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="N11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="O11" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="P11" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="Q11" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="R11" s="0" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" display="1781c8a6-5928-4d4a-ae54-e1069c342292.md" r:id="rId2"/>
-    <hyperlink ref="J2" display="1781c8a6-5928-4d4a-ae54-e1069c342292.md" r:id="rId3"/>
-    <hyperlink ref="A3" display="1c625034-05d0-48ef-aff5-1ce6d04b3ad0.md" r:id="rId4"/>
-    <hyperlink ref="J3" display="1c625034-05d0-48ef-aff5-1ce6d04b3ad0.md" r:id="rId5"/>
-    <hyperlink ref="A4" display="41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId6"/>
-    <hyperlink ref="J4" display="41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId7"/>
-    <hyperlink ref="A5" display="4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId8"/>
-    <hyperlink ref="J5" display="4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId9"/>
-    <hyperlink ref="A6" display="530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId10"/>
-    <hyperlink ref="J6" display="530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId11"/>
-    <hyperlink ref="A7" display="74ebd2bb-c08d-4b3a-839c-73954c26dae4.md" r:id="rId12"/>
-    <hyperlink ref="J7" display="74ebd2bb-c08d-4b3a-839c-73954c26dae4.md" r:id="rId13"/>
-    <hyperlink ref="A8" display="8cfac292-cc34-43d7-9ad9-32c94ca5ecdf.md" r:id="rId14"/>
-    <hyperlink ref="J8" display="8cfac292-cc34-43d7-9ad9-32c94ca5ecdf.md" r:id="rId15"/>
-    <hyperlink ref="A9" display="91c009ab-8171-4f51-8293-40fa4a8898d3.png" r:id="rId16"/>
-    <hyperlink ref="J9" display="91c009ab-8171-4f51-8293-40fa4a8898d3.png" r:id="rId17"/>
-    <hyperlink ref="A10" display="bf8b5078-d13b-4d21-b4b3-1f8f914855d2.png" r:id="rId18"/>
-    <hyperlink ref="J10" display="bf8b5078-d13b-4d21-b4b3-1f8f914855d2.png" r:id="rId19"/>
-    <hyperlink ref="A11" display="d8549613-7f4e-4ec8-8d29-8ef91873817a.md" r:id="rId20"/>
-    <hyperlink ref="J11" display="d8549613-7f4e-4ec8-8d29-8ef91873817a.md" r:id="rId21"/>
+    <hyperlink ref="A2" display="1c625034-05d0-48ef-aff5-1ce6d04b3ad0.md" r:id="rId2"/>
+    <hyperlink ref="J2" display="1c625034-05d0-48ef-aff5-1ce6d04b3ad0.md" r:id="rId3"/>
+    <hyperlink ref="A3" display="41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId4"/>
+    <hyperlink ref="J3" display="41182f6e-3964-4fe5-8ccd-01e0bbc68925.md" r:id="rId5"/>
+    <hyperlink ref="A4" display="4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId6"/>
+    <hyperlink ref="J4" display="4a245fc9-a850-4a9c-ba01-0c84f020ac0d.md" r:id="rId7"/>
+    <hyperlink ref="A5" display="530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId8"/>
+    <hyperlink ref="J5" display="530ae844-2736-4e06-ad08-4376f1741612.md" r:id="rId9"/>
+    <hyperlink ref="A6" display="74ebd2bb-c08d-4b3a-839c-73954c26dae4.md" r:id="rId10"/>
+    <hyperlink ref="J6" display="74ebd2bb-c08d-4b3a-839c-73954c26dae4.md" r:id="rId11"/>
+    <hyperlink ref="A7" display="8cfac292-cc34-43d7-9ad9-32c94ca5ecdf.md" r:id="rId12"/>
+    <hyperlink ref="J7" display="8cfac292-cc34-43d7-9ad9-32c94ca5ecdf.md" r:id="rId13"/>
+    <hyperlink ref="A8" display="d8549613-7f4e-4ec8-8d29-8ef91873817a.md" r:id="rId14"/>
+    <hyperlink ref="J8" display="d8549613-7f4e-4ec8-8d29-8ef91873817a.md" r:id="rId15"/>
   </hyperlinks>
   <headerFooter/>
   <tableParts>

--- a/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
+++ b/ol-handback/OpenLocalizationTestOrg/ol-test4/xinjiang/handback-status.xlsx
@@ -49,7 +49,7 @@
     <t>Handed back: in sync with en-US</t>
   </si>
   <si>
-    <t>2017-03-02 08:59:07</t>
+    <t>2017-03-02 09:01:14</t>
   </si>
   <si>
     <t>Source File Name</t>
@@ -118,13 +118,13 @@
     <t>0ac944de-a5c7-4744-ad44-8e001a4902e5.58b06d713c4b3d2e92e336b22de75ac787a3b31f.zh-cn.xlf</t>
   </si>
   <si>
-    <t>2017-03-02 08:58:50</t>
+    <t>2017-03-02 09:00:57</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>2017-03-02 08:59:46</t>
+    <t>2017-03-02 09:01:57</t>
   </si>
   <si>
     <t>True</t>
@@ -133,7 +133,7 @@
     <t>0ac944de-a5c7-4744-ad44-8e001a4902e5.58b06d713c4b3d2e92e336b22de75ac787a3b31f.de-de.xlf</t>
   </si>
   <si>
-    <t>2017-03-02 09:00:13</t>
+    <t>2017-03-02 09:02:20</t>
   </si>
 </sst>
 </file>
